--- a/BackTest/2020-01-13 BackTest XLM.xlsx
+++ b/BackTest/2020-01-13 BackTest XLM.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M308"/>
+  <dimension ref="A1:N318"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>410.9</v>
       </c>
       <c r="G2" t="n">
+        <v>55.30933333333334</v>
+      </c>
+      <c r="H2" t="n">
         <v>55.20666666666664</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>1477.8549</v>
       </c>
       <c r="G3" t="n">
+        <v>55.30333333333335</v>
+      </c>
+      <c r="H3" t="n">
         <v>55.2018333333333</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>5244.123</v>
       </c>
       <c r="G4" t="n">
+        <v>55.30266666666668</v>
+      </c>
+      <c r="H4" t="n">
         <v>55.20016666666664</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>1243</v>
       </c>
       <c r="G5" t="n">
+        <v>55.29600000000002</v>
+      </c>
+      <c r="H5" t="n">
         <v>55.19533333333331</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>33533.2662</v>
       </c>
       <c r="G6" t="n">
+        <v>55.29600000000002</v>
+      </c>
+      <c r="H6" t="n">
         <v>55.19216666666664</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>621</v>
       </c>
       <c r="G7" t="n">
+        <v>55.29600000000002</v>
+      </c>
+      <c r="H7" t="n">
         <v>55.18899999999997</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>5949.3763</v>
       </c>
       <c r="G8" t="n">
+        <v>55.28866666666669</v>
+      </c>
+      <c r="H8" t="n">
         <v>55.18366666666664</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>622</v>
       </c>
       <c r="G9" t="n">
+        <v>55.27466666666669</v>
+      </c>
+      <c r="H9" t="n">
         <v>55.17666666666663</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>482.6</v>
       </c>
       <c r="G10" t="n">
+        <v>55.27466666666669</v>
+      </c>
+      <c r="H10" t="n">
         <v>55.17316666666663</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>58.8875</v>
       </c>
       <c r="G11" t="n">
+        <v>55.26666666666669</v>
+      </c>
+      <c r="H11" t="n">
         <v>55.16949999999997</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>424</v>
       </c>
       <c r="G12" t="n">
+        <v>55.25800000000002</v>
+      </c>
+      <c r="H12" t="n">
         <v>55.16849999999997</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>424</v>
       </c>
       <c r="G13" t="n">
+        <v>55.26200000000002</v>
+      </c>
+      <c r="H13" t="n">
         <v>55.17066666666664</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>57650.9701</v>
       </c>
       <c r="G14" t="n">
+        <v>55.24800000000002</v>
+      </c>
+      <c r="H14" t="n">
         <v>55.17066666666664</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>2780.1939</v>
       </c>
       <c r="G15" t="n">
+        <v>55.23400000000002</v>
+      </c>
+      <c r="H15" t="n">
         <v>55.17199999999998</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>28334.7334</v>
       </c>
       <c r="G16" t="n">
+        <v>55.22000000000001</v>
+      </c>
+      <c r="H16" t="n">
         <v>55.17366666666664</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>1916</v>
       </c>
       <c r="G17" t="n">
+        <v>55.20600000000001</v>
+      </c>
+      <c r="H17" t="n">
         <v>55.17533333333331</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>1</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>4527.609</v>
       </c>
       <c r="G18" t="n">
+        <v>55.20666666666668</v>
+      </c>
+      <c r="H18" t="n">
         <v>55.17883333333329</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>18002.9</v>
       </c>
       <c r="G19" t="n">
+        <v>55.19133333333335</v>
+      </c>
+      <c r="H19" t="n">
         <v>55.1778333333333</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>20000</v>
       </c>
       <c r="G20" t="n">
+        <v>55.18266666666668</v>
+      </c>
+      <c r="H20" t="n">
         <v>55.17516666666663</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>23751</v>
       </c>
       <c r="G21" t="n">
+        <v>55.16666666666668</v>
+      </c>
+      <c r="H21" t="n">
         <v>55.17233333333331</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>15088.2468</v>
       </c>
       <c r="G22" t="n">
+        <v>55.15066666666668</v>
+      </c>
+      <c r="H22" t="n">
         <v>55.17083333333331</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>631.4637</v>
       </c>
       <c r="G23" t="n">
+        <v>55.14200000000002</v>
+      </c>
+      <c r="H23" t="n">
         <v>55.17099999999998</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,21 @@
         <v>113173.2524</v>
       </c>
       <c r="G24" t="n">
+        <v>55.14000000000001</v>
+      </c>
+      <c r="H24" t="n">
         <v>55.17366666666666</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1327,21 @@
         <v>4167.1561</v>
       </c>
       <c r="G25" t="n">
+        <v>55.12400000000002</v>
+      </c>
+      <c r="H25" t="n">
         <v>55.17483333333332</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1365,21 @@
         <v>3782.3</v>
       </c>
       <c r="G26" t="n">
+        <v>55.11600000000003</v>
+      </c>
+      <c r="H26" t="n">
         <v>55.17599999999999</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1403,21 @@
         <v>24982.5</v>
       </c>
       <c r="G27" t="n">
+        <v>55.10866666666671</v>
+      </c>
+      <c r="H27" t="n">
         <v>55.17849999999999</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1441,21 @@
         <v>1629</v>
       </c>
       <c r="G28" t="n">
+        <v>55.09933333333337</v>
+      </c>
+      <c r="H28" t="n">
         <v>55.18399999999999</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1479,21 @@
         <v>13308.9</v>
       </c>
       <c r="G29" t="n">
+        <v>55.1106666666667</v>
+      </c>
+      <c r="H29" t="n">
         <v>55.19433333333333</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1517,21 @@
         <v>1000</v>
       </c>
       <c r="G30" t="n">
+        <v>55.11533333333337</v>
+      </c>
+      <c r="H30" t="n">
         <v>55.20266666666666</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1555,21 @@
         <v>36487.4533</v>
       </c>
       <c r="G31" t="n">
+        <v>55.11333333333337</v>
+      </c>
+      <c r="H31" t="n">
         <v>55.20299999999999</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1593,21 @@
         <v>10490.7282</v>
       </c>
       <c r="G32" t="n">
+        <v>55.11133333333337</v>
+      </c>
+      <c r="H32" t="n">
         <v>55.20549999999999</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1631,21 @@
         <v>9950.9504</v>
       </c>
       <c r="G33" t="n">
+        <v>55.09400000000004</v>
+      </c>
+      <c r="H33" t="n">
         <v>55.20549999999999</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1669,21 @@
         <v>3750</v>
       </c>
       <c r="G34" t="n">
+        <v>55.08733333333337</v>
+      </c>
+      <c r="H34" t="n">
         <v>55.20566666666665</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1707,21 @@
         <v>2168</v>
       </c>
       <c r="G35" t="n">
+        <v>55.11000000000003</v>
+      </c>
+      <c r="H35" t="n">
         <v>55.21333333333332</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1745,21 @@
         <v>1376</v>
       </c>
       <c r="G36" t="n">
+        <v>55.11200000000003</v>
+      </c>
+      <c r="H36" t="n">
         <v>55.21733333333331</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1783,21 @@
         <v>792</v>
       </c>
       <c r="G37" t="n">
+        <v>55.09600000000002</v>
+      </c>
+      <c r="H37" t="n">
         <v>55.21366666666665</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1821,21 @@
         <v>5467.808</v>
       </c>
       <c r="G38" t="n">
+        <v>55.07333333333336</v>
+      </c>
+      <c r="H38" t="n">
         <v>55.20733333333331</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1859,21 @@
         <v>1375.9999</v>
       </c>
       <c r="G39" t="n">
+        <v>55.06000000000002</v>
+      </c>
+      <c r="H39" t="n">
         <v>55.19966666666664</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1897,21 @@
         <v>363.8641</v>
       </c>
       <c r="G40" t="n">
+        <v>55.04733333333335</v>
+      </c>
+      <c r="H40" t="n">
         <v>55.19216666666664</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +1935,21 @@
         <v>33641.7955</v>
       </c>
       <c r="G41" t="n">
+        <v>55.02466666666668</v>
+      </c>
+      <c r="H41" t="n">
         <v>55.18433333333332</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +1973,21 @@
         <v>256.6526</v>
       </c>
       <c r="G42" t="n">
+        <v>54.99533333333334</v>
+      </c>
+      <c r="H42" t="n">
         <v>55.17466666666665</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2011,21 @@
         <v>41168.2655</v>
       </c>
       <c r="G43" t="n">
+        <v>54.95600000000001</v>
+      </c>
+      <c r="H43" t="n">
         <v>55.16199999999998</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2049,21 @@
         <v>339</v>
       </c>
       <c r="G44" t="n">
+        <v>54.93800000000001</v>
+      </c>
+      <c r="H44" t="n">
         <v>55.15416666666665</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2087,21 @@
         <v>44</v>
       </c>
       <c r="G45" t="n">
+        <v>54.93533333333335</v>
+      </c>
+      <c r="H45" t="n">
         <v>55.14849999999999</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2125,21 @@
         <v>10</v>
       </c>
       <c r="G46" t="n">
+        <v>54.94066666666667</v>
+      </c>
+      <c r="H46" t="n">
         <v>55.14583333333333</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2163,21 @@
         <v>69697.109</v>
       </c>
       <c r="G47" t="n">
+        <v>54.93600000000001</v>
+      </c>
+      <c r="H47" t="n">
         <v>55.14066666666666</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2201,21 @@
         <v>9719.0353</v>
       </c>
       <c r="G48" t="n">
+        <v>54.95266666666667</v>
+      </c>
+      <c r="H48" t="n">
         <v>55.13916666666666</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2239,21 @@
         <v>6864</v>
       </c>
       <c r="G49" t="n">
+        <v>54.96866666666667</v>
+      </c>
+      <c r="H49" t="n">
         <v>55.1375</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2277,21 @@
         <v>2755.672</v>
       </c>
       <c r="G50" t="n">
+        <v>54.94866666666667</v>
+      </c>
+      <c r="H50" t="n">
         <v>55.13433333333332</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2315,21 @@
         <v>831.128</v>
       </c>
       <c r="G51" t="n">
+        <v>54.95600000000001</v>
+      </c>
+      <c r="H51" t="n">
         <v>55.13266666666666</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2353,21 @@
         <v>4155.7694</v>
       </c>
       <c r="G52" t="n">
+        <v>54.98133333333335</v>
+      </c>
+      <c r="H52" t="n">
         <v>55.13099999999999</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2391,21 @@
         <v>264.2</v>
       </c>
       <c r="G53" t="n">
+        <v>55.01400000000001</v>
+      </c>
+      <c r="H53" t="n">
         <v>55.12949999999999</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2429,21 @@
         <v>14000</v>
       </c>
       <c r="G54" t="n">
+        <v>55.03066666666668</v>
+      </c>
+      <c r="H54" t="n">
         <v>55.12633333333333</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2467,21 @@
         <v>4739.835</v>
       </c>
       <c r="G55" t="n">
+        <v>55.04066666666667</v>
+      </c>
+      <c r="H55" t="n">
         <v>55.12166666666666</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2505,21 @@
         <v>55.2242</v>
       </c>
       <c r="G56" t="n">
+        <v>55.07333333333334</v>
+      </c>
+      <c r="H56" t="n">
         <v>55.12016666666666</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2543,21 @@
         <v>82260.89539999999</v>
       </c>
       <c r="G57" t="n">
+        <v>55.12200000000001</v>
+      </c>
+      <c r="H57" t="n">
         <v>55.121</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2581,21 @@
         <v>740</v>
       </c>
       <c r="G58" t="n">
+        <v>55.16200000000001</v>
+      </c>
+      <c r="H58" t="n">
         <v>55.11983333333333</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2619,21 @@
         <v>42658.5154</v>
       </c>
       <c r="G59" t="n">
+        <v>55.16333333333334</v>
+      </c>
+      <c r="H59" t="n">
         <v>55.11499999999999</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2657,21 @@
         <v>2089.4</v>
       </c>
       <c r="G60" t="n">
+        <v>55.17133333333334</v>
+      </c>
+      <c r="H60" t="n">
         <v>55.114</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2695,21 @@
         <v>3242.96</v>
       </c>
       <c r="G61" t="n">
+        <v>55.17600000000002</v>
+      </c>
+      <c r="H61" t="n">
         <v>55.11249999999999</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +2733,21 @@
         <v>1850.599</v>
       </c>
       <c r="G62" t="n">
+        <v>55.19066666666668</v>
+      </c>
+      <c r="H62" t="n">
         <v>55.11099999999999</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +2771,21 @@
         <v>36363.6364</v>
       </c>
       <c r="G63" t="n">
+        <v>55.17666666666668</v>
+      </c>
+      <c r="H63" t="n">
         <v>55.10749999999999</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +2809,21 @@
         <v>14632.5399</v>
       </c>
       <c r="G64" t="n">
+        <v>55.17733333333334</v>
+      </c>
+      <c r="H64" t="n">
         <v>55.10616666666665</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +2847,21 @@
         <v>2960.4053</v>
       </c>
       <c r="G65" t="n">
+        <v>55.16866666666668</v>
+      </c>
+      <c r="H65" t="n">
         <v>55.10249999999998</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +2885,21 @@
         <v>131.1437</v>
       </c>
       <c r="G66" t="n">
+        <v>55.16200000000001</v>
+      </c>
+      <c r="H66" t="n">
         <v>55.09916666666665</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +2923,21 @@
         <v>10280.7868</v>
       </c>
       <c r="G67" t="n">
+        <v>55.13066666666668</v>
+      </c>
+      <c r="H67" t="n">
         <v>55.08966666666664</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +2961,21 @@
         <v>6236.97</v>
       </c>
       <c r="G68" t="n">
+        <v>55.09866666666667</v>
+      </c>
+      <c r="H68" t="n">
         <v>55.08199999999998</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +2999,21 @@
         <v>57897.4211</v>
       </c>
       <c r="G69" t="n">
+        <v>55.06333333333335</v>
+      </c>
+      <c r="H69" t="n">
         <v>55.07349999999998</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3037,21 @@
         <v>56337.2415</v>
       </c>
       <c r="G70" t="n">
+        <v>55.03400000000001</v>
+      </c>
+      <c r="H70" t="n">
         <v>55.06149999999999</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +3075,21 @@
         <v>5590.7901</v>
       </c>
       <c r="G71" t="n">
+        <v>54.98600000000001</v>
+      </c>
+      <c r="H71" t="n">
         <v>55.04999999999998</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,18 +3113,21 @@
         <v>3675.9178</v>
       </c>
       <c r="G72" t="n">
+        <v>54.92333333333334</v>
+      </c>
+      <c r="H72" t="n">
         <v>55.03733333333332</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,18 +3151,21 @@
         <v>3503.1316</v>
       </c>
       <c r="G73" t="n">
+        <v>54.86866666666667</v>
+      </c>
+      <c r="H73" t="n">
         <v>55.02149999999999</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,18 +3189,21 @@
         <v>59426.4737</v>
       </c>
       <c r="G74" t="n">
+        <v>54.82866666666667</v>
+      </c>
+      <c r="H74" t="n">
         <v>55.01016666666666</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3003,18 +3227,21 @@
         <v>11817.9779</v>
       </c>
       <c r="G75" t="n">
+        <v>54.77866666666667</v>
+      </c>
+      <c r="H75" t="n">
         <v>55.00016666666667</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3038,18 +3265,21 @@
         <v>1444</v>
       </c>
       <c r="G76" t="n">
+        <v>54.72466666666666</v>
+      </c>
+      <c r="H76" t="n">
         <v>54.98866666666666</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3073,18 +3303,21 @@
         <v>290.109</v>
       </c>
       <c r="G77" t="n">
+        <v>54.67066666666666</v>
+      </c>
+      <c r="H77" t="n">
         <v>54.97716666666666</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3108,18 +3341,21 @@
         <v>2124.9435</v>
       </c>
       <c r="G78" t="n">
+        <v>54.63333333333333</v>
+      </c>
+      <c r="H78" t="n">
         <v>54.96416666666666</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3143,18 +3379,21 @@
         <v>75</v>
       </c>
       <c r="G79" t="n">
+        <v>54.58066666666666</v>
+      </c>
+      <c r="H79" t="n">
         <v>54.95349999999999</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,18 +3417,21 @@
         <v>3460.9</v>
       </c>
       <c r="G80" t="n">
+        <v>54.54333333333332</v>
+      </c>
+      <c r="H80" t="n">
         <v>54.94266666666666</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3213,18 +3455,21 @@
         <v>29.4064</v>
       </c>
       <c r="G81" t="n">
+        <v>54.49666666666666</v>
+      </c>
+      <c r="H81" t="n">
         <v>54.93166666666665</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3248,18 +3493,21 @@
         <v>52014.0874</v>
       </c>
       <c r="G82" t="n">
+        <v>54.46866666666666</v>
+      </c>
+      <c r="H82" t="n">
         <v>54.91916666666665</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3283,18 +3531,21 @@
         <v>50468.3839</v>
       </c>
       <c r="G83" t="n">
+        <v>54.44066666666666</v>
+      </c>
+      <c r="H83" t="n">
         <v>54.90666666666665</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3318,18 +3569,21 @@
         <v>3058.1448</v>
       </c>
       <c r="G84" t="n">
+        <v>54.42266666666666</v>
+      </c>
+      <c r="H84" t="n">
         <v>54.89416666666666</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3353,18 +3607,21 @@
         <v>6585.5391</v>
       </c>
       <c r="G85" t="n">
+        <v>54.41866666666666</v>
+      </c>
+      <c r="H85" t="n">
         <v>54.88516666666666</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3388,18 +3645,21 @@
         <v>4355.9661</v>
       </c>
       <c r="G86" t="n">
+        <v>54.42133333333332</v>
+      </c>
+      <c r="H86" t="n">
         <v>54.87633333333331</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3423,18 +3683,21 @@
         <v>28873.2147</v>
       </c>
       <c r="G87" t="n">
+        <v>54.42866666666666</v>
+      </c>
+      <c r="H87" t="n">
         <v>54.86733333333332</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3458,18 +3721,21 @@
         <v>28.125</v>
       </c>
       <c r="G88" t="n">
+        <v>54.44066666666666</v>
+      </c>
+      <c r="H88" t="n">
         <v>54.85683333333331</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3493,18 +3759,21 @@
         <v>14.0625</v>
       </c>
       <c r="G89" t="n">
+        <v>54.45266666666667</v>
+      </c>
+      <c r="H89" t="n">
         <v>54.84566666666665</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3528,18 +3797,21 @@
         <v>735</v>
       </c>
       <c r="G90" t="n">
+        <v>54.468</v>
+      </c>
+      <c r="H90" t="n">
         <v>54.83833333333332</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3563,18 +3835,21 @@
         <v>200</v>
       </c>
       <c r="G91" t="n">
+        <v>54.48066666666667</v>
+      </c>
+      <c r="H91" t="n">
         <v>54.83049999999998</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3598,18 +3873,21 @@
         <v>677.5031</v>
       </c>
       <c r="G92" t="n">
+        <v>54.50066666666667</v>
+      </c>
+      <c r="H92" t="n">
         <v>54.82449999999997</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3633,18 +3911,25 @@
         <v>654.722</v>
       </c>
       <c r="G93" t="n">
+        <v>54.51866666666668</v>
+      </c>
+      <c r="H93" t="n">
         <v>54.82033333333331</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+        <v>1</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
+      <c r="K93" t="n">
+        <v>54.71</v>
+      </c>
+      <c r="L93" t="n">
+        <v>54.71</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,18 +3953,27 @@
         <v>311621.9132</v>
       </c>
       <c r="G94" t="n">
+        <v>54.53066666666668</v>
+      </c>
+      <c r="H94" t="n">
         <v>54.81433333333332</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="L94" t="n">
+        <v>54.71</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3703,18 +3997,27 @@
         <v>93224.1179</v>
       </c>
       <c r="G95" t="n">
+        <v>54.54200000000002</v>
+      </c>
+      <c r="H95" t="n">
         <v>54.80066666666664</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="L95" t="n">
+        <v>54.71</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3738,18 +4041,27 @@
         <v>15325.2914</v>
       </c>
       <c r="G96" t="n">
+        <v>54.55466666666669</v>
+      </c>
+      <c r="H96" t="n">
         <v>54.79233333333331</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="L96" t="n">
+        <v>54.71</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3773,18 +4085,27 @@
         <v>250</v>
       </c>
       <c r="G97" t="n">
+        <v>54.57400000000003</v>
+      </c>
+      <c r="H97" t="n">
         <v>54.78866666666665</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="L97" t="n">
+        <v>54.71</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3808,18 +4129,27 @@
         <v>2310.7862</v>
       </c>
       <c r="G98" t="n">
+        <v>54.59933333333336</v>
+      </c>
+      <c r="H98" t="n">
         <v>54.78816666666664</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="L98" t="n">
+        <v>54.71</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3843,18 +4173,27 @@
         <v>22233.1335</v>
       </c>
       <c r="G99" t="n">
+        <v>54.62533333333336</v>
+      </c>
+      <c r="H99" t="n">
         <v>54.78549999999998</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="L99" t="n">
+        <v>54.71</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3878,18 +4217,29 @@
         <v>14</v>
       </c>
       <c r="G100" t="n">
+        <v>54.64600000000003</v>
+      </c>
+      <c r="H100" t="n">
         <v>54.78483333333331</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+        <v>1</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
+      <c r="K100" t="n">
+        <v>54.71</v>
+      </c>
+      <c r="L100" t="n">
+        <v>54.71</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3913,18 +4263,27 @@
         <v>14</v>
       </c>
       <c r="G101" t="n">
+        <v>54.66600000000003</v>
+      </c>
+      <c r="H101" t="n">
         <v>54.78666666666665</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="L101" t="n">
+        <v>54.71</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3948,18 +4307,27 @@
         <v>17290</v>
       </c>
       <c r="G102" t="n">
+        <v>54.69333333333337</v>
+      </c>
+      <c r="H102" t="n">
         <v>54.79183333333332</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="L102" t="n">
+        <v>54.71</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3983,18 +4351,27 @@
         <v>21</v>
       </c>
       <c r="G103" t="n">
+        <v>54.71600000000004</v>
+      </c>
+      <c r="H103" t="n">
         <v>54.79683333333332</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="L103" t="n">
+        <v>54.71</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4018,18 +4395,27 @@
         <v>1084.9076</v>
       </c>
       <c r="G104" t="n">
+        <v>54.7386666666667</v>
+      </c>
+      <c r="H104" t="n">
         <v>54.79583333333332</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="L104" t="n">
+        <v>54.71</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4053,18 +4439,27 @@
         <v>5000</v>
       </c>
       <c r="G105" t="n">
+        <v>54.75266666666669</v>
+      </c>
+      <c r="H105" t="n">
         <v>54.79266666666665</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="L105" t="n">
+        <v>54.71</v>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4088,18 +4483,27 @@
         <v>24.99544875</v>
       </c>
       <c r="G106" t="n">
+        <v>54.77466666666669</v>
+      </c>
+      <c r="H106" t="n">
         <v>54.78899999999998</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="L106" t="n">
+        <v>54.71</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4123,18 +4527,27 @@
         <v>10</v>
       </c>
       <c r="G107" t="n">
+        <v>54.78933333333335</v>
+      </c>
+      <c r="H107" t="n">
         <v>54.78783333333331</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="L107" t="n">
+        <v>54.71</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4158,18 +4571,27 @@
         <v>72</v>
       </c>
       <c r="G108" t="n">
+        <v>54.79000000000001</v>
+      </c>
+      <c r="H108" t="n">
         <v>54.77966666666664</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="L108" t="n">
+        <v>54.71</v>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4193,18 +4615,27 @@
         <v>5000</v>
       </c>
       <c r="G109" t="n">
+        <v>54.79666666666669</v>
+      </c>
+      <c r="H109" t="n">
         <v>54.77133333333331</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="L109" t="n">
+        <v>54.71</v>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4228,18 +4659,27 @@
         <v>22460.3371</v>
       </c>
       <c r="G110" t="n">
+        <v>54.81933333333335</v>
+      </c>
+      <c r="H110" t="n">
         <v>54.76833333333331</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="L110" t="n">
+        <v>54.71</v>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4263,18 +4703,27 @@
         <v>55.2689</v>
       </c>
       <c r="G111" t="n">
+        <v>54.82866666666668</v>
+      </c>
+      <c r="H111" t="n">
         <v>54.76049999999997</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="L111" t="n">
+        <v>54.71</v>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4298,18 +4747,27 @@
         <v>47795.4299</v>
       </c>
       <c r="G112" t="n">
+        <v>54.82866666666668</v>
+      </c>
+      <c r="H112" t="n">
         <v>54.75049999999997</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="L112" t="n">
+        <v>54.71</v>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4333,18 +4791,27 @@
         <v>2300</v>
       </c>
       <c r="G113" t="n">
+        <v>54.82866666666668</v>
+      </c>
+      <c r="H113" t="n">
         <v>54.7418333333333</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="L113" t="n">
+        <v>54.71</v>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4368,18 +4835,27 @@
         <v>22460.3371</v>
       </c>
       <c r="G114" t="n">
+        <v>54.82400000000002</v>
+      </c>
+      <c r="H114" t="n">
         <v>54.73383333333331</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="L114" t="n">
+        <v>54.71</v>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4403,18 +4879,27 @@
         <v>1775.9</v>
       </c>
       <c r="G115" t="n">
+        <v>54.82400000000002</v>
+      </c>
+      <c r="H115" t="n">
         <v>54.73066666666664</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="L115" t="n">
+        <v>54.71</v>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4438,18 +4923,27 @@
         <v>4552.9</v>
       </c>
       <c r="G116" t="n">
+        <v>54.82400000000002</v>
+      </c>
+      <c r="H116" t="n">
         <v>54.72433333333331</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="L116" t="n">
+        <v>54.71</v>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4473,18 +4967,27 @@
         <v>3565.658</v>
       </c>
       <c r="G117" t="n">
+        <v>54.81800000000001</v>
+      </c>
+      <c r="H117" t="n">
         <v>54.71583333333331</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="L117" t="n">
+        <v>54.71</v>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4508,18 +5011,27 @@
         <v>1078</v>
       </c>
       <c r="G118" t="n">
+        <v>54.81133333333335</v>
+      </c>
+      <c r="H118" t="n">
         <v>54.70916666666665</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="L118" t="n">
+        <v>54.71</v>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4543,18 +5055,27 @@
         <v>1078</v>
       </c>
       <c r="G119" t="n">
+        <v>54.80133333333335</v>
+      </c>
+      <c r="H119" t="n">
         <v>54.70533333333331</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="L119" t="n">
+        <v>54.71</v>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4578,18 +5099,27 @@
         <v>15217.6345</v>
       </c>
       <c r="G120" t="n">
+        <v>54.79200000000001</v>
+      </c>
+      <c r="H120" t="n">
         <v>54.69783333333331</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="L120" t="n">
+        <v>54.71</v>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4613,18 +5143,27 @@
         <v>176.6712</v>
       </c>
       <c r="G121" t="n">
+        <v>54.78000000000001</v>
+      </c>
+      <c r="H121" t="n">
         <v>54.68999999999998</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="L121" t="n">
+        <v>54.71</v>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4648,18 +5187,27 @@
         <v>58585.3475</v>
       </c>
       <c r="G122" t="n">
+        <v>54.75933333333334</v>
+      </c>
+      <c r="H122" t="n">
         <v>54.67999999999999</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="L122" t="n">
+        <v>54.71</v>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4683,18 +5231,27 @@
         <v>1826.5</v>
       </c>
       <c r="G123" t="n">
+        <v>54.76800000000001</v>
+      </c>
+      <c r="H123" t="n">
         <v>54.67749999999999</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="L123" t="n">
+        <v>54.71</v>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4718,18 +5275,27 @@
         <v>825.9</v>
       </c>
       <c r="G124" t="n">
+        <v>54.78066666666668</v>
+      </c>
+      <c r="H124" t="n">
         <v>54.67216666666666</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="L124" t="n">
+        <v>54.71</v>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4753,18 +5319,27 @@
         <v>18.2349</v>
       </c>
       <c r="G125" t="n">
+        <v>54.77400000000001</v>
+      </c>
+      <c r="H125" t="n">
         <v>54.66966666666666</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="L125" t="n">
+        <v>54.71</v>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4788,18 +5363,27 @@
         <v>747.4389</v>
       </c>
       <c r="G126" t="n">
+        <v>54.78800000000001</v>
+      </c>
+      <c r="H126" t="n">
         <v>54.66699999999999</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="L126" t="n">
+        <v>54.71</v>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4823,18 +5407,27 @@
         <v>274.1</v>
       </c>
       <c r="G127" t="n">
+        <v>54.81066666666668</v>
+      </c>
+      <c r="H127" t="n">
         <v>54.67049999999999</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="L127" t="n">
+        <v>54.71</v>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4858,18 +5451,27 @@
         <v>49312.8538</v>
       </c>
       <c r="G128" t="n">
+        <v>54.82200000000001</v>
+      </c>
+      <c r="H128" t="n">
         <v>54.67266666666666</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="L128" t="n">
+        <v>54.71</v>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4893,18 +5495,27 @@
         <v>12.6831</v>
       </c>
       <c r="G129" t="n">
+        <v>54.84533333333334</v>
+      </c>
+      <c r="H129" t="n">
         <v>54.67933333333333</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="L129" t="n">
+        <v>54.71</v>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4928,18 +5539,27 @@
         <v>577.999</v>
       </c>
       <c r="G130" t="n">
+        <v>54.85066666666668</v>
+      </c>
+      <c r="H130" t="n">
         <v>54.68483333333332</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="L130" t="n">
+        <v>54.71</v>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4963,18 +5583,27 @@
         <v>4178.74</v>
       </c>
       <c r="G131" t="n">
+        <v>54.86266666666667</v>
+      </c>
+      <c r="H131" t="n">
         <v>54.69349999999999</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="L131" t="n">
+        <v>54.71</v>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4998,18 +5627,27 @@
         <v>63.3106</v>
       </c>
       <c r="G132" t="n">
+        <v>54.872</v>
+      </c>
+      <c r="H132" t="n">
         <v>54.70299999999998</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="L132" t="n">
+        <v>54.71</v>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5033,18 +5671,27 @@
         <v>40</v>
       </c>
       <c r="G133" t="n">
+        <v>54.88266666666667</v>
+      </c>
+      <c r="H133" t="n">
         <v>54.71266666666665</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="L133" t="n">
+        <v>54.71</v>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5068,18 +5715,27 @@
         <v>63.3634</v>
       </c>
       <c r="G134" t="n">
+        <v>54.89400000000001</v>
+      </c>
+      <c r="H134" t="n">
         <v>54.72166666666665</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
-        <v>1</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="L134" t="n">
+        <v>54.71</v>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5103,18 +5759,27 @@
         <v>440.109</v>
       </c>
       <c r="G135" t="n">
+        <v>54.90066666666667</v>
+      </c>
+      <c r="H135" t="n">
         <v>54.72833333333332</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
-        <v>1</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="L135" t="n">
+        <v>54.71</v>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5138,18 +5803,27 @@
         <v>50</v>
       </c>
       <c r="G136" t="n">
+        <v>54.91066666666667</v>
+      </c>
+      <c r="H136" t="n">
         <v>54.73649999999999</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
-        <v>1</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="L136" t="n">
+        <v>54.71</v>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5173,18 +5847,27 @@
         <v>18302.1339</v>
       </c>
       <c r="G137" t="n">
+        <v>54.91800000000001</v>
+      </c>
+      <c r="H137" t="n">
         <v>54.74183333333333</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="L137" t="n">
+        <v>54.71</v>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5208,18 +5891,27 @@
         <v>5397.6631</v>
       </c>
       <c r="G138" t="n">
+        <v>54.90200000000001</v>
+      </c>
+      <c r="H138" t="n">
         <v>54.74466666666665</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="L138" t="n">
+        <v>54.71</v>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5243,18 +5935,27 @@
         <v>1687.0337</v>
       </c>
       <c r="G139" t="n">
+        <v>54.88266666666667</v>
+      </c>
+      <c r="H139" t="n">
         <v>54.74766666666666</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="L139" t="n">
+        <v>54.71</v>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5278,18 +5979,29 @@
         <v>4410.813</v>
       </c>
       <c r="G140" t="n">
+        <v>54.87400000000001</v>
+      </c>
+      <c r="H140" t="n">
         <v>54.75233333333333</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
+      <c r="K140" t="n">
+        <v>54.61</v>
+      </c>
+      <c r="L140" t="n">
+        <v>54.71</v>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5313,18 +6025,29 @@
         <v>742</v>
       </c>
       <c r="G141" t="n">
+        <v>54.85266666666667</v>
+      </c>
+      <c r="H141" t="n">
         <v>54.756</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
+      <c r="K141" t="n">
+        <v>54.71</v>
+      </c>
+      <c r="L141" t="n">
+        <v>54.71</v>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5348,18 +6071,29 @@
         <v>6018.1</v>
       </c>
       <c r="G142" t="n">
+        <v>54.838</v>
+      </c>
+      <c r="H142" t="n">
         <v>54.76283333333333</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
+      <c r="K142" t="n">
+        <v>54.63</v>
+      </c>
+      <c r="L142" t="n">
+        <v>54.71</v>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5383,24 +6117,29 @@
         <v>9694.2739</v>
       </c>
       <c r="G143" t="n">
+        <v>54.83333333333334</v>
+      </c>
+      <c r="H143" t="n">
         <v>54.77083333333334</v>
       </c>
-      <c r="H143" t="n">
-        <v>1</v>
-      </c>
       <c r="I143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J143" t="n">
+        <v>0</v>
+      </c>
+      <c r="K143" t="n">
         <v>54.73</v>
       </c>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
+      <c r="L143" t="n">
+        <v>54.71</v>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5424,24 +6163,27 @@
         <v>309.5</v>
       </c>
       <c r="G144" t="n">
+        <v>54.82266666666667</v>
+      </c>
+      <c r="H144" t="n">
         <v>54.77933333333333</v>
       </c>
-      <c r="H144" t="n">
-        <v>1</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
       <c r="J144" t="n">
-        <v>54.8</v>
+        <v>0</v>
       </c>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
+      <c r="L144" t="n">
+        <v>54.71</v>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5465,22 +6207,27 @@
         <v>830.70725879</v>
       </c>
       <c r="G145" t="n">
+        <v>54.81666666666668</v>
+      </c>
+      <c r="H145" t="n">
         <v>54.78433333333332</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
+      <c r="L145" t="n">
+        <v>54.71</v>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5504,22 +6251,27 @@
         <v>180</v>
       </c>
       <c r="G146" t="n">
+        <v>54.80400000000001</v>
+      </c>
+      <c r="H146" t="n">
         <v>54.78916666666666</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
+      <c r="L146" t="n">
+        <v>54.71</v>
+      </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5543,22 +6295,27 @@
         <v>853.7</v>
       </c>
       <c r="G147" t="n">
+        <v>54.79333333333334</v>
+      </c>
+      <c r="H147" t="n">
         <v>54.79416666666665</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
+      <c r="L147" t="n">
+        <v>54.71</v>
+      </c>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5582,22 +6339,27 @@
         <v>12487.6201</v>
       </c>
       <c r="G148" t="n">
+        <v>54.78666666666668</v>
+      </c>
+      <c r="H148" t="n">
         <v>54.79916666666666</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
+      <c r="L148" t="n">
+        <v>54.71</v>
+      </c>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5621,22 +6383,27 @@
         <v>5600</v>
       </c>
       <c r="G149" t="n">
+        <v>54.77066666666668</v>
+      </c>
+      <c r="H149" t="n">
         <v>54.80116666666665</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
+      <c r="L149" t="n">
+        <v>54.71</v>
+      </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5660,22 +6427,29 @@
         <v>10528.2</v>
       </c>
       <c r="G150" t="n">
+        <v>54.77066666666668</v>
+      </c>
+      <c r="H150" t="n">
         <v>54.80399999999999</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
+      <c r="K150" t="n">
+        <v>54.72</v>
+      </c>
+      <c r="L150" t="n">
+        <v>54.71</v>
+      </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5699,22 +6473,27 @@
         <v>5784.928</v>
       </c>
       <c r="G151" t="n">
+        <v>54.77400000000002</v>
+      </c>
+      <c r="H151" t="n">
         <v>54.80983333333332</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
+      <c r="L151" t="n">
+        <v>54.71</v>
+      </c>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5738,22 +6517,27 @@
         <v>3405.4002</v>
       </c>
       <c r="G152" t="n">
+        <v>54.78000000000002</v>
+      </c>
+      <c r="H152" t="n">
         <v>54.81166666666665</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
+      <c r="L152" t="n">
+        <v>54.71</v>
+      </c>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5777,22 +6561,27 @@
         <v>603.1</v>
       </c>
       <c r="G153" t="n">
+        <v>54.79666666666669</v>
+      </c>
+      <c r="H153" t="n">
         <v>54.81416666666666</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
+      <c r="L153" t="n">
+        <v>54.71</v>
+      </c>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5816,22 +6605,27 @@
         <v>100.7189</v>
       </c>
       <c r="G154" t="n">
+        <v>54.81333333333335</v>
+      </c>
+      <c r="H154" t="n">
         <v>54.81833333333332</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
+      <c r="L154" t="n">
+        <v>54.71</v>
+      </c>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5855,22 +6649,27 @@
         <v>741.6</v>
       </c>
       <c r="G155" t="n">
+        <v>54.82800000000001</v>
+      </c>
+      <c r="H155" t="n">
         <v>54.82383333333333</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
+      <c r="L155" t="n">
+        <v>54.71</v>
+      </c>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5894,22 +6693,27 @@
         <v>1103.1082</v>
       </c>
       <c r="G156" t="n">
+        <v>54.85266666666668</v>
+      </c>
+      <c r="H156" t="n">
         <v>54.83049999999999</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
+      <c r="L156" t="n">
+        <v>54.71</v>
+      </c>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5933,22 +6737,27 @@
         <v>22010.8235</v>
       </c>
       <c r="G157" t="n">
+        <v>54.87066666666668</v>
+      </c>
+      <c r="H157" t="n">
         <v>54.83699999999999</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
+      <c r="L157" t="n">
+        <v>54.71</v>
+      </c>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5972,22 +6781,27 @@
         <v>5173.3647</v>
       </c>
       <c r="G158" t="n">
+        <v>54.88400000000001</v>
+      </c>
+      <c r="H158" t="n">
         <v>54.84199999999999</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
+      <c r="L158" t="n">
+        <v>54.71</v>
+      </c>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6011,22 +6825,27 @@
         <v>6495.7946</v>
       </c>
       <c r="G159" t="n">
+        <v>54.90066666666668</v>
+      </c>
+      <c r="H159" t="n">
         <v>54.84816666666666</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
+      <c r="L159" t="n">
+        <v>54.71</v>
+      </c>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6050,22 +6869,27 @@
         <v>1272.0767</v>
       </c>
       <c r="G160" t="n">
+        <v>54.91400000000001</v>
+      </c>
+      <c r="H160" t="n">
         <v>54.85133333333332</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
+      <c r="L160" t="n">
+        <v>54.71</v>
+      </c>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6089,22 +6913,27 @@
         <v>8200.440199999999</v>
       </c>
       <c r="G161" t="n">
+        <v>54.92733333333334</v>
+      </c>
+      <c r="H161" t="n">
         <v>54.85449999999999</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
+      <c r="L161" t="n">
+        <v>54.71</v>
+      </c>
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6128,22 +6957,27 @@
         <v>380.159</v>
       </c>
       <c r="G162" t="n">
+        <v>54.94466666666667</v>
+      </c>
+      <c r="H162" t="n">
         <v>54.85699999999999</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
+      <c r="L162" t="n">
+        <v>54.71</v>
+      </c>
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6167,22 +7001,27 @@
         <v>2918.6</v>
       </c>
       <c r="G163" t="n">
+        <v>54.95800000000001</v>
+      </c>
+      <c r="H163" t="n">
         <v>54.85966666666666</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
+      <c r="L163" t="n">
+        <v>54.71</v>
+      </c>
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6206,22 +7045,29 @@
         <v>1272.3078</v>
       </c>
       <c r="G164" t="n">
+        <v>54.978</v>
+      </c>
+      <c r="H164" t="n">
         <v>54.86099999999999</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
-        <v>1</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>54.71</v>
+      </c>
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N164" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6243,18 +7089,27 @@
         <v>1005.4457</v>
       </c>
       <c r="G165" t="n">
+        <v>54.98533333333334</v>
+      </c>
+      <c r="H165" t="n">
         <v>54.86216666666666</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
-        <v>1</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
+      <c r="L165" t="n">
+        <v>54.71</v>
+      </c>
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6278,18 +7133,27 @@
         <v>100</v>
       </c>
       <c r="G166" t="n">
+        <v>54.98733333333334</v>
+      </c>
+      <c r="H166" t="n">
         <v>54.86299999999999</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
-        <v>1</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
+      <c r="L166" t="n">
+        <v>54.71</v>
+      </c>
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6313,18 +7177,27 @@
         <v>2818.8579</v>
       </c>
       <c r="G167" t="n">
+        <v>54.99266666666666</v>
+      </c>
+      <c r="H167" t="n">
         <v>54.8625</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
-        <v>1</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
+      <c r="L167" t="n">
+        <v>54.71</v>
+      </c>
+      <c r="M167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6348,18 +7221,29 @@
         <v>16570.8</v>
       </c>
       <c r="G168" t="n">
+        <v>54.99533333333333</v>
+      </c>
+      <c r="H168" t="n">
         <v>54.8655</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
+      <c r="K168" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="L168" t="n">
+        <v>54.71</v>
+      </c>
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6383,18 +7267,29 @@
         <v>15</v>
       </c>
       <c r="G169" t="n">
+        <v>54.998</v>
+      </c>
+      <c r="H169" t="n">
         <v>54.86866666666667</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
+      <c r="K169" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="L169" t="n">
+        <v>54.71</v>
+      </c>
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6418,18 +7313,29 @@
         <v>124.2201</v>
       </c>
       <c r="G170" t="n">
+        <v>54.996</v>
+      </c>
+      <c r="H170" t="n">
         <v>54.86800000000001</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
+      <c r="K170" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="L170" t="n">
+        <v>54.71</v>
+      </c>
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6453,18 +7359,29 @@
         <v>993</v>
       </c>
       <c r="G171" t="n">
+        <v>54.99066666666666</v>
+      </c>
+      <c r="H171" t="n">
         <v>54.87100000000001</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
+      <c r="K171" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="L171" t="n">
+        <v>54.71</v>
+      </c>
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6488,18 +7405,29 @@
         <v>566.2397</v>
       </c>
       <c r="G172" t="n">
+        <v>54.98399999999999</v>
+      </c>
+      <c r="H172" t="n">
         <v>54.87583333333335</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
+      <c r="K172" t="n">
+        <v>54.92</v>
+      </c>
+      <c r="L172" t="n">
+        <v>54.71</v>
+      </c>
+      <c r="M172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6523,18 +7451,29 @@
         <v>6194.8</v>
       </c>
       <c r="G173" t="n">
+        <v>54.97733333333333</v>
+      </c>
+      <c r="H173" t="n">
         <v>54.87916666666668</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
+      <c r="K173" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="L173" t="n">
+        <v>54.71</v>
+      </c>
+      <c r="M173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6558,18 +7497,29 @@
         <v>205.562</v>
       </c>
       <c r="G174" t="n">
+        <v>54.95866666666665</v>
+      </c>
+      <c r="H174" t="n">
         <v>54.88183333333335</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
+      <c r="K174" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="L174" t="n">
+        <v>54.71</v>
+      </c>
+      <c r="M174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6593,18 +7543,29 @@
         <v>1489.2808</v>
       </c>
       <c r="G175" t="n">
+        <v>54.94533333333332</v>
+      </c>
+      <c r="H175" t="n">
         <v>54.88166666666668</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
+      <c r="K175" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="L175" t="n">
+        <v>54.71</v>
+      </c>
+      <c r="M175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6628,18 +7589,29 @@
         <v>2488</v>
       </c>
       <c r="G176" t="n">
+        <v>54.93466666666666</v>
+      </c>
+      <c r="H176" t="n">
         <v>54.88216666666668</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
+      <c r="K176" t="n">
+        <v>54.83</v>
+      </c>
+      <c r="L176" t="n">
+        <v>54.71</v>
+      </c>
+      <c r="M176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6663,18 +7635,29 @@
         <v>499</v>
       </c>
       <c r="G177" t="n">
+        <v>54.91999999999999</v>
+      </c>
+      <c r="H177" t="n">
         <v>54.88250000000001</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
+      <c r="K177" t="n">
+        <v>54.87</v>
+      </c>
+      <c r="L177" t="n">
+        <v>54.71</v>
+      </c>
+      <c r="M177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6698,18 +7681,29 @@
         <v>1238.9603</v>
       </c>
       <c r="G178" t="n">
+        <v>54.90666666666665</v>
+      </c>
+      <c r="H178" t="n">
         <v>54.88350000000001</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
+      <c r="K178" t="n">
+        <v>54.87</v>
+      </c>
+      <c r="L178" t="n">
+        <v>54.71</v>
+      </c>
+      <c r="M178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6733,18 +7727,29 @@
         <v>18233.3333</v>
       </c>
       <c r="G179" t="n">
+        <v>54.90266666666665</v>
+      </c>
+      <c r="H179" t="n">
         <v>54.88633333333335</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
+      <c r="K179" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="L179" t="n">
+        <v>54.71</v>
+      </c>
+      <c r="M179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6768,18 +7773,27 @@
         <v>124.4152</v>
       </c>
       <c r="G180" t="n">
+        <v>54.90866666666666</v>
+      </c>
+      <c r="H180" t="n">
         <v>54.89133333333334</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
+      <c r="L180" t="n">
+        <v>54.71</v>
+      </c>
+      <c r="M180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6803,18 +7817,27 @@
         <v>20980.5086</v>
       </c>
       <c r="G181" t="n">
+        <v>54.92466666666666</v>
+      </c>
+      <c r="H181" t="n">
         <v>54.89916666666667</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
+      <c r="L181" t="n">
+        <v>54.71</v>
+      </c>
+      <c r="M181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6838,18 +7861,27 @@
         <v>1802.032</v>
       </c>
       <c r="G182" t="n">
+        <v>54.94199999999999</v>
+      </c>
+      <c r="H182" t="n">
         <v>54.90816666666667</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
+      <c r="L182" t="n">
+        <v>54.71</v>
+      </c>
+      <c r="M182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6873,18 +7905,27 @@
         <v>3693.675</v>
       </c>
       <c r="G183" t="n">
+        <v>54.96466666666666</v>
+      </c>
+      <c r="H183" t="n">
         <v>54.91466666666667</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
+      <c r="L183" t="n">
+        <v>54.71</v>
+      </c>
+      <c r="M183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6908,18 +7949,27 @@
         <v>2703.558</v>
       </c>
       <c r="G184" t="n">
+        <v>54.98466666666666</v>
+      </c>
+      <c r="H184" t="n">
         <v>54.91966666666666</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
+      <c r="L184" t="n">
+        <v>54.71</v>
+      </c>
+      <c r="M184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6943,18 +7993,27 @@
         <v>5597.298</v>
       </c>
       <c r="G185" t="n">
+        <v>55.002</v>
+      </c>
+      <c r="H185" t="n">
         <v>54.92499999999999</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
+      <c r="L185" t="n">
+        <v>54.71</v>
+      </c>
+      <c r="M185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6978,18 +8037,27 @@
         <v>273.8268</v>
       </c>
       <c r="G186" t="n">
+        <v>55.01733333333333</v>
+      </c>
+      <c r="H186" t="n">
         <v>54.92833333333333</v>
       </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
+      <c r="L186" t="n">
+        <v>54.71</v>
+      </c>
+      <c r="M186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7013,18 +8081,27 @@
         <v>7352.4922</v>
       </c>
       <c r="G187" t="n">
+        <v>55.02733333333333</v>
+      </c>
+      <c r="H187" t="n">
         <v>54.93</v>
       </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
+      <c r="L187" t="n">
+        <v>54.71</v>
+      </c>
+      <c r="M187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7048,18 +8125,27 @@
         <v>11045.9021</v>
       </c>
       <c r="G188" t="n">
+        <v>55.03666666666666</v>
+      </c>
+      <c r="H188" t="n">
         <v>54.93283333333333</v>
       </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
+      <c r="L188" t="n">
+        <v>54.71</v>
+      </c>
+      <c r="M188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7083,18 +8169,27 @@
         <v>978.1815</v>
       </c>
       <c r="G189" t="n">
+        <v>55.05266666666667</v>
+      </c>
+      <c r="H189" t="n">
         <v>54.93366666666667</v>
       </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
+      <c r="L189" t="n">
+        <v>54.71</v>
+      </c>
+      <c r="M189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7118,18 +8213,27 @@
         <v>2487.6715</v>
       </c>
       <c r="G190" t="n">
+        <v>55.06466666666666</v>
+      </c>
+      <c r="H190" t="n">
         <v>54.93516666666667</v>
       </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
+      <c r="L190" t="n">
+        <v>54.71</v>
+      </c>
+      <c r="M190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7153,18 +8257,27 @@
         <v>688.0624</v>
       </c>
       <c r="G191" t="n">
+        <v>55.07599999999999</v>
+      </c>
+      <c r="H191" t="n">
         <v>54.93550000000001</v>
       </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
+      <c r="L191" t="n">
+        <v>54.71</v>
+      </c>
+      <c r="M191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7188,18 +8301,27 @@
         <v>994.769</v>
       </c>
       <c r="G192" t="n">
+        <v>55.08733333333332</v>
+      </c>
+      <c r="H192" t="n">
         <v>54.93633333333334</v>
       </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
+      <c r="L192" t="n">
+        <v>54.71</v>
+      </c>
+      <c r="M192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7223,18 +8345,27 @@
         <v>1916</v>
       </c>
       <c r="G193" t="n">
+        <v>55.08799999999999</v>
+      </c>
+      <c r="H193" t="n">
         <v>54.93483333333334</v>
       </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
+      <c r="L193" t="n">
+        <v>54.71</v>
+      </c>
+      <c r="M193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7258,18 +8389,27 @@
         <v>626.6572</v>
       </c>
       <c r="G194" t="n">
+        <v>55.08599999999998</v>
+      </c>
+      <c r="H194" t="n">
         <v>54.93433333333334</v>
       </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
+      <c r="L194" t="n">
+        <v>54.71</v>
+      </c>
+      <c r="M194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7293,18 +8433,27 @@
         <v>9084.5525</v>
       </c>
       <c r="G195" t="n">
+        <v>55.07933333333332</v>
+      </c>
+      <c r="H195" t="n">
         <v>54.93600000000001</v>
       </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
+      <c r="L195" t="n">
+        <v>54.71</v>
+      </c>
+      <c r="M195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7328,18 +8477,27 @@
         <v>10045.6248</v>
       </c>
       <c r="G196" t="n">
+        <v>55.04866666666665</v>
+      </c>
+      <c r="H196" t="n">
         <v>54.93366666666667</v>
       </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
+      <c r="L196" t="n">
+        <v>54.71</v>
+      </c>
+      <c r="M196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N196" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7363,18 +8521,27 @@
         <v>659</v>
       </c>
       <c r="G197" t="n">
+        <v>55.03066666666665</v>
+      </c>
+      <c r="H197" t="n">
         <v>54.93633333333334</v>
       </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
+      <c r="L197" t="n">
+        <v>54.71</v>
+      </c>
+      <c r="M197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N197" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7398,18 +8565,27 @@
         <v>1205.4353</v>
       </c>
       <c r="G198" t="n">
+        <v>55.00733333333331</v>
+      </c>
+      <c r="H198" t="n">
         <v>54.941</v>
       </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
+      <c r="L198" t="n">
+        <v>54.71</v>
+      </c>
+      <c r="M198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N198" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7433,18 +8609,29 @@
         <v>1000</v>
       </c>
       <c r="G199" t="n">
+        <v>54.98933333333331</v>
+      </c>
+      <c r="H199" t="n">
         <v>54.94633333333333</v>
       </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
       <c r="I199" t="n">
-        <v>0</v>
-      </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
+        <v>1</v>
+      </c>
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
+      <c r="K199" t="n">
+        <v>54.89</v>
+      </c>
+      <c r="L199" t="n">
+        <v>54.71</v>
+      </c>
+      <c r="M199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N199" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7468,18 +8655,27 @@
         <v>2840.5028</v>
       </c>
       <c r="G200" t="n">
+        <v>54.97933333333331</v>
+      </c>
+      <c r="H200" t="n">
         <v>54.95133333333333</v>
       </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
+      <c r="L200" t="n">
+        <v>54.71</v>
+      </c>
+      <c r="M200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N200" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7503,18 +8699,27 @@
         <v>1084.6799</v>
       </c>
       <c r="G201" t="n">
+        <v>54.97066666666664</v>
+      </c>
+      <c r="H201" t="n">
         <v>54.95783333333333</v>
       </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
+      <c r="L201" t="n">
+        <v>54.71</v>
+      </c>
+      <c r="M201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N201" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7538,18 +8743,27 @@
         <v>972.7521</v>
       </c>
       <c r="G202" t="n">
+        <v>54.96866666666664</v>
+      </c>
+      <c r="H202" t="n">
         <v>54.96266666666666</v>
       </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
+      <c r="L202" t="n">
+        <v>54.71</v>
+      </c>
+      <c r="M202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N202" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7573,18 +8787,27 @@
         <v>31.0684</v>
       </c>
       <c r="G203" t="n">
+        <v>54.96666666666665</v>
+      </c>
+      <c r="H203" t="n">
         <v>54.96616666666667</v>
       </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
+      <c r="L203" t="n">
+        <v>54.71</v>
+      </c>
+      <c r="M203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N203" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7608,18 +8831,27 @@
         <v>2453.7599</v>
       </c>
       <c r="G204" t="n">
+        <v>54.96533333333331</v>
+      </c>
+      <c r="H204" t="n">
         <v>54.96933333333333</v>
       </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
+      <c r="L204" t="n">
+        <v>54.71</v>
+      </c>
+      <c r="M204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N204" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7643,18 +8875,27 @@
         <v>89.2146</v>
       </c>
       <c r="G205" t="n">
+        <v>54.96333333333332</v>
+      </c>
+      <c r="H205" t="n">
         <v>54.97183333333333</v>
       </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
+      <c r="L205" t="n">
+        <v>54.71</v>
+      </c>
+      <c r="M205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N205" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7678,18 +8919,27 @@
         <v>2079.4606</v>
       </c>
       <c r="G206" t="n">
+        <v>54.94599999999998</v>
+      </c>
+      <c r="H206" t="n">
         <v>54.971</v>
       </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
+      <c r="L206" t="n">
+        <v>54.71</v>
+      </c>
+      <c r="M206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N206" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7713,18 +8963,27 @@
         <v>10</v>
       </c>
       <c r="G207" t="n">
+        <v>54.93733333333331</v>
+      </c>
+      <c r="H207" t="n">
         <v>54.97233333333334</v>
       </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>0</v>
+      </c>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
+      <c r="L207" t="n">
+        <v>54.71</v>
+      </c>
+      <c r="M207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N207" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7748,18 +9007,27 @@
         <v>633</v>
       </c>
       <c r="G208" t="n">
+        <v>54.92933333333331</v>
+      </c>
+      <c r="H208" t="n">
         <v>54.9705</v>
       </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>0</v>
+      </c>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
+      <c r="L208" t="n">
+        <v>54.71</v>
+      </c>
+      <c r="M208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N208" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7783,18 +9051,27 @@
         <v>930</v>
       </c>
       <c r="G209" t="n">
+        <v>54.92066666666665</v>
+      </c>
+      <c r="H209" t="n">
         <v>54.97183333333334</v>
       </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
+      <c r="L209" t="n">
+        <v>54.71</v>
+      </c>
+      <c r="M209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N209" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7818,18 +9095,27 @@
         <v>1446.26593806</v>
       </c>
       <c r="G210" t="n">
+        <v>54.91399999999998</v>
+      </c>
+      <c r="H210" t="n">
         <v>54.97183333333334</v>
       </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>0</v>
+      </c>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
+      <c r="L210" t="n">
+        <v>54.71</v>
+      </c>
+      <c r="M210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N210" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7853,18 +9139,29 @@
         <v>14.5021</v>
       </c>
       <c r="G211" t="n">
+        <v>54.92333333333331</v>
+      </c>
+      <c r="H211" t="n">
         <v>54.97100000000001</v>
       </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
       <c r="I211" t="n">
-        <v>0</v>
-      </c>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
+        <v>1</v>
+      </c>
+      <c r="J211" t="n">
+        <v>0</v>
+      </c>
+      <c r="K211" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="L211" t="n">
+        <v>54.71</v>
+      </c>
+      <c r="M211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N211" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7888,18 +9185,27 @@
         <v>8652.188200000001</v>
       </c>
       <c r="G212" t="n">
+        <v>54.91733333333331</v>
+      </c>
+      <c r="H212" t="n">
         <v>54.97066666666668</v>
       </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>0</v>
+      </c>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
+      <c r="L212" t="n">
+        <v>54.71</v>
+      </c>
+      <c r="M212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N212" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7923,18 +9229,27 @@
         <v>15088.33866194</v>
       </c>
       <c r="G213" t="n">
+        <v>54.91799999999998</v>
+      </c>
+      <c r="H213" t="n">
         <v>54.97133333333334</v>
       </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>0</v>
+      </c>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
+      <c r="L213" t="n">
+        <v>54.71</v>
+      </c>
+      <c r="M213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N213" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7958,18 +9273,27 @@
         <v>550.165</v>
       </c>
       <c r="G214" t="n">
+        <v>54.91733333333331</v>
+      </c>
+      <c r="H214" t="n">
         <v>54.97233333333335</v>
       </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>0</v>
+      </c>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
+      <c r="L214" t="n">
+        <v>54.71</v>
+      </c>
+      <c r="M214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N214" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7993,18 +9317,27 @@
         <v>338</v>
       </c>
       <c r="G215" t="n">
+        <v>54.91666666666664</v>
+      </c>
+      <c r="H215" t="n">
         <v>54.97350000000002</v>
       </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>0</v>
+      </c>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
+      <c r="L215" t="n">
+        <v>54.71</v>
+      </c>
+      <c r="M215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N215" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8028,18 +9361,27 @@
         <v>1361.8653</v>
       </c>
       <c r="G216" t="n">
+        <v>54.91666666666664</v>
+      </c>
+      <c r="H216" t="n">
         <v>54.97383333333335</v>
       </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
       <c r="I216" t="n">
         <v>0</v>
       </c>
-      <c r="J216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>0</v>
+      </c>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
+      <c r="L216" t="n">
+        <v>54.71</v>
+      </c>
+      <c r="M216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N216" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8063,18 +9405,27 @@
         <v>6547.318</v>
       </c>
       <c r="G217" t="n">
+        <v>54.91666666666664</v>
+      </c>
+      <c r="H217" t="n">
         <v>54.97416666666668</v>
       </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
       <c r="I217" t="n">
         <v>0</v>
       </c>
-      <c r="J217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>0</v>
+      </c>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
+      <c r="L217" t="n">
+        <v>54.71</v>
+      </c>
+      <c r="M217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N217" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8098,18 +9449,27 @@
         <v>239.5598</v>
       </c>
       <c r="G218" t="n">
+        <v>54.91733333333331</v>
+      </c>
+      <c r="H218" t="n">
         <v>54.97450000000001</v>
       </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
-      <c r="J218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>0</v>
+      </c>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
+      <c r="L218" t="n">
+        <v>54.71</v>
+      </c>
+      <c r="M218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N218" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8133,18 +9493,27 @@
         <v>572.1716</v>
       </c>
       <c r="G219" t="n">
+        <v>54.92599999999997</v>
+      </c>
+      <c r="H219" t="n">
         <v>54.97566666666668</v>
       </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>0</v>
+      </c>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
+      <c r="L219" t="n">
+        <v>54.71</v>
+      </c>
+      <c r="M219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N219" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8168,18 +9537,27 @@
         <v>3285.4411</v>
       </c>
       <c r="G220" t="n">
+        <v>54.93666666666664</v>
+      </c>
+      <c r="H220" t="n">
         <v>54.97750000000001</v>
       </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
       <c r="I220" t="n">
         <v>0</v>
       </c>
-      <c r="J220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>0</v>
+      </c>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
+      <c r="L220" t="n">
+        <v>54.71</v>
+      </c>
+      <c r="M220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N220" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8203,18 +9581,27 @@
         <v>12810.0035</v>
       </c>
       <c r="G221" t="n">
+        <v>54.96133333333331</v>
+      </c>
+      <c r="H221" t="n">
         <v>54.97950000000001</v>
       </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
       <c r="I221" t="n">
         <v>0</v>
       </c>
-      <c r="J221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>0</v>
+      </c>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
+      <c r="L221" t="n">
+        <v>54.71</v>
+      </c>
+      <c r="M221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N221" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8238,18 +9625,27 @@
         <v>8539.2639</v>
       </c>
       <c r="G222" t="n">
+        <v>54.98066666666664</v>
+      </c>
+      <c r="H222" t="n">
         <v>54.98133333333333</v>
       </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
       <c r="I222" t="n">
         <v>0</v>
       </c>
-      <c r="J222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>0</v>
+      </c>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
+      <c r="L222" t="n">
+        <v>54.71</v>
+      </c>
+      <c r="M222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N222" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8273,18 +9669,27 @@
         <v>30760.209</v>
       </c>
       <c r="G223" t="n">
+        <v>55.00799999999999</v>
+      </c>
+      <c r="H223" t="n">
         <v>54.983</v>
       </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
       <c r="I223" t="n">
         <v>0</v>
       </c>
-      <c r="J223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>0</v>
+      </c>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
+      <c r="L223" t="n">
+        <v>54.71</v>
+      </c>
+      <c r="M223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N223" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8308,18 +9713,27 @@
         <v>181</v>
       </c>
       <c r="G224" t="n">
+        <v>55.03599999999999</v>
+      </c>
+      <c r="H224" t="n">
         <v>54.98633333333333</v>
       </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
       <c r="I224" t="n">
         <v>0</v>
       </c>
-      <c r="J224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>0</v>
+      </c>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
+      <c r="L224" t="n">
+        <v>54.71</v>
+      </c>
+      <c r="M224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N224" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8343,18 +9757,27 @@
         <v>5211.4682</v>
       </c>
       <c r="G225" t="n">
+        <v>55.056</v>
+      </c>
+      <c r="H225" t="n">
         <v>54.98949999999999</v>
       </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
       <c r="I225" t="n">
         <v>0</v>
       </c>
-      <c r="J225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>0</v>
+      </c>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
+      <c r="L225" t="n">
+        <v>54.71</v>
+      </c>
+      <c r="M225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N225" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8378,18 +9801,27 @@
         <v>36475.9815</v>
       </c>
       <c r="G226" t="n">
+        <v>55.076</v>
+      </c>
+      <c r="H226" t="n">
         <v>54.99316666666665</v>
       </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
       <c r="I226" t="n">
         <v>0</v>
       </c>
-      <c r="J226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>0</v>
+      </c>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
+      <c r="L226" t="n">
+        <v>54.71</v>
+      </c>
+      <c r="M226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N226" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8413,18 +9845,27 @@
         <v>11000</v>
       </c>
       <c r="G227" t="n">
+        <v>55.10266666666667</v>
+      </c>
+      <c r="H227" t="n">
         <v>54.99816666666665</v>
       </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
       <c r="I227" t="n">
         <v>0</v>
       </c>
-      <c r="J227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>0</v>
+      </c>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
+      <c r="L227" t="n">
+        <v>54.71</v>
+      </c>
+      <c r="M227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N227" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8448,18 +9889,27 @@
         <v>584.0700000000001</v>
       </c>
       <c r="G228" t="n">
+        <v>55.12266666666667</v>
+      </c>
+      <c r="H228" t="n">
         <v>55.00316666666664</v>
       </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
       <c r="I228" t="n">
         <v>0</v>
       </c>
-      <c r="J228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>0</v>
+      </c>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
+      <c r="L228" t="n">
+        <v>54.71</v>
+      </c>
+      <c r="M228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N228" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8483,18 +9933,27 @@
         <v>8933.369000000001</v>
       </c>
       <c r="G229" t="n">
+        <v>55.14133333333335</v>
+      </c>
+      <c r="H229" t="n">
         <v>55.00816666666664</v>
       </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
       <c r="I229" t="n">
         <v>0</v>
       </c>
-      <c r="J229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>0</v>
+      </c>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
+      <c r="L229" t="n">
+        <v>54.71</v>
+      </c>
+      <c r="M229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N229" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8518,18 +9977,27 @@
         <v>10.033</v>
       </c>
       <c r="G230" t="n">
+        <v>55.15533333333335</v>
+      </c>
+      <c r="H230" t="n">
         <v>55.01333333333331</v>
       </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
       <c r="I230" t="n">
         <v>0</v>
       </c>
-      <c r="J230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>0</v>
+      </c>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
+      <c r="L230" t="n">
+        <v>54.71</v>
+      </c>
+      <c r="M230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N230" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8553,18 +10021,27 @@
         <v>2.6809</v>
       </c>
       <c r="G231" t="n">
+        <v>55.16733333333335</v>
+      </c>
+      <c r="H231" t="n">
         <v>55.01799999999997</v>
       </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
       <c r="I231" t="n">
         <v>0</v>
       </c>
-      <c r="J231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>0</v>
+      </c>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
+      <c r="L231" t="n">
+        <v>54.71</v>
+      </c>
+      <c r="M231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N231" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8588,18 +10065,27 @@
         <v>2334.961</v>
       </c>
       <c r="G232" t="n">
+        <v>55.17933333333336</v>
+      </c>
+      <c r="H232" t="n">
         <v>55.02299999999996</v>
       </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
       <c r="I232" t="n">
         <v>0</v>
       </c>
-      <c r="J232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>0</v>
+      </c>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
+      <c r="L232" t="n">
+        <v>54.71</v>
+      </c>
+      <c r="M232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N232" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8623,18 +10109,27 @@
         <v>3614.1461</v>
       </c>
       <c r="G233" t="n">
+        <v>55.19133333333336</v>
+      </c>
+      <c r="H233" t="n">
         <v>55.02799999999996</v>
       </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
       <c r="I233" t="n">
         <v>0</v>
       </c>
-      <c r="J233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>0</v>
+      </c>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
+      <c r="L233" t="n">
+        <v>54.71</v>
+      </c>
+      <c r="M233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N233" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8658,18 +10153,27 @@
         <v>4776.4979</v>
       </c>
       <c r="G234" t="n">
+        <v>55.1946666666667</v>
+      </c>
+      <c r="H234" t="n">
         <v>55.03466666666662</v>
       </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
       <c r="I234" t="n">
         <v>0</v>
       </c>
-      <c r="J234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>0</v>
+      </c>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
+      <c r="L234" t="n">
+        <v>54.71</v>
+      </c>
+      <c r="M234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N234" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8693,18 +10197,27 @@
         <v>15251.0599</v>
       </c>
       <c r="G235" t="n">
+        <v>55.19400000000004</v>
+      </c>
+      <c r="H235" t="n">
         <v>55.03966666666663</v>
       </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
       <c r="I235" t="n">
         <v>0</v>
       </c>
-      <c r="J235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>0</v>
+      </c>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
+      <c r="L235" t="n">
+        <v>54.71</v>
+      </c>
+      <c r="M235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N235" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8728,18 +10241,27 @@
         <v>246.821</v>
       </c>
       <c r="G236" t="n">
+        <v>55.1926666666667</v>
+      </c>
+      <c r="H236" t="n">
         <v>55.04399999999996</v>
       </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
       <c r="I236" t="n">
         <v>0</v>
       </c>
-      <c r="J236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>0</v>
+      </c>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
+      <c r="L236" t="n">
+        <v>54.71</v>
+      </c>
+      <c r="M236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N236" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8763,18 +10285,27 @@
         <v>4797.5033</v>
       </c>
       <c r="G237" t="n">
+        <v>55.19600000000003</v>
+      </c>
+      <c r="H237" t="n">
         <v>55.05033333333329</v>
       </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
       <c r="I237" t="n">
         <v>0</v>
       </c>
-      <c r="J237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>0</v>
+      </c>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
+      <c r="L237" t="n">
+        <v>54.71</v>
+      </c>
+      <c r="M237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N237" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8798,18 +10329,27 @@
         <v>15828.479</v>
       </c>
       <c r="G238" t="n">
+        <v>55.19933333333336</v>
+      </c>
+      <c r="H238" t="n">
         <v>55.05616666666663</v>
       </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
       <c r="I238" t="n">
         <v>0</v>
       </c>
-      <c r="J238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>0</v>
+      </c>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
+      <c r="L238" t="n">
+        <v>54.71</v>
+      </c>
+      <c r="M238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N238" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8833,18 +10373,27 @@
         <v>5359.319</v>
       </c>
       <c r="G239" t="n">
+        <v>55.20133333333336</v>
+      </c>
+      <c r="H239" t="n">
         <v>55.06099999999996</v>
       </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
       <c r="I239" t="n">
         <v>0</v>
       </c>
-      <c r="J239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>0</v>
+      </c>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
+      <c r="L239" t="n">
+        <v>54.71</v>
+      </c>
+      <c r="M239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N239" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8868,18 +10417,27 @@
         <v>21671.522</v>
       </c>
       <c r="G240" t="n">
+        <v>55.20466666666669</v>
+      </c>
+      <c r="H240" t="n">
         <v>55.06349999999996</v>
       </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
       <c r="I240" t="n">
         <v>0</v>
       </c>
-      <c r="J240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>0</v>
+      </c>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
+      <c r="L240" t="n">
+        <v>54.71</v>
+      </c>
+      <c r="M240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N240" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8903,19 +10461,28 @@
         <v>7712.7676</v>
       </c>
       <c r="G241" t="n">
+        <v>55.20466666666669</v>
+      </c>
+      <c r="H241" t="n">
         <v>55.06316666666662</v>
       </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
       <c r="I241" t="n">
         <v>0</v>
       </c>
-      <c r="J241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>1</v>
+      </c>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
-        <v>1</v>
+      <c r="L241" t="n">
+        <v>54.71</v>
+      </c>
+      <c r="M241" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N241" t="n">
+        <v>1.003956315116067</v>
       </c>
     </row>
     <row r="242">
@@ -8938,18 +10505,21 @@
         <v>1101.1987</v>
       </c>
       <c r="G242" t="n">
+        <v>55.20066666666669</v>
+      </c>
+      <c r="H242" t="n">
         <v>55.06283333333329</v>
       </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
       <c r="I242" t="n">
         <v>0</v>
       </c>
-      <c r="J242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>0</v>
+      </c>
       <c r="K242" t="inlineStr"/>
       <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
+      <c r="M242" t="inlineStr"/>
+      <c r="N242" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8973,18 +10543,21 @@
         <v>553</v>
       </c>
       <c r="G243" t="n">
+        <v>55.19666666666669</v>
+      </c>
+      <c r="H243" t="n">
         <v>55.06116666666663</v>
       </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
       <c r="I243" t="n">
         <v>0</v>
       </c>
-      <c r="J243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>0</v>
+      </c>
       <c r="K243" t="inlineStr"/>
       <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
+      <c r="M243" t="inlineStr"/>
+      <c r="N243" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9008,18 +10581,21 @@
         <v>25078.4</v>
       </c>
       <c r="G244" t="n">
+        <v>55.18333333333335</v>
+      </c>
+      <c r="H244" t="n">
         <v>55.0578333333333</v>
       </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
       <c r="I244" t="n">
         <v>0</v>
       </c>
-      <c r="J244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>0</v>
+      </c>
       <c r="K244" t="inlineStr"/>
       <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
+      <c r="M244" t="inlineStr"/>
+      <c r="N244" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9043,18 +10619,21 @@
         <v>554.1488000000001</v>
       </c>
       <c r="G245" t="n">
+        <v>55.16933333333335</v>
+      </c>
+      <c r="H245" t="n">
         <v>55.05516666666664</v>
       </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
       <c r="I245" t="n">
         <v>0</v>
       </c>
-      <c r="J245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>0</v>
+      </c>
       <c r="K245" t="inlineStr"/>
       <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
+      <c r="M245" t="inlineStr"/>
+      <c r="N245" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9078,18 +10657,21 @@
         <v>3397.6498</v>
       </c>
       <c r="G246" t="n">
+        <v>55.15600000000001</v>
+      </c>
+      <c r="H246" t="n">
         <v>55.05266666666663</v>
       </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
       <c r="I246" t="n">
         <v>0</v>
       </c>
-      <c r="J246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>0</v>
+      </c>
       <c r="K246" t="inlineStr"/>
       <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
+      <c r="M246" t="inlineStr"/>
+      <c r="N246" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9113,18 +10695,21 @@
         <v>201.9747</v>
       </c>
       <c r="G247" t="n">
+        <v>55.14266666666667</v>
+      </c>
+      <c r="H247" t="n">
         <v>55.0518333333333</v>
       </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
       <c r="I247" t="n">
         <v>0</v>
       </c>
-      <c r="J247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>0</v>
+      </c>
       <c r="K247" t="inlineStr"/>
       <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
+      <c r="M247" t="inlineStr"/>
+      <c r="N247" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9148,18 +10733,21 @@
         <v>11481.7651</v>
       </c>
       <c r="G248" t="n">
+        <v>55.12466666666667</v>
+      </c>
+      <c r="H248" t="n">
         <v>55.04999999999996</v>
       </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
       <c r="I248" t="n">
         <v>0</v>
       </c>
-      <c r="J248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>0</v>
+      </c>
       <c r="K248" t="inlineStr"/>
       <c r="L248" t="inlineStr"/>
-      <c r="M248" t="n">
+      <c r="M248" t="inlineStr"/>
+      <c r="N248" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9183,18 +10771,21 @@
         <v>4617.4214</v>
       </c>
       <c r="G249" t="n">
+        <v>55.09866666666667</v>
+      </c>
+      <c r="H249" t="n">
         <v>55.04616666666663</v>
       </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
       <c r="I249" t="n">
         <v>0</v>
       </c>
-      <c r="J249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>0</v>
+      </c>
       <c r="K249" t="inlineStr"/>
       <c r="L249" t="inlineStr"/>
-      <c r="M249" t="n">
+      <c r="M249" t="inlineStr"/>
+      <c r="N249" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9218,18 +10809,21 @@
         <v>5511.4939</v>
       </c>
       <c r="G250" t="n">
+        <v>55.07133333333334</v>
+      </c>
+      <c r="H250" t="n">
         <v>55.04133333333329</v>
       </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
       <c r="I250" t="n">
         <v>0</v>
       </c>
-      <c r="J250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>0</v>
+      </c>
       <c r="K250" t="inlineStr"/>
       <c r="L250" t="inlineStr"/>
-      <c r="M250" t="n">
+      <c r="M250" t="inlineStr"/>
+      <c r="N250" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9253,18 +10847,21 @@
         <v>437.2281</v>
       </c>
       <c r="G251" t="n">
+        <v>55.05066666666667</v>
+      </c>
+      <c r="H251" t="n">
         <v>55.03766666666662</v>
       </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
       <c r="I251" t="n">
         <v>0</v>
       </c>
-      <c r="J251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>0</v>
+      </c>
       <c r="K251" t="inlineStr"/>
       <c r="L251" t="inlineStr"/>
-      <c r="M251" t="n">
+      <c r="M251" t="inlineStr"/>
+      <c r="N251" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9288,18 +10885,21 @@
         <v>40175</v>
       </c>
       <c r="G252" t="n">
+        <v>55.01533333333334</v>
+      </c>
+      <c r="H252" t="n">
         <v>55.03233333333329</v>
       </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
       <c r="I252" t="n">
         <v>0</v>
       </c>
-      <c r="J252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>0</v>
+      </c>
       <c r="K252" t="inlineStr"/>
       <c r="L252" t="inlineStr"/>
-      <c r="M252" t="n">
+      <c r="M252" t="inlineStr"/>
+      <c r="N252" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9323,18 +10923,21 @@
         <v>459.671</v>
       </c>
       <c r="G253" t="n">
+        <v>54.98666666666668</v>
+      </c>
+      <c r="H253" t="n">
         <v>55.03083333333329</v>
       </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
       <c r="I253" t="n">
         <v>0</v>
       </c>
-      <c r="J253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>0</v>
+      </c>
       <c r="K253" t="inlineStr"/>
       <c r="L253" t="inlineStr"/>
-      <c r="M253" t="n">
+      <c r="M253" t="inlineStr"/>
+      <c r="N253" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9358,18 +10961,21 @@
         <v>1043.8768</v>
       </c>
       <c r="G254" t="n">
+        <v>54.96133333333334</v>
+      </c>
+      <c r="H254" t="n">
         <v>55.02983333333329</v>
       </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
       <c r="I254" t="n">
         <v>0</v>
       </c>
-      <c r="J254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>0</v>
+      </c>
       <c r="K254" t="inlineStr"/>
       <c r="L254" t="inlineStr"/>
-      <c r="M254" t="n">
+      <c r="M254" t="inlineStr"/>
+      <c r="N254" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9393,18 +10999,21 @@
         <v>318.8</v>
       </c>
       <c r="G255" t="n">
+        <v>54.93600000000001</v>
+      </c>
+      <c r="H255" t="n">
         <v>55.02766666666663</v>
       </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
       <c r="I255" t="n">
         <v>0</v>
       </c>
-      <c r="J255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>0</v>
+      </c>
       <c r="K255" t="inlineStr"/>
       <c r="L255" t="inlineStr"/>
-      <c r="M255" t="n">
+      <c r="M255" t="inlineStr"/>
+      <c r="N255" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9428,18 +11037,21 @@
         <v>2198.1148</v>
       </c>
       <c r="G256" t="n">
+        <v>54.91400000000001</v>
+      </c>
+      <c r="H256" t="n">
         <v>55.02949999999996</v>
       </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
       <c r="I256" t="n">
         <v>0</v>
       </c>
-      <c r="J256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>0</v>
+      </c>
       <c r="K256" t="inlineStr"/>
       <c r="L256" t="inlineStr"/>
-      <c r="M256" t="n">
+      <c r="M256" t="inlineStr"/>
+      <c r="N256" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9463,18 +11075,21 @@
         <v>911.5674</v>
       </c>
       <c r="G257" t="n">
+        <v>54.89600000000001</v>
+      </c>
+      <c r="H257" t="n">
         <v>55.02916666666662</v>
       </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
       <c r="I257" t="n">
         <v>0</v>
       </c>
-      <c r="J257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>0</v>
+      </c>
       <c r="K257" t="inlineStr"/>
       <c r="L257" t="inlineStr"/>
-      <c r="M257" t="n">
+      <c r="M257" t="inlineStr"/>
+      <c r="N257" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9498,18 +11113,21 @@
         <v>41552.3459</v>
       </c>
       <c r="G258" t="n">
+        <v>54.87800000000001</v>
+      </c>
+      <c r="H258" t="n">
         <v>55.02883333333329</v>
       </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
       <c r="I258" t="n">
         <v>0</v>
       </c>
-      <c r="J258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>0</v>
+      </c>
       <c r="K258" t="inlineStr"/>
       <c r="L258" t="inlineStr"/>
-      <c r="M258" t="n">
+      <c r="M258" t="inlineStr"/>
+      <c r="N258" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9533,18 +11151,21 @@
         <v>672.138</v>
       </c>
       <c r="G259" t="n">
+        <v>54.86933333333334</v>
+      </c>
+      <c r="H259" t="n">
         <v>55.02783333333329</v>
       </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
       <c r="I259" t="n">
         <v>0</v>
       </c>
-      <c r="J259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>0</v>
+      </c>
       <c r="K259" t="inlineStr"/>
       <c r="L259" t="inlineStr"/>
-      <c r="M259" t="n">
+      <c r="M259" t="inlineStr"/>
+      <c r="N259" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9568,18 +11189,21 @@
         <v>7060.0582</v>
       </c>
       <c r="G260" t="n">
+        <v>54.86066666666668</v>
+      </c>
+      <c r="H260" t="n">
         <v>55.02549999999995</v>
       </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
       <c r="I260" t="n">
         <v>0</v>
       </c>
-      <c r="J260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>0</v>
+      </c>
       <c r="K260" t="inlineStr"/>
       <c r="L260" t="inlineStr"/>
-      <c r="M260" t="n">
+      <c r="M260" t="inlineStr"/>
+      <c r="N260" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9603,18 +11227,21 @@
         <v>6159.8429</v>
       </c>
       <c r="G261" t="n">
+        <v>54.85200000000001</v>
+      </c>
+      <c r="H261" t="n">
         <v>55.02299999999995</v>
       </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
       <c r="I261" t="n">
         <v>0</v>
       </c>
-      <c r="J261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>0</v>
+      </c>
       <c r="K261" t="inlineStr"/>
       <c r="L261" t="inlineStr"/>
-      <c r="M261" t="n">
+      <c r="M261" t="inlineStr"/>
+      <c r="N261" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9638,18 +11265,21 @@
         <v>16666.4</v>
       </c>
       <c r="G262" t="n">
+        <v>54.84933333333335</v>
+      </c>
+      <c r="H262" t="n">
         <v>55.02199999999995</v>
       </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
       <c r="I262" t="n">
         <v>0</v>
       </c>
-      <c r="J262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>0</v>
+      </c>
       <c r="K262" t="inlineStr"/>
       <c r="L262" t="inlineStr"/>
-      <c r="M262" t="n">
+      <c r="M262" t="inlineStr"/>
+      <c r="N262" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9673,18 +11303,21 @@
         <v>3333.6</v>
       </c>
       <c r="G263" t="n">
+        <v>54.85133333333336</v>
+      </c>
+      <c r="H263" t="n">
         <v>55.02116666666662</v>
       </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
       <c r="I263" t="n">
         <v>0</v>
       </c>
-      <c r="J263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>0</v>
+      </c>
       <c r="K263" t="inlineStr"/>
       <c r="L263" t="inlineStr"/>
-      <c r="M263" t="n">
+      <c r="M263" t="inlineStr"/>
+      <c r="N263" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9708,18 +11341,21 @@
         <v>15847.3256</v>
       </c>
       <c r="G264" t="n">
+        <v>54.86600000000001</v>
+      </c>
+      <c r="H264" t="n">
         <v>55.02133333333328</v>
       </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
       <c r="I264" t="n">
         <v>0</v>
       </c>
-      <c r="J264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>0</v>
+      </c>
       <c r="K264" t="inlineStr"/>
       <c r="L264" t="inlineStr"/>
-      <c r="M264" t="n">
+      <c r="M264" t="inlineStr"/>
+      <c r="N264" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9743,18 +11379,21 @@
         <v>106127.0044</v>
       </c>
       <c r="G265" t="n">
+        <v>54.87666666666668</v>
+      </c>
+      <c r="H265" t="n">
         <v>55.01966666666662</v>
       </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
       <c r="I265" t="n">
         <v>0</v>
       </c>
-      <c r="J265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>0</v>
+      </c>
       <c r="K265" t="inlineStr"/>
       <c r="L265" t="inlineStr"/>
-      <c r="M265" t="n">
+      <c r="M265" t="inlineStr"/>
+      <c r="N265" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9778,18 +11417,21 @@
         <v>11430.1886</v>
       </c>
       <c r="G266" t="n">
+        <v>54.89200000000001</v>
+      </c>
+      <c r="H266" t="n">
         <v>55.02416666666662</v>
       </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
       <c r="I266" t="n">
         <v>0</v>
       </c>
-      <c r="J266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>0</v>
+      </c>
       <c r="K266" t="inlineStr"/>
       <c r="L266" t="inlineStr"/>
-      <c r="M266" t="n">
+      <c r="M266" t="inlineStr"/>
+      <c r="N266" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9813,18 +11455,21 @@
         <v>12495.2197</v>
       </c>
       <c r="G267" t="n">
+        <v>54.91266666666667</v>
+      </c>
+      <c r="H267" t="n">
         <v>55.02616666666663</v>
       </c>
-      <c r="H267" t="n">
-        <v>0</v>
-      </c>
       <c r="I267" t="n">
         <v>0</v>
       </c>
-      <c r="J267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>0</v>
+      </c>
       <c r="K267" t="inlineStr"/>
       <c r="L267" t="inlineStr"/>
-      <c r="M267" t="n">
+      <c r="M267" t="inlineStr"/>
+      <c r="N267" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9848,18 +11493,21 @@
         <v>24414.1022</v>
       </c>
       <c r="G268" t="n">
+        <v>54.926</v>
+      </c>
+      <c r="H268" t="n">
         <v>55.02999999999996</v>
       </c>
-      <c r="H268" t="n">
-        <v>0</v>
-      </c>
       <c r="I268" t="n">
         <v>0</v>
       </c>
-      <c r="J268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>0</v>
+      </c>
       <c r="K268" t="inlineStr"/>
       <c r="L268" t="inlineStr"/>
-      <c r="M268" t="n">
+      <c r="M268" t="inlineStr"/>
+      <c r="N268" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9883,18 +11531,21 @@
         <v>17941.6249</v>
       </c>
       <c r="G269" t="n">
+        <v>54.93466666666666</v>
+      </c>
+      <c r="H269" t="n">
         <v>55.03333333333329</v>
       </c>
-      <c r="H269" t="n">
-        <v>0</v>
-      </c>
       <c r="I269" t="n">
         <v>0</v>
       </c>
-      <c r="J269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>0</v>
+      </c>
       <c r="K269" t="inlineStr"/>
       <c r="L269" t="inlineStr"/>
-      <c r="M269" t="n">
+      <c r="M269" t="inlineStr"/>
+      <c r="N269" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9918,18 +11569,21 @@
         <v>1231.073</v>
       </c>
       <c r="G270" t="n">
+        <v>54.93466666666666</v>
+      </c>
+      <c r="H270" t="n">
         <v>55.03283333333329</v>
       </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
       <c r="I270" t="n">
         <v>0</v>
       </c>
-      <c r="J270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>0</v>
+      </c>
       <c r="K270" t="inlineStr"/>
       <c r="L270" t="inlineStr"/>
-      <c r="M270" t="n">
+      <c r="M270" t="inlineStr"/>
+      <c r="N270" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9953,18 +11607,21 @@
         <v>13729.0683</v>
       </c>
       <c r="G271" t="n">
+        <v>54.93466666666666</v>
+      </c>
+      <c r="H271" t="n">
         <v>55.03233333333328</v>
       </c>
-      <c r="H271" t="n">
-        <v>0</v>
-      </c>
       <c r="I271" t="n">
         <v>0</v>
       </c>
-      <c r="J271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>0</v>
+      </c>
       <c r="K271" t="inlineStr"/>
       <c r="L271" t="inlineStr"/>
-      <c r="M271" t="n">
+      <c r="M271" t="inlineStr"/>
+      <c r="N271" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9988,18 +11645,21 @@
         <v>1063.5094</v>
       </c>
       <c r="G272" t="n">
+        <v>54.93466666666666</v>
+      </c>
+      <c r="H272" t="n">
         <v>55.03349999999994</v>
       </c>
-      <c r="H272" t="n">
-        <v>0</v>
-      </c>
       <c r="I272" t="n">
         <v>0</v>
       </c>
-      <c r="J272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>0</v>
+      </c>
       <c r="K272" t="inlineStr"/>
       <c r="L272" t="inlineStr"/>
-      <c r="M272" t="n">
+      <c r="M272" t="inlineStr"/>
+      <c r="N272" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10023,18 +11683,21 @@
         <v>38747.5369</v>
       </c>
       <c r="G273" t="n">
+        <v>54.93133333333333</v>
+      </c>
+      <c r="H273" t="n">
         <v>55.03216666666661</v>
       </c>
-      <c r="H273" t="n">
-        <v>0</v>
-      </c>
       <c r="I273" t="n">
         <v>0</v>
       </c>
-      <c r="J273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>0</v>
+      </c>
       <c r="K273" t="inlineStr"/>
       <c r="L273" t="inlineStr"/>
-      <c r="M273" t="n">
+      <c r="M273" t="inlineStr"/>
+      <c r="N273" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10058,18 +11721,21 @@
         <v>1616.9999</v>
       </c>
       <c r="G274" t="n">
+        <v>54.934</v>
+      </c>
+      <c r="H274" t="n">
         <v>55.03199999999994</v>
       </c>
-      <c r="H274" t="n">
-        <v>0</v>
-      </c>
       <c r="I274" t="n">
         <v>0</v>
       </c>
-      <c r="J274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>0</v>
+      </c>
       <c r="K274" t="inlineStr"/>
       <c r="L274" t="inlineStr"/>
-      <c r="M274" t="n">
+      <c r="M274" t="inlineStr"/>
+      <c r="N274" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10093,18 +11759,21 @@
         <v>4000</v>
       </c>
       <c r="G275" t="n">
+        <v>54.93266666666667</v>
+      </c>
+      <c r="H275" t="n">
         <v>55.02949999999994</v>
       </c>
-      <c r="H275" t="n">
-        <v>0</v>
-      </c>
       <c r="I275" t="n">
         <v>0</v>
       </c>
-      <c r="J275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>0</v>
+      </c>
       <c r="K275" t="inlineStr"/>
       <c r="L275" t="inlineStr"/>
-      <c r="M275" t="n">
+      <c r="M275" t="inlineStr"/>
+      <c r="N275" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10128,18 +11797,21 @@
         <v>5158.6196</v>
       </c>
       <c r="G276" t="n">
+        <v>54.93133333333333</v>
+      </c>
+      <c r="H276" t="n">
         <v>55.02666666666661</v>
       </c>
-      <c r="H276" t="n">
-        <v>0</v>
-      </c>
       <c r="I276" t="n">
         <v>0</v>
       </c>
-      <c r="J276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>0</v>
+      </c>
       <c r="K276" t="inlineStr"/>
       <c r="L276" t="inlineStr"/>
-      <c r="M276" t="n">
+      <c r="M276" t="inlineStr"/>
+      <c r="N276" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10163,18 +11835,21 @@
         <v>1154.1546</v>
       </c>
       <c r="G277" t="n">
+        <v>54.934</v>
+      </c>
+      <c r="H277" t="n">
         <v>55.02633333333327</v>
       </c>
-      <c r="H277" t="n">
-        <v>0</v>
-      </c>
       <c r="I277" t="n">
         <v>0</v>
       </c>
-      <c r="J277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>0</v>
+      </c>
       <c r="K277" t="inlineStr"/>
       <c r="L277" t="inlineStr"/>
-      <c r="M277" t="n">
+      <c r="M277" t="inlineStr"/>
+      <c r="N277" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10198,18 +11873,21 @@
         <v>14280.2781</v>
       </c>
       <c r="G278" t="n">
+        <v>54.93666666666666</v>
+      </c>
+      <c r="H278" t="n">
         <v>55.02599999999994</v>
       </c>
-      <c r="H278" t="n">
-        <v>0</v>
-      </c>
       <c r="I278" t="n">
         <v>0</v>
       </c>
-      <c r="J278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>0</v>
+      </c>
       <c r="K278" t="inlineStr"/>
       <c r="L278" t="inlineStr"/>
-      <c r="M278" t="n">
+      <c r="M278" t="inlineStr"/>
+      <c r="N278" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10233,18 +11911,21 @@
         <v>2646.3542</v>
       </c>
       <c r="G279" t="n">
+        <v>54.93466666666666</v>
+      </c>
+      <c r="H279" t="n">
         <v>55.02349999999993</v>
       </c>
-      <c r="H279" t="n">
-        <v>0</v>
-      </c>
       <c r="I279" t="n">
         <v>0</v>
       </c>
-      <c r="J279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>0</v>
+      </c>
       <c r="K279" t="inlineStr"/>
       <c r="L279" t="inlineStr"/>
-      <c r="M279" t="n">
+      <c r="M279" t="inlineStr"/>
+      <c r="N279" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10268,18 +11949,21 @@
         <v>1818.18181818</v>
       </c>
       <c r="G280" t="n">
+        <v>54.94266666666667</v>
+      </c>
+      <c r="H280" t="n">
         <v>55.02116666666661</v>
       </c>
-      <c r="H280" t="n">
-        <v>0</v>
-      </c>
       <c r="I280" t="n">
         <v>0</v>
       </c>
-      <c r="J280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>0</v>
+      </c>
       <c r="K280" t="inlineStr"/>
       <c r="L280" t="inlineStr"/>
-      <c r="M280" t="n">
+      <c r="M280" t="inlineStr"/>
+      <c r="N280" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10303,18 +11987,21 @@
         <v>669.1566</v>
       </c>
       <c r="G281" t="n">
+        <v>54.93933333333334</v>
+      </c>
+      <c r="H281" t="n">
         <v>55.0186666666666</v>
       </c>
-      <c r="H281" t="n">
-        <v>0</v>
-      </c>
       <c r="I281" t="n">
         <v>0</v>
       </c>
-      <c r="J281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>0</v>
+      </c>
       <c r="K281" t="inlineStr"/>
       <c r="L281" t="inlineStr"/>
-      <c r="M281" t="n">
+      <c r="M281" t="inlineStr"/>
+      <c r="N281" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10338,18 +12025,21 @@
         <v>10713.4313</v>
       </c>
       <c r="G282" t="n">
+        <v>54.93733333333333</v>
+      </c>
+      <c r="H282" t="n">
         <v>55.01533333333327</v>
       </c>
-      <c r="H282" t="n">
-        <v>0</v>
-      </c>
       <c r="I282" t="n">
         <v>0</v>
       </c>
-      <c r="J282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>0</v>
+      </c>
       <c r="K282" t="inlineStr"/>
       <c r="L282" t="inlineStr"/>
-      <c r="M282" t="n">
+      <c r="M282" t="inlineStr"/>
+      <c r="N282" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10373,18 +12063,21 @@
         <v>211.4</v>
       </c>
       <c r="G283" t="n">
+        <v>54.928</v>
+      </c>
+      <c r="H283" t="n">
         <v>55.00999999999995</v>
       </c>
-      <c r="H283" t="n">
-        <v>0</v>
-      </c>
       <c r="I283" t="n">
         <v>0</v>
       </c>
-      <c r="J283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>0</v>
+      </c>
       <c r="K283" t="inlineStr"/>
       <c r="L283" t="inlineStr"/>
-      <c r="M283" t="n">
+      <c r="M283" t="inlineStr"/>
+      <c r="N283" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10408,18 +12101,21 @@
         <v>51471.44338182</v>
       </c>
       <c r="G284" t="n">
+        <v>54.92866666666667</v>
+      </c>
+      <c r="H284" t="n">
         <v>55.00649999999995</v>
       </c>
-      <c r="H284" t="n">
-        <v>0</v>
-      </c>
       <c r="I284" t="n">
         <v>0</v>
       </c>
-      <c r="J284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>0</v>
+      </c>
       <c r="K284" t="inlineStr"/>
       <c r="L284" t="inlineStr"/>
-      <c r="M284" t="n">
+      <c r="M284" t="inlineStr"/>
+      <c r="N284" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10443,18 +12139,21 @@
         <v>1441.1534</v>
       </c>
       <c r="G285" t="n">
+        <v>54.94</v>
+      </c>
+      <c r="H285" t="n">
         <v>55.00383333333329</v>
       </c>
-      <c r="H285" t="n">
-        <v>0</v>
-      </c>
       <c r="I285" t="n">
         <v>0</v>
       </c>
-      <c r="J285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>0</v>
+      </c>
       <c r="K285" t="inlineStr"/>
       <c r="L285" t="inlineStr"/>
-      <c r="M285" t="n">
+      <c r="M285" t="inlineStr"/>
+      <c r="N285" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10478,18 +12177,21 @@
         <v>55097.9854</v>
       </c>
       <c r="G286" t="n">
+        <v>54.95133333333333</v>
+      </c>
+      <c r="H286" t="n">
         <v>55.00116666666663</v>
       </c>
-      <c r="H286" t="n">
-        <v>0</v>
-      </c>
       <c r="I286" t="n">
         <v>0</v>
       </c>
-      <c r="J286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>0</v>
+      </c>
       <c r="K286" t="inlineStr"/>
       <c r="L286" t="inlineStr"/>
-      <c r="M286" t="n">
+      <c r="M286" t="inlineStr"/>
+      <c r="N286" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10513,18 +12215,21 @@
         <v>539</v>
       </c>
       <c r="G287" t="n">
+        <v>54.97533333333333</v>
+      </c>
+      <c r="H287" t="n">
         <v>55.00166666666663</v>
       </c>
-      <c r="H287" t="n">
-        <v>0</v>
-      </c>
       <c r="I287" t="n">
         <v>0</v>
       </c>
-      <c r="J287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>0</v>
+      </c>
       <c r="K287" t="inlineStr"/>
       <c r="L287" t="inlineStr"/>
-      <c r="M287" t="n">
+      <c r="M287" t="inlineStr"/>
+      <c r="N287" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10548,18 +12253,21 @@
         <v>1916</v>
       </c>
       <c r="G288" t="n">
+        <v>55.00266666666666</v>
+      </c>
+      <c r="H288" t="n">
         <v>55.00216666666663</v>
       </c>
-      <c r="H288" t="n">
-        <v>0</v>
-      </c>
       <c r="I288" t="n">
         <v>0</v>
       </c>
-      <c r="J288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>0</v>
+      </c>
       <c r="K288" t="inlineStr"/>
       <c r="L288" t="inlineStr"/>
-      <c r="M288" t="n">
+      <c r="M288" t="inlineStr"/>
+      <c r="N288" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10583,18 +12291,21 @@
         <v>1345.281</v>
       </c>
       <c r="G289" t="n">
+        <v>55.02533333333334</v>
+      </c>
+      <c r="H289" t="n">
         <v>55.00299999999996</v>
       </c>
-      <c r="H289" t="n">
-        <v>0</v>
-      </c>
       <c r="I289" t="n">
         <v>0</v>
       </c>
-      <c r="J289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>0</v>
+      </c>
       <c r="K289" t="inlineStr"/>
       <c r="L289" t="inlineStr"/>
-      <c r="M289" t="n">
+      <c r="M289" t="inlineStr"/>
+      <c r="N289" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10618,18 +12329,21 @@
         <v>3640.9683</v>
       </c>
       <c r="G290" t="n">
+        <v>55.052</v>
+      </c>
+      <c r="H290" t="n">
         <v>55.00366666666663</v>
       </c>
-      <c r="H290" t="n">
-        <v>0</v>
-      </c>
       <c r="I290" t="n">
         <v>0</v>
       </c>
-      <c r="J290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>0</v>
+      </c>
       <c r="K290" t="inlineStr"/>
       <c r="L290" t="inlineStr"/>
-      <c r="M290" t="n">
+      <c r="M290" t="inlineStr"/>
+      <c r="N290" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10653,18 +12367,21 @@
         <v>386.1</v>
       </c>
       <c r="G291" t="n">
+        <v>55.07733333333333</v>
+      </c>
+      <c r="H291" t="n">
         <v>55.00416666666663</v>
       </c>
-      <c r="H291" t="n">
-        <v>0</v>
-      </c>
       <c r="I291" t="n">
         <v>0</v>
       </c>
-      <c r="J291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>0</v>
+      </c>
       <c r="K291" t="inlineStr"/>
       <c r="L291" t="inlineStr"/>
-      <c r="M291" t="n">
+      <c r="M291" t="inlineStr"/>
+      <c r="N291" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10688,18 +12405,21 @@
         <v>77.5455</v>
       </c>
       <c r="G292" t="n">
+        <v>55.09266666666667</v>
+      </c>
+      <c r="H292" t="n">
         <v>55.00466666666664</v>
       </c>
-      <c r="H292" t="n">
-        <v>0</v>
-      </c>
       <c r="I292" t="n">
         <v>0</v>
       </c>
-      <c r="J292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>0</v>
+      </c>
       <c r="K292" t="inlineStr"/>
       <c r="L292" t="inlineStr"/>
-      <c r="M292" t="n">
+      <c r="M292" t="inlineStr"/>
+      <c r="N292" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10723,18 +12443,21 @@
         <v>440.543</v>
       </c>
       <c r="G293" t="n">
+        <v>55.10733333333334</v>
+      </c>
+      <c r="H293" t="n">
         <v>55.00499999999997</v>
       </c>
-      <c r="H293" t="n">
-        <v>0</v>
-      </c>
       <c r="I293" t="n">
         <v>0</v>
       </c>
-      <c r="J293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>0</v>
+      </c>
       <c r="K293" t="inlineStr"/>
       <c r="L293" t="inlineStr"/>
-      <c r="M293" t="n">
+      <c r="M293" t="inlineStr"/>
+      <c r="N293" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10758,18 +12481,21 @@
         <v>418.5159</v>
       </c>
       <c r="G294" t="n">
+        <v>55.122</v>
+      </c>
+      <c r="H294" t="n">
         <v>55.0053333333333</v>
       </c>
-      <c r="H294" t="n">
-        <v>0</v>
-      </c>
       <c r="I294" t="n">
         <v>0</v>
       </c>
-      <c r="J294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>0</v>
+      </c>
       <c r="K294" t="inlineStr"/>
       <c r="L294" t="inlineStr"/>
-      <c r="M294" t="n">
+      <c r="M294" t="inlineStr"/>
+      <c r="N294" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10793,18 +12519,21 @@
         <v>200</v>
       </c>
       <c r="G295" t="n">
+        <v>55.13666666666667</v>
+      </c>
+      <c r="H295" t="n">
         <v>55.0068333333333</v>
       </c>
-      <c r="H295" t="n">
-        <v>0</v>
-      </c>
       <c r="I295" t="n">
         <v>0</v>
       </c>
-      <c r="J295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>0</v>
+      </c>
       <c r="K295" t="inlineStr"/>
       <c r="L295" t="inlineStr"/>
-      <c r="M295" t="n">
+      <c r="M295" t="inlineStr"/>
+      <c r="N295" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10828,18 +12557,21 @@
         <v>10971.87</v>
       </c>
       <c r="G296" t="n">
+        <v>55.14</v>
+      </c>
+      <c r="H296" t="n">
         <v>55.00549999999997</v>
       </c>
-      <c r="H296" t="n">
-        <v>0</v>
-      </c>
       <c r="I296" t="n">
         <v>0</v>
       </c>
-      <c r="J296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>0</v>
+      </c>
       <c r="K296" t="inlineStr"/>
       <c r="L296" t="inlineStr"/>
-      <c r="M296" t="n">
+      <c r="M296" t="inlineStr"/>
+      <c r="N296" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10863,18 +12595,21 @@
         <v>181.1</v>
       </c>
       <c r="G297" t="n">
+        <v>55.15466666666667</v>
+      </c>
+      <c r="H297" t="n">
         <v>55.00499999999997</v>
       </c>
-      <c r="H297" t="n">
-        <v>0</v>
-      </c>
       <c r="I297" t="n">
         <v>0</v>
       </c>
-      <c r="J297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>0</v>
+      </c>
       <c r="K297" t="inlineStr"/>
       <c r="L297" t="inlineStr"/>
-      <c r="M297" t="n">
+      <c r="M297" t="inlineStr"/>
+      <c r="N297" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10898,18 +12633,21 @@
         <v>7848.28</v>
       </c>
       <c r="G298" t="n">
+        <v>55.15933333333334</v>
+      </c>
+      <c r="H298" t="n">
         <v>54.99999999999996</v>
       </c>
-      <c r="H298" t="n">
-        <v>0</v>
-      </c>
       <c r="I298" t="n">
         <v>0</v>
       </c>
-      <c r="J298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>0</v>
+      </c>
       <c r="K298" t="inlineStr"/>
       <c r="L298" t="inlineStr"/>
-      <c r="M298" t="n">
+      <c r="M298" t="inlineStr"/>
+      <c r="N298" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10933,18 +12671,21 @@
         <v>12151.72</v>
       </c>
       <c r="G299" t="n">
+        <v>55.15533333333335</v>
+      </c>
+      <c r="H299" t="n">
         <v>54.99499999999996</v>
       </c>
-      <c r="H299" t="n">
-        <v>0</v>
-      </c>
       <c r="I299" t="n">
         <v>0</v>
       </c>
-      <c r="J299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>0</v>
+      </c>
       <c r="K299" t="inlineStr"/>
       <c r="L299" t="inlineStr"/>
-      <c r="M299" t="n">
+      <c r="M299" t="inlineStr"/>
+      <c r="N299" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10968,18 +12709,21 @@
         <v>300</v>
       </c>
       <c r="G300" t="n">
+        <v>55.13933333333334</v>
+      </c>
+      <c r="H300" t="n">
         <v>54.98749999999996</v>
       </c>
-      <c r="H300" t="n">
-        <v>0</v>
-      </c>
       <c r="I300" t="n">
         <v>0</v>
       </c>
-      <c r="J300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>0</v>
+      </c>
       <c r="K300" t="inlineStr"/>
       <c r="L300" t="inlineStr"/>
-      <c r="M300" t="n">
+      <c r="M300" t="inlineStr"/>
+      <c r="N300" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11003,18 +12747,21 @@
         <v>4559</v>
       </c>
       <c r="G301" t="n">
+        <v>55.13533333333335</v>
+      </c>
+      <c r="H301" t="n">
         <v>54.9838333333333</v>
       </c>
-      <c r="H301" t="n">
-        <v>0</v>
-      </c>
       <c r="I301" t="n">
         <v>0</v>
       </c>
-      <c r="J301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>0</v>
+      </c>
       <c r="K301" t="inlineStr"/>
       <c r="L301" t="inlineStr"/>
-      <c r="M301" t="n">
+      <c r="M301" t="inlineStr"/>
+      <c r="N301" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11038,18 +12785,21 @@
         <v>13000.3841</v>
       </c>
       <c r="G302" t="n">
+        <v>55.11866666666668</v>
+      </c>
+      <c r="H302" t="n">
         <v>54.98116666666663</v>
       </c>
-      <c r="H302" t="n">
-        <v>0</v>
-      </c>
       <c r="I302" t="n">
         <v>0</v>
       </c>
-      <c r="J302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>0</v>
+      </c>
       <c r="K302" t="inlineStr"/>
       <c r="L302" t="inlineStr"/>
-      <c r="M302" t="n">
+      <c r="M302" t="inlineStr"/>
+      <c r="N302" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11073,18 +12823,21 @@
         <v>412.9985</v>
       </c>
       <c r="G303" t="n">
+        <v>55.10800000000002</v>
+      </c>
+      <c r="H303" t="n">
         <v>54.97999999999998</v>
       </c>
-      <c r="H303" t="n">
-        <v>0</v>
-      </c>
       <c r="I303" t="n">
         <v>0</v>
       </c>
-      <c r="J303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>0</v>
+      </c>
       <c r="K303" t="inlineStr"/>
       <c r="L303" t="inlineStr"/>
-      <c r="M303" t="n">
+      <c r="M303" t="inlineStr"/>
+      <c r="N303" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11108,18 +12861,21 @@
         <v>20688.9466</v>
       </c>
       <c r="G304" t="n">
+        <v>55.09133333333335</v>
+      </c>
+      <c r="H304" t="n">
         <v>54.97999999999998</v>
       </c>
-      <c r="H304" t="n">
-        <v>0</v>
-      </c>
       <c r="I304" t="n">
         <v>0</v>
       </c>
-      <c r="J304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>0</v>
+      </c>
       <c r="K304" t="inlineStr"/>
       <c r="L304" t="inlineStr"/>
-      <c r="M304" t="n">
+      <c r="M304" t="inlineStr"/>
+      <c r="N304" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11143,18 +12899,21 @@
         <v>676.154</v>
       </c>
       <c r="G305" t="n">
+        <v>55.07466666666668</v>
+      </c>
+      <c r="H305" t="n">
         <v>54.97999999999998</v>
       </c>
-      <c r="H305" t="n">
-        <v>0</v>
-      </c>
       <c r="I305" t="n">
         <v>0</v>
       </c>
-      <c r="J305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>0</v>
+      </c>
       <c r="K305" t="inlineStr"/>
       <c r="L305" t="inlineStr"/>
-      <c r="M305" t="n">
+      <c r="M305" t="inlineStr"/>
+      <c r="N305" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11178,18 +12937,21 @@
         <v>9734.229799999999</v>
       </c>
       <c r="G306" t="n">
+        <v>55.05933333333335</v>
+      </c>
+      <c r="H306" t="n">
         <v>54.97999999999998</v>
       </c>
-      <c r="H306" t="n">
-        <v>0</v>
-      </c>
       <c r="I306" t="n">
         <v>0</v>
       </c>
-      <c r="J306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>0</v>
+      </c>
       <c r="K306" t="inlineStr"/>
       <c r="L306" t="inlineStr"/>
-      <c r="M306" t="n">
+      <c r="M306" t="inlineStr"/>
+      <c r="N306" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11213,18 +12975,21 @@
         <v>23.198</v>
       </c>
       <c r="G307" t="n">
+        <v>55.04400000000001</v>
+      </c>
+      <c r="H307" t="n">
         <v>54.97999999999998</v>
       </c>
-      <c r="H307" t="n">
-        <v>0</v>
-      </c>
       <c r="I307" t="n">
         <v>0</v>
       </c>
-      <c r="J307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>0</v>
+      </c>
       <c r="K307" t="inlineStr"/>
       <c r="L307" t="inlineStr"/>
-      <c r="M307" t="n">
+      <c r="M307" t="inlineStr"/>
+      <c r="N307" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11248,18 +13013,401 @@
         <v>259.0222</v>
       </c>
       <c r="G308" t="n">
+        <v>55.02933333333335</v>
+      </c>
+      <c r="H308" t="n">
         <v>54.98116666666665</v>
       </c>
-      <c r="H308" t="n">
-        <v>0</v>
-      </c>
       <c r="I308" t="n">
         <v>0</v>
       </c>
-      <c r="J308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>0</v>
+      </c>
       <c r="K308" t="inlineStr"/>
       <c r="L308" t="inlineStr"/>
-      <c r="M308" t="n">
+      <c r="M308" t="inlineStr"/>
+      <c r="N308" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="n">
+        <v>307</v>
+      </c>
+      <c r="B309" t="n">
+        <v>55</v>
+      </c>
+      <c r="C309" t="n">
+        <v>55</v>
+      </c>
+      <c r="D309" t="n">
+        <v>55</v>
+      </c>
+      <c r="E309" t="n">
+        <v>55</v>
+      </c>
+      <c r="F309" t="n">
+        <v>229.2456</v>
+      </c>
+      <c r="G309" t="n">
+        <v>55.01466666666668</v>
+      </c>
+      <c r="H309" t="n">
+        <v>54.98433333333331</v>
+      </c>
+      <c r="I309" t="n">
+        <v>0</v>
+      </c>
+      <c r="J309" t="n">
+        <v>0</v>
+      </c>
+      <c r="K309" t="inlineStr"/>
+      <c r="L309" t="inlineStr"/>
+      <c r="M309" t="inlineStr"/>
+      <c r="N309" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="n">
+        <v>308</v>
+      </c>
+      <c r="B310" t="n">
+        <v>55</v>
+      </c>
+      <c r="C310" t="n">
+        <v>55</v>
+      </c>
+      <c r="D310" t="n">
+        <v>55</v>
+      </c>
+      <c r="E310" t="n">
+        <v>55</v>
+      </c>
+      <c r="F310" t="n">
+        <v>194.0848</v>
+      </c>
+      <c r="G310" t="n">
+        <v>55.00000000000001</v>
+      </c>
+      <c r="H310" t="n">
+        <v>54.98899999999998</v>
+      </c>
+      <c r="I310" t="n">
+        <v>0</v>
+      </c>
+      <c r="J310" t="n">
+        <v>0</v>
+      </c>
+      <c r="K310" t="inlineStr"/>
+      <c r="L310" t="inlineStr"/>
+      <c r="M310" t="inlineStr"/>
+      <c r="N310" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="n">
+        <v>309</v>
+      </c>
+      <c r="B311" t="n">
+        <v>55</v>
+      </c>
+      <c r="C311" t="n">
+        <v>55</v>
+      </c>
+      <c r="D311" t="n">
+        <v>55</v>
+      </c>
+      <c r="E311" t="n">
+        <v>55</v>
+      </c>
+      <c r="F311" t="n">
+        <v>2493.7481</v>
+      </c>
+      <c r="G311" t="n">
+        <v>54.99666666666668</v>
+      </c>
+      <c r="H311" t="n">
+        <v>54.99199999999998</v>
+      </c>
+      <c r="I311" t="n">
+        <v>0</v>
+      </c>
+      <c r="J311" t="n">
+        <v>0</v>
+      </c>
+      <c r="K311" t="inlineStr"/>
+      <c r="L311" t="inlineStr"/>
+      <c r="M311" t="inlineStr"/>
+      <c r="N311" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="n">
+        <v>310</v>
+      </c>
+      <c r="B312" t="n">
+        <v>55</v>
+      </c>
+      <c r="C312" t="n">
+        <v>55</v>
+      </c>
+      <c r="D312" t="n">
+        <v>55</v>
+      </c>
+      <c r="E312" t="n">
+        <v>55</v>
+      </c>
+      <c r="F312" t="n">
+        <v>1262.9558</v>
+      </c>
+      <c r="G312" t="n">
+        <v>54.98200000000001</v>
+      </c>
+      <c r="H312" t="n">
+        <v>54.99666666666665</v>
+      </c>
+      <c r="I312" t="n">
+        <v>0</v>
+      </c>
+      <c r="J312" t="n">
+        <v>0</v>
+      </c>
+      <c r="K312" t="inlineStr"/>
+      <c r="L312" t="inlineStr"/>
+      <c r="M312" t="inlineStr"/>
+      <c r="N312" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="n">
+        <v>311</v>
+      </c>
+      <c r="B313" t="n">
+        <v>55</v>
+      </c>
+      <c r="C313" t="n">
+        <v>55</v>
+      </c>
+      <c r="D313" t="n">
+        <v>55</v>
+      </c>
+      <c r="E313" t="n">
+        <v>55</v>
+      </c>
+      <c r="F313" t="n">
+        <v>608.0318</v>
+      </c>
+      <c r="G313" t="n">
+        <v>54.98533333333334</v>
+      </c>
+      <c r="H313" t="n">
+        <v>54.99966666666664</v>
+      </c>
+      <c r="I313" t="n">
+        <v>0</v>
+      </c>
+      <c r="J313" t="n">
+        <v>0</v>
+      </c>
+      <c r="K313" t="inlineStr"/>
+      <c r="L313" t="inlineStr"/>
+      <c r="M313" t="inlineStr"/>
+      <c r="N313" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="n">
+        <v>312</v>
+      </c>
+      <c r="B314" t="n">
+        <v>55</v>
+      </c>
+      <c r="C314" t="n">
+        <v>55</v>
+      </c>
+      <c r="D314" t="n">
+        <v>55</v>
+      </c>
+      <c r="E314" t="n">
+        <v>55</v>
+      </c>
+      <c r="F314" t="n">
+        <v>5635</v>
+      </c>
+      <c r="G314" t="n">
+        <v>54.98866666666667</v>
+      </c>
+      <c r="H314" t="n">
+        <v>55.00183333333332</v>
+      </c>
+      <c r="I314" t="n">
+        <v>0</v>
+      </c>
+      <c r="J314" t="n">
+        <v>0</v>
+      </c>
+      <c r="K314" t="inlineStr"/>
+      <c r="L314" t="inlineStr"/>
+      <c r="M314" t="inlineStr"/>
+      <c r="N314" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="n">
+        <v>313</v>
+      </c>
+      <c r="B315" t="n">
+        <v>55</v>
+      </c>
+      <c r="C315" t="n">
+        <v>55.05</v>
+      </c>
+      <c r="D315" t="n">
+        <v>55.05</v>
+      </c>
+      <c r="E315" t="n">
+        <v>55</v>
+      </c>
+      <c r="F315" t="n">
+        <v>8160.435</v>
+      </c>
+      <c r="G315" t="n">
+        <v>55.00533333333333</v>
+      </c>
+      <c r="H315" t="n">
+        <v>55.00483333333332</v>
+      </c>
+      <c r="I315" t="n">
+        <v>0</v>
+      </c>
+      <c r="J315" t="n">
+        <v>0</v>
+      </c>
+      <c r="K315" t="inlineStr"/>
+      <c r="L315" t="inlineStr"/>
+      <c r="M315" t="inlineStr"/>
+      <c r="N315" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="n">
+        <v>314</v>
+      </c>
+      <c r="B316" t="n">
+        <v>55.05</v>
+      </c>
+      <c r="C316" t="n">
+        <v>55.05</v>
+      </c>
+      <c r="D316" t="n">
+        <v>55.05</v>
+      </c>
+      <c r="E316" t="n">
+        <v>55.05</v>
+      </c>
+      <c r="F316" t="n">
+        <v>1839.8293</v>
+      </c>
+      <c r="G316" t="n">
+        <v>55.01</v>
+      </c>
+      <c r="H316" t="n">
+        <v>55.00783333333332</v>
+      </c>
+      <c r="I316" t="n">
+        <v>0</v>
+      </c>
+      <c r="J316" t="n">
+        <v>0</v>
+      </c>
+      <c r="K316" t="inlineStr"/>
+      <c r="L316" t="inlineStr"/>
+      <c r="M316" t="inlineStr"/>
+      <c r="N316" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="n">
+        <v>315</v>
+      </c>
+      <c r="B317" t="n">
+        <v>55.07</v>
+      </c>
+      <c r="C317" t="n">
+        <v>55.07</v>
+      </c>
+      <c r="D317" t="n">
+        <v>55.07</v>
+      </c>
+      <c r="E317" t="n">
+        <v>55.07</v>
+      </c>
+      <c r="F317" t="n">
+        <v>135.7608</v>
+      </c>
+      <c r="G317" t="n">
+        <v>55.016</v>
+      </c>
+      <c r="H317" t="n">
+        <v>55.01116666666666</v>
+      </c>
+      <c r="I317" t="n">
+        <v>0</v>
+      </c>
+      <c r="J317" t="n">
+        <v>0</v>
+      </c>
+      <c r="K317" t="inlineStr"/>
+      <c r="L317" t="inlineStr"/>
+      <c r="M317" t="inlineStr"/>
+      <c r="N317" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="n">
+        <v>316</v>
+      </c>
+      <c r="B318" t="n">
+        <v>55.07</v>
+      </c>
+      <c r="C318" t="n">
+        <v>55.07</v>
+      </c>
+      <c r="D318" t="n">
+        <v>55.07</v>
+      </c>
+      <c r="E318" t="n">
+        <v>55.07</v>
+      </c>
+      <c r="F318" t="n">
+        <v>625.1875</v>
+      </c>
+      <c r="G318" t="n">
+        <v>55.016</v>
+      </c>
+      <c r="H318" t="n">
+        <v>55.0145</v>
+      </c>
+      <c r="I318" t="n">
+        <v>0</v>
+      </c>
+      <c r="J318" t="n">
+        <v>0</v>
+      </c>
+      <c r="K318" t="inlineStr"/>
+      <c r="L318" t="inlineStr"/>
+      <c r="M318" t="inlineStr"/>
+      <c r="N318" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-13 BackTest XLM.xlsx
+++ b/BackTest/2020-01-13 BackTest XLM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N376"/>
+  <dimension ref="A1:M376"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>342944.7567245801</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,18 +484,15 @@
         <v>572785.7022245801</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,18 +550,15 @@
         <v>572785.7022245801</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1032,18 +979,15 @@
         <v>617929.0128245801</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1968,18 +1837,15 @@
         <v>999453.4930245803</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2292,18 +2134,15 @@
         <v>974585.1699245803</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2328,18 +2167,15 @@
         <v>974585.1699245803</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2400,18 +2233,15 @@
         <v>974585.1699245803</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2436,18 +2266,15 @@
         <v>974585.1699245803</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2472,18 +2299,15 @@
         <v>974585.1699245803</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2334,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2400,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>1</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2616,18 +2431,15 @@
         <v>978351.4380245802</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2466,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>1</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2688,18 +2497,15 @@
         <v>1010641.70422458</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2724,18 +2530,15 @@
         <v>1010641.70422458</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2760,18 +2563,15 @@
         <v>1004692.32792458</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2598,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>1</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,16 +2631,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>1</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2870,16 +2664,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>1</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2906,16 +2697,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>1</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +2730,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>1</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +2763,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>1</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2796,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>1</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3050,16 +2829,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>1</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3086,16 +2862,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>1</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,16 +2895,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>1</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3158,16 +2928,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>1</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3194,16 +2961,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>1</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3230,16 +2994,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>1</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3266,16 +3027,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>1</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3300,18 +3058,15 @@
         <v>929616.7793245802</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3338,16 +3093,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>1</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3372,18 +3124,15 @@
         <v>929616.7793245802</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3410,16 +3159,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>1</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3444,18 +3190,15 @@
         <v>929616.7793245802</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3482,16 +3225,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>1</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3516,18 +3256,15 @@
         <v>944554.6793245802</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3552,18 +3289,15 @@
         <v>943554.6793245802</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3588,18 +3322,15 @@
         <v>907067.2260245802</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3624,18 +3355,15 @@
         <v>907067.2260245802</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3662,16 +3390,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3698,16 +3423,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3732,18 +3454,15 @@
         <v>903034.2756245802</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3768,18 +3487,15 @@
         <v>901658.2756245802</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3806,16 +3522,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3842,16 +3555,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3878,16 +3588,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3914,16 +3621,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3950,16 +3654,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3986,16 +3687,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4022,16 +3720,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4058,16 +3753,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4094,16 +3786,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4130,16 +3819,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4166,16 +3852,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4202,16 +3885,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4238,16 +3918,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4274,16 +3951,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4310,16 +3984,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4346,16 +4017,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4382,16 +4050,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4418,16 +4083,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4454,16 +4116,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4490,16 +4149,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4526,16 +4182,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4562,16 +4215,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4598,16 +4248,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>1</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4634,16 +4281,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4670,16 +4314,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4704,18 +4345,15 @@
         <v>862186.9405245803</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4740,18 +4378,15 @@
         <v>825823.3041245803</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4778,16 +4413,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4814,16 +4446,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4850,16 +4479,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4886,16 +4512,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>1</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4922,16 +4545,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4958,16 +4578,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4994,16 +4611,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5030,16 +4644,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5066,16 +4677,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5102,16 +4710,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5138,16 +4743,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5174,16 +4776,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5210,16 +4809,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5246,16 +4842,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5282,16 +4875,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5318,16 +4908,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5352,18 +4939,15 @@
         <v>772605.5880245804</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5390,16 +4974,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5426,16 +5007,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5462,16 +5040,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5498,16 +5073,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5534,16 +5106,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5570,16 +5139,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5606,16 +5172,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5642,16 +5205,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5678,16 +5238,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5714,16 +5271,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5750,16 +5304,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5786,16 +5337,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5822,16 +5370,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5856,18 +5401,15 @@
         <v>392249.0996245804</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5894,16 +5436,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5930,16 +5469,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5966,16 +5502,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6002,16 +5535,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6038,16 +5568,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6074,16 +5601,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6110,16 +5634,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6146,16 +5667,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6182,16 +5700,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6218,16 +5733,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6254,16 +5766,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6290,16 +5799,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6326,16 +5832,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6362,16 +5865,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6398,16 +5898,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6434,16 +5931,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6470,16 +5964,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6506,16 +5997,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6542,16 +6030,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6578,16 +6063,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6614,16 +6096,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6650,16 +6129,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6686,16 +6162,13 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6722,16 +6195,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6758,16 +6228,13 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6794,16 +6261,13 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6830,16 +6294,13 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6866,16 +6327,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6900,18 +6358,19 @@
         <v>251942.8809758304</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
+        <v>54.62</v>
+      </c>
+      <c r="J181" t="n">
+        <v>54.62</v>
+      </c>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6936,18 +6395,23 @@
         <v>252768.7809758304</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+        <v>54.85</v>
+      </c>
+      <c r="J182" t="n">
+        <v>54.62</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6972,18 +6436,23 @@
         <v>252750.5460758304</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+        <v>54.9</v>
+      </c>
+      <c r="J183" t="n">
+        <v>54.62</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7010,16 +6479,13 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7044,18 +6510,19 @@
         <v>253497.9849758304</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
+        <v>54.95</v>
+      </c>
+      <c r="J185" t="n">
+        <v>54.95</v>
+      </c>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7082,16 +6549,19 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>54.95</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7118,16 +6588,19 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>54.95</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7154,16 +6627,19 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>54.95</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7190,16 +6666,19 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>54.95</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7226,16 +6705,19 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>54.95</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7262,16 +6744,19 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>54.95</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7298,16 +6783,19 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>54.95</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7334,16 +6822,19 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>54.95</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7368,18 +6859,23 @@
         <v>207271.7722758304</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="n">
-        <v>0</v>
-      </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+        <v>54.9</v>
+      </c>
+      <c r="J194" t="n">
+        <v>54.95</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7404,18 +6900,23 @@
         <v>188969.6383758304</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+        <v>54.9</v>
+      </c>
+      <c r="J195" t="n">
+        <v>54.95</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7440,18 +6941,23 @@
         <v>183571.9752758304</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="n">
-        <v>0</v>
-      </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+        <v>54.73</v>
+      </c>
+      <c r="J196" t="n">
+        <v>54.95</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7476,22 +6982,23 @@
         <v>183571.9752758304</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I197" t="n">
-        <v>0</v>
+        <v>54.61</v>
       </c>
       <c r="J197" t="n">
-        <v>54.61</v>
-      </c>
-      <c r="K197" t="n">
-        <v>54.61</v>
-      </c>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+        <v>54.95</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7516,26 +7023,23 @@
         <v>187982.7882758304</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I198" t="n">
-        <v>0</v>
+        <v>54.61</v>
       </c>
       <c r="J198" t="n">
-        <v>54.61</v>
-      </c>
-      <c r="K198" t="n">
-        <v>54.61</v>
-      </c>
-      <c r="L198" t="inlineStr">
+        <v>54.95</v>
+      </c>
+      <c r="K198" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7560,24 +7064,23 @@
         <v>187240.7882758304</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="n">
-        <v>0</v>
-      </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="n">
-        <v>54.61</v>
-      </c>
-      <c r="L199" t="inlineStr">
+        <v>54.71</v>
+      </c>
+      <c r="J199" t="n">
+        <v>54.95</v>
+      </c>
+      <c r="K199" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7604,16 +7107,19 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>54.95</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7640,16 +7146,19 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>54.95</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7676,16 +7185,19 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>54.95</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7712,16 +7224,19 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>54.95</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7748,16 +7263,19 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="I204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>54.95</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7784,16 +7302,19 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="I205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>54.95</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7820,16 +7341,19 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>54.95</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7856,16 +7380,19 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="I207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>54.95</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7892,16 +7419,19 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>54.95</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7928,16 +7458,19 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>54.95</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7964,16 +7497,19 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>54.95</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8000,16 +7536,19 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>54.95</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8036,16 +7575,19 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>54.95</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8072,16 +7614,19 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="I213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>54.95</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8108,16 +7653,19 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>54.95</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8144,16 +7692,19 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>54.95</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8180,16 +7731,19 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>54.95</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8216,16 +7770,19 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="I217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>54.95</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8252,16 +7809,19 @@
       <c r="H218" t="n">
         <v>0</v>
       </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="I218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>54.95</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8288,16 +7848,19 @@
       <c r="H219" t="n">
         <v>0</v>
       </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>54.95</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8324,16 +7887,19 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>54.95</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8360,16 +7926,19 @@
       <c r="H221" t="n">
         <v>0</v>
       </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>54.95</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8394,18 +7963,21 @@
         <v>232755.9873758304</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>54.95</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L222" t="n">
+        <v>0.9962738853503185</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8430,18 +8002,15 @@
         <v>231750.5416758303</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8466,18 +8035,15 @@
         <v>231650.5416758303</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8504,16 +8070,13 @@
       <c r="H225" t="n">
         <v>0</v>
       </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8540,16 +8103,13 @@
       <c r="H226" t="n">
         <v>0</v>
       </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8576,16 +8136,13 @@
       <c r="H227" t="n">
         <v>0</v>
       </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8612,16 +8169,13 @@
       <c r="H228" t="n">
         <v>0</v>
       </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8648,16 +8202,13 @@
       <c r="H229" t="n">
         <v>0</v>
       </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8684,16 +8235,13 @@
       <c r="H230" t="n">
         <v>0</v>
       </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8720,16 +8268,13 @@
       <c r="H231" t="n">
         <v>0</v>
       </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8756,16 +8301,13 @@
       <c r="H232" t="n">
         <v>0</v>
       </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8790,24 +8332,15 @@
         <v>230542.1628758303</v>
       </c>
       <c r="H233" t="n">
-        <v>1</v>
-      </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
-      <c r="J233" t="n">
-        <v>54.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
+      <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8832,24 +8365,15 @@
         <v>233030.1628758303</v>
       </c>
       <c r="H234" t="n">
-        <v>1</v>
-      </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
-      <c r="J234" t="n">
-        <v>54.83</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
+      <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8876,20 +8400,13 @@
       <c r="H235" t="n">
         <v>0</v>
       </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8916,20 +8433,13 @@
       <c r="H236" t="n">
         <v>0</v>
       </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8956,20 +8466,13 @@
       <c r="H237" t="n">
         <v>0</v>
       </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8996,20 +8499,13 @@
       <c r="H238" t="n">
         <v>0</v>
       </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -9036,20 +8532,13 @@
       <c r="H239" t="n">
         <v>0</v>
       </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9076,20 +8565,13 @@
       <c r="H240" t="n">
         <v>0</v>
       </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9116,20 +8598,13 @@
       <c r="H241" t="n">
         <v>0</v>
       </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9156,20 +8631,13 @@
       <c r="H242" t="n">
         <v>0</v>
       </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9196,20 +8664,13 @@
       <c r="H243" t="n">
         <v>0</v>
       </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9236,20 +8697,13 @@
       <c r="H244" t="n">
         <v>0</v>
       </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9276,20 +8730,13 @@
       <c r="H245" t="n">
         <v>0</v>
       </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9316,20 +8763,13 @@
       <c r="H246" t="n">
         <v>0</v>
       </c>
-      <c r="I246" t="n">
-        <v>0</v>
-      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9356,20 +8796,13 @@
       <c r="H247" t="n">
         <v>0</v>
       </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9396,20 +8829,13 @@
       <c r="H248" t="n">
         <v>0</v>
       </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9436,20 +8862,13 @@
       <c r="H249" t="n">
         <v>0</v>
       </c>
-      <c r="I249" t="n">
-        <v>0</v>
-      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9476,20 +8895,13 @@
       <c r="H250" t="n">
         <v>0</v>
       </c>
-      <c r="I250" t="n">
-        <v>0</v>
-      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -9516,20 +8928,13 @@
       <c r="H251" t="n">
         <v>0</v>
       </c>
-      <c r="I251" t="n">
-        <v>0</v>
-      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -9556,20 +8961,13 @@
       <c r="H252" t="n">
         <v>0</v>
       </c>
-      <c r="I252" t="n">
-        <v>0</v>
-      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -9594,24 +8992,15 @@
         <v>254521.5467758303</v>
       </c>
       <c r="H253" t="n">
-        <v>1</v>
-      </c>
-      <c r="I253" t="n">
-        <v>0</v>
-      </c>
-      <c r="J253" t="n">
-        <v>54.93</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I253" t="inlineStr"/>
+      <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -9638,20 +9027,13 @@
       <c r="H254" t="n">
         <v>0</v>
       </c>
-      <c r="I254" t="n">
-        <v>0</v>
-      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-      <c r="N254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -9676,24 +9058,15 @@
         <v>245134.9219758303</v>
       </c>
       <c r="H255" t="n">
-        <v>1</v>
-      </c>
-      <c r="I255" t="n">
-        <v>0</v>
-      </c>
-      <c r="J255" t="n">
-        <v>54.76</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I255" t="inlineStr"/>
+      <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
-      <c r="N255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -9718,24 +9091,15 @@
         <v>245134.9219758303</v>
       </c>
       <c r="H256" t="n">
-        <v>1</v>
-      </c>
-      <c r="I256" t="n">
-        <v>0</v>
-      </c>
-      <c r="J256" t="n">
-        <v>54.89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I256" t="inlineStr"/>
+      <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M256" t="n">
-        <v>1</v>
-      </c>
-      <c r="N256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -9760,24 +9124,15 @@
         <v>246134.9219758303</v>
       </c>
       <c r="H257" t="n">
-        <v>1</v>
-      </c>
-      <c r="I257" t="n">
-        <v>0</v>
-      </c>
-      <c r="J257" t="n">
-        <v>54.89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I257" t="inlineStr"/>
+      <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M257" t="n">
-        <v>1</v>
-      </c>
-      <c r="N257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -9804,20 +9159,13 @@
       <c r="H258" t="n">
         <v>0</v>
       </c>
-      <c r="I258" t="n">
-        <v>0</v>
-      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M258" t="n">
-        <v>1</v>
-      </c>
-      <c r="N258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -9844,20 +9192,13 @@
       <c r="H259" t="n">
         <v>0</v>
       </c>
-      <c r="I259" t="n">
-        <v>0</v>
-      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M259" t="n">
-        <v>1</v>
-      </c>
-      <c r="N259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -9884,20 +9225,13 @@
       <c r="H260" t="n">
         <v>0</v>
       </c>
-      <c r="I260" t="n">
-        <v>0</v>
-      </c>
+      <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M260" t="n">
-        <v>1</v>
-      </c>
-      <c r="N260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -9924,20 +9258,13 @@
       <c r="H261" t="n">
         <v>0</v>
       </c>
-      <c r="I261" t="n">
-        <v>0</v>
-      </c>
+      <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M261" t="n">
-        <v>1</v>
-      </c>
-      <c r="N261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -9964,20 +9291,13 @@
       <c r="H262" t="n">
         <v>0</v>
       </c>
-      <c r="I262" t="n">
-        <v>0</v>
-      </c>
+      <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M262" t="n">
-        <v>1</v>
-      </c>
-      <c r="N262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -10004,20 +9324,13 @@
       <c r="H263" t="n">
         <v>0</v>
       </c>
-      <c r="I263" t="n">
-        <v>0</v>
-      </c>
+      <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M263" t="n">
-        <v>1</v>
-      </c>
-      <c r="N263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -10044,20 +9357,13 @@
       <c r="H264" t="n">
         <v>0</v>
       </c>
-      <c r="I264" t="n">
-        <v>0</v>
-      </c>
+      <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M264" t="n">
-        <v>1</v>
-      </c>
-      <c r="N264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -10082,24 +9388,15 @@
         <v>250324.1209758303</v>
       </c>
       <c r="H265" t="n">
-        <v>1</v>
-      </c>
-      <c r="I265" t="n">
-        <v>0</v>
-      </c>
-      <c r="J265" t="n">
-        <v>54.78</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I265" t="inlineStr"/>
+      <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M265" t="n">
-        <v>1</v>
-      </c>
-      <c r="N265" t="inlineStr"/>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -10124,24 +9421,15 @@
         <v>249691.1209758303</v>
       </c>
       <c r="H266" t="n">
-        <v>1</v>
-      </c>
-      <c r="I266" t="n">
-        <v>0</v>
-      </c>
-      <c r="J266" t="n">
-        <v>54.91</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I266" t="inlineStr"/>
+      <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M266" t="n">
-        <v>1</v>
-      </c>
-      <c r="N266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -10166,24 +9454,15 @@
         <v>250621.1209758303</v>
       </c>
       <c r="H267" t="n">
-        <v>1</v>
-      </c>
-      <c r="I267" t="n">
-        <v>0</v>
-      </c>
-      <c r="J267" t="n">
-        <v>54.79</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I267" t="inlineStr"/>
+      <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M267" t="n">
-        <v>1</v>
-      </c>
-      <c r="N267" t="inlineStr"/>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -10210,22 +9489,13 @@
       <c r="H268" t="n">
         <v>1</v>
       </c>
-      <c r="I268" t="n">
-        <v>0</v>
-      </c>
-      <c r="J268" t="n">
-        <v>54.8</v>
-      </c>
+      <c r="I268" t="inlineStr"/>
+      <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M268" t="n">
-        <v>1</v>
-      </c>
-      <c r="N268" t="inlineStr"/>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -10252,22 +9522,13 @@
       <c r="H269" t="n">
         <v>1</v>
       </c>
-      <c r="I269" t="n">
-        <v>0</v>
-      </c>
-      <c r="J269" t="n">
-        <v>54.9</v>
-      </c>
+      <c r="I269" t="inlineStr"/>
+      <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M269" t="n">
-        <v>1</v>
-      </c>
-      <c r="N269" t="inlineStr"/>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -10294,22 +9555,13 @@
       <c r="H270" t="n">
         <v>1</v>
       </c>
-      <c r="I270" t="n">
-        <v>0</v>
-      </c>
-      <c r="J270" t="n">
-        <v>54.9</v>
-      </c>
+      <c r="I270" t="inlineStr"/>
+      <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M270" t="n">
-        <v>1</v>
-      </c>
-      <c r="N270" t="inlineStr"/>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -10336,22 +9588,13 @@
       <c r="H271" t="n">
         <v>1</v>
       </c>
-      <c r="I271" t="n">
-        <v>0</v>
-      </c>
-      <c r="J271" t="n">
-        <v>54.8</v>
-      </c>
+      <c r="I271" t="inlineStr"/>
+      <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M271" t="n">
-        <v>1</v>
-      </c>
-      <c r="N271" t="inlineStr"/>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -10376,22 +9619,15 @@
         <v>259053.7023758303</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M272" t="n">
-        <v>1</v>
-      </c>
-      <c r="N272" t="inlineStr"/>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -10416,22 +9652,15 @@
         <v>259391.7023758303</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M273" t="n">
-        <v>1</v>
-      </c>
-      <c r="N273" t="inlineStr"/>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -10458,20 +9687,13 @@
       <c r="H274" t="n">
         <v>0</v>
       </c>
-      <c r="I274" t="n">
-        <v>0</v>
-      </c>
+      <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M274" t="n">
-        <v>1</v>
-      </c>
-      <c r="N274" t="inlineStr"/>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -10498,20 +9720,13 @@
       <c r="H275" t="n">
         <v>0</v>
       </c>
-      <c r="I275" t="n">
-        <v>0</v>
-      </c>
+      <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M275" t="n">
-        <v>1</v>
-      </c>
-      <c r="N275" t="inlineStr"/>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -10538,20 +9753,13 @@
       <c r="H276" t="n">
         <v>0</v>
       </c>
-      <c r="I276" t="n">
-        <v>0</v>
-      </c>
+      <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M276" t="n">
-        <v>1</v>
-      </c>
-      <c r="N276" t="inlineStr"/>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -10578,20 +9786,13 @@
       <c r="H277" t="n">
         <v>0</v>
       </c>
-      <c r="I277" t="n">
-        <v>0</v>
-      </c>
+      <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M277" t="n">
-        <v>1</v>
-      </c>
-      <c r="N277" t="inlineStr"/>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -10618,20 +9819,13 @@
       <c r="H278" t="n">
         <v>0</v>
       </c>
-      <c r="I278" t="n">
-        <v>0</v>
-      </c>
+      <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M278" t="n">
-        <v>1</v>
-      </c>
-      <c r="N278" t="inlineStr"/>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -10658,20 +9852,13 @@
       <c r="H279" t="n">
         <v>0</v>
       </c>
-      <c r="I279" t="n">
-        <v>0</v>
-      </c>
+      <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M279" t="n">
-        <v>1</v>
-      </c>
-      <c r="N279" t="inlineStr"/>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -10698,20 +9885,13 @@
       <c r="H280" t="n">
         <v>0</v>
       </c>
-      <c r="I280" t="n">
-        <v>0</v>
-      </c>
+      <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M280" t="n">
-        <v>1</v>
-      </c>
-      <c r="N280" t="inlineStr"/>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -10738,20 +9918,13 @@
       <c r="H281" t="n">
         <v>0</v>
       </c>
-      <c r="I281" t="n">
-        <v>0</v>
-      </c>
+      <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M281" t="n">
-        <v>1</v>
-      </c>
-      <c r="N281" t="inlineStr"/>
+      <c r="L281" t="n">
+        <v>1</v>
+      </c>
+      <c r="M281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -10778,20 +9951,13 @@
       <c r="H282" t="n">
         <v>0</v>
       </c>
-      <c r="I282" t="n">
-        <v>0</v>
-      </c>
+      <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M282" t="n">
-        <v>1</v>
-      </c>
-      <c r="N282" t="inlineStr"/>
+      <c r="L282" t="n">
+        <v>1</v>
+      </c>
+      <c r="M282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -10818,20 +9984,13 @@
       <c r="H283" t="n">
         <v>0</v>
       </c>
-      <c r="I283" t="n">
-        <v>0</v>
-      </c>
+      <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M283" t="n">
-        <v>1</v>
-      </c>
-      <c r="N283" t="inlineStr"/>
+      <c r="L283" t="n">
+        <v>1</v>
+      </c>
+      <c r="M283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -10856,22 +10015,15 @@
         <v>274359.0973758303</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
-      </c>
-      <c r="I284" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M284" t="n">
-        <v>1</v>
-      </c>
-      <c r="N284" t="inlineStr"/>
+      <c r="L284" t="n">
+        <v>1</v>
+      </c>
+      <c r="M284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -10896,22 +10048,15 @@
         <v>274359.0973758303</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
-      </c>
-      <c r="I285" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M285" t="n">
-        <v>1</v>
-      </c>
-      <c r="N285" t="inlineStr"/>
+      <c r="L285" t="n">
+        <v>1</v>
+      </c>
+      <c r="M285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -10936,22 +10081,15 @@
         <v>274359.0973758303</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
-      </c>
-      <c r="I286" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M286" t="n">
-        <v>1</v>
-      </c>
-      <c r="N286" t="inlineStr"/>
+      <c r="L286" t="n">
+        <v>1</v>
+      </c>
+      <c r="M286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -10976,22 +10114,15 @@
         <v>274359.0973758303</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
-      </c>
-      <c r="I287" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M287" t="n">
-        <v>1</v>
-      </c>
-      <c r="N287" t="inlineStr"/>
+      <c r="L287" t="n">
+        <v>1</v>
+      </c>
+      <c r="M287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -11016,22 +10147,15 @@
         <v>274369.1303758303</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
-      </c>
-      <c r="I288" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M288" t="n">
-        <v>1</v>
-      </c>
-      <c r="N288" t="inlineStr"/>
+      <c r="L288" t="n">
+        <v>1</v>
+      </c>
+      <c r="M288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -11056,22 +10180,15 @@
         <v>274366.4494758304</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
-      </c>
-      <c r="I289" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M289" t="n">
-        <v>1</v>
-      </c>
-      <c r="N289" t="inlineStr"/>
+      <c r="L289" t="n">
+        <v>1</v>
+      </c>
+      <c r="M289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -11098,20 +10215,13 @@
       <c r="H290" t="n">
         <v>0</v>
       </c>
-      <c r="I290" t="n">
-        <v>0</v>
-      </c>
+      <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M290" t="n">
-        <v>1</v>
-      </c>
-      <c r="N290" t="inlineStr"/>
+      <c r="L290" t="n">
+        <v>1</v>
+      </c>
+      <c r="M290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -11138,20 +10248,13 @@
       <c r="H291" t="n">
         <v>0</v>
       </c>
-      <c r="I291" t="n">
-        <v>0</v>
-      </c>
+      <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M291" t="n">
-        <v>1</v>
-      </c>
-      <c r="N291" t="inlineStr"/>
+      <c r="L291" t="n">
+        <v>1</v>
+      </c>
+      <c r="M291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -11178,20 +10281,13 @@
       <c r="H292" t="n">
         <v>0</v>
       </c>
-      <c r="I292" t="n">
-        <v>0</v>
-      </c>
+      <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M292" t="n">
-        <v>1</v>
-      </c>
-      <c r="N292" t="inlineStr"/>
+      <c r="L292" t="n">
+        <v>1</v>
+      </c>
+      <c r="M292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -11218,20 +10314,13 @@
       <c r="H293" t="n">
         <v>0</v>
       </c>
-      <c r="I293" t="n">
-        <v>0</v>
-      </c>
+      <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M293" t="n">
-        <v>1</v>
-      </c>
-      <c r="N293" t="inlineStr"/>
+      <c r="L293" t="n">
+        <v>1</v>
+      </c>
+      <c r="M293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -11258,20 +10347,13 @@
       <c r="H294" t="n">
         <v>0</v>
       </c>
-      <c r="I294" t="n">
-        <v>0</v>
-      </c>
+      <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M294" t="n">
-        <v>1</v>
-      </c>
-      <c r="N294" t="inlineStr"/>
+      <c r="L294" t="n">
+        <v>1</v>
+      </c>
+      <c r="M294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -11298,20 +10380,13 @@
       <c r="H295" t="n">
         <v>0</v>
       </c>
-      <c r="I295" t="n">
-        <v>0</v>
-      </c>
+      <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M295" t="n">
-        <v>1</v>
-      </c>
-      <c r="N295" t="inlineStr"/>
+      <c r="L295" t="n">
+        <v>1</v>
+      </c>
+      <c r="M295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -11338,20 +10413,13 @@
       <c r="H296" t="n">
         <v>0</v>
       </c>
-      <c r="I296" t="n">
-        <v>0</v>
-      </c>
+      <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M296" t="n">
-        <v>1</v>
-      </c>
-      <c r="N296" t="inlineStr"/>
+      <c r="L296" t="n">
+        <v>1</v>
+      </c>
+      <c r="M296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -11376,22 +10444,15 @@
         <v>263912.8928758304</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
-      </c>
-      <c r="I297" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M297" t="n">
-        <v>1</v>
-      </c>
-      <c r="N297" t="inlineStr"/>
+      <c r="L297" t="n">
+        <v>1</v>
+      </c>
+      <c r="M297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -11416,22 +10477,15 @@
         <v>263912.8928758304</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
-      </c>
-      <c r="I298" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr"/>
-      <c r="L298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M298" t="n">
-        <v>1</v>
-      </c>
-      <c r="N298" t="inlineStr"/>
+      <c r="L298" t="n">
+        <v>1</v>
+      </c>
+      <c r="M298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -11456,22 +10510,15 @@
         <v>256200.1252758304</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
-      </c>
-      <c r="I299" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M299" t="n">
-        <v>1</v>
-      </c>
-      <c r="N299" t="inlineStr"/>
+      <c r="L299" t="n">
+        <v>1</v>
+      </c>
+      <c r="M299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -11496,22 +10543,15 @@
         <v>255098.9265758304</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
-      </c>
-      <c r="I300" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr"/>
-      <c r="L300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M300" t="n">
-        <v>1</v>
-      </c>
-      <c r="N300" t="inlineStr"/>
+      <c r="L300" t="n">
+        <v>1</v>
+      </c>
+      <c r="M300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -11538,20 +10578,13 @@
       <c r="H301" t="n">
         <v>0</v>
       </c>
-      <c r="I301" t="n">
-        <v>0</v>
-      </c>
+      <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr"/>
-      <c r="L301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M301" t="n">
-        <v>1</v>
-      </c>
-      <c r="N301" t="inlineStr"/>
+      <c r="L301" t="n">
+        <v>1</v>
+      </c>
+      <c r="M301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -11578,20 +10611,13 @@
       <c r="H302" t="n">
         <v>0</v>
       </c>
-      <c r="I302" t="n">
-        <v>0</v>
-      </c>
+      <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr"/>
-      <c r="L302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M302" t="n">
-        <v>1</v>
-      </c>
-      <c r="N302" t="inlineStr"/>
+      <c r="L302" t="n">
+        <v>1</v>
+      </c>
+      <c r="M302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -11618,20 +10644,13 @@
       <c r="H303" t="n">
         <v>0</v>
       </c>
-      <c r="I303" t="n">
-        <v>0</v>
-      </c>
+      <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr"/>
-      <c r="L303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M303" t="n">
-        <v>1</v>
-      </c>
-      <c r="N303" t="inlineStr"/>
+      <c r="L303" t="n">
+        <v>1</v>
+      </c>
+      <c r="M303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -11658,20 +10677,13 @@
       <c r="H304" t="n">
         <v>0</v>
       </c>
-      <c r="I304" t="n">
-        <v>0</v>
-      </c>
+      <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr"/>
-      <c r="L304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M304" t="n">
-        <v>1</v>
-      </c>
-      <c r="N304" t="inlineStr"/>
+      <c r="L304" t="n">
+        <v>1</v>
+      </c>
+      <c r="M304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -11698,20 +10710,13 @@
       <c r="H305" t="n">
         <v>0</v>
       </c>
-      <c r="I305" t="n">
-        <v>0</v>
-      </c>
+      <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr"/>
-      <c r="L305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M305" t="n">
-        <v>1</v>
-      </c>
-      <c r="N305" t="inlineStr"/>
+      <c r="L305" t="n">
+        <v>1</v>
+      </c>
+      <c r="M305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -11736,24 +10741,15 @@
         <v>218538.7614758304</v>
       </c>
       <c r="H306" t="n">
-        <v>1</v>
-      </c>
-      <c r="I306" t="n">
-        <v>0</v>
-      </c>
-      <c r="J306" t="n">
-        <v>55</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I306" t="inlineStr"/>
+      <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr"/>
-      <c r="L306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M306" t="n">
-        <v>1</v>
-      </c>
-      <c r="N306" t="inlineStr"/>
+      <c r="L306" t="n">
+        <v>1</v>
+      </c>
+      <c r="M306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -11778,24 +10774,15 @@
         <v>213921.3400758304</v>
       </c>
       <c r="H307" t="n">
-        <v>1</v>
-      </c>
-      <c r="I307" t="n">
-        <v>0</v>
-      </c>
-      <c r="J307" t="n">
-        <v>54.93</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I307" t="inlineStr"/>
+      <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr"/>
-      <c r="L307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M307" t="n">
-        <v>1</v>
-      </c>
-      <c r="N307" t="inlineStr"/>
+      <c r="L307" t="n">
+        <v>1</v>
+      </c>
+      <c r="M307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -11820,24 +10807,15 @@
         <v>208409.8461758304</v>
       </c>
       <c r="H308" t="n">
-        <v>1</v>
-      </c>
-      <c r="I308" t="n">
-        <v>0</v>
-      </c>
-      <c r="J308" t="n">
-        <v>54.81</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I308" t="inlineStr"/>
+      <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr"/>
-      <c r="L308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M308" t="n">
-        <v>1</v>
-      </c>
-      <c r="N308" t="inlineStr"/>
+      <c r="L308" t="n">
+        <v>1</v>
+      </c>
+      <c r="M308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -11862,24 +10840,15 @@
         <v>208847.0742758304</v>
       </c>
       <c r="H309" t="n">
-        <v>1</v>
-      </c>
-      <c r="I309" t="n">
-        <v>0</v>
-      </c>
-      <c r="J309" t="n">
-        <v>54.72</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I309" t="inlineStr"/>
+      <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr"/>
-      <c r="L309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M309" t="n">
-        <v>1</v>
-      </c>
-      <c r="N309" t="inlineStr"/>
+      <c r="L309" t="n">
+        <v>1</v>
+      </c>
+      <c r="M309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -11904,24 +10873,15 @@
         <v>168672.0742758304</v>
       </c>
       <c r="H310" t="n">
-        <v>1</v>
-      </c>
-      <c r="I310" t="n">
-        <v>0</v>
-      </c>
-      <c r="J310" t="n">
-        <v>54.82</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I310" t="inlineStr"/>
+      <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr"/>
-      <c r="L310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M310" t="n">
-        <v>1</v>
-      </c>
-      <c r="N310" t="inlineStr"/>
+      <c r="L310" t="n">
+        <v>1</v>
+      </c>
+      <c r="M310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -11946,24 +10906,15 @@
         <v>169131.7452758304</v>
       </c>
       <c r="H311" t="n">
-        <v>1</v>
-      </c>
-      <c r="I311" t="n">
-        <v>0</v>
-      </c>
-      <c r="J311" t="n">
-        <v>54.72</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I311" t="inlineStr"/>
+      <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr"/>
-      <c r="L311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M311" t="n">
-        <v>1</v>
-      </c>
-      <c r="N311" t="inlineStr"/>
+      <c r="L311" t="n">
+        <v>1</v>
+      </c>
+      <c r="M311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -11988,24 +10939,15 @@
         <v>170175.6220758304</v>
       </c>
       <c r="H312" t="n">
-        <v>1</v>
-      </c>
-      <c r="I312" t="n">
-        <v>0</v>
-      </c>
-      <c r="J312" t="n">
-        <v>54.82</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I312" t="inlineStr"/>
+      <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr"/>
-      <c r="L312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M312" t="n">
-        <v>1</v>
-      </c>
-      <c r="N312" t="inlineStr"/>
+      <c r="L312" t="n">
+        <v>1</v>
+      </c>
+      <c r="M312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -12030,24 +10972,15 @@
         <v>170175.6220758304</v>
       </c>
       <c r="H313" t="n">
-        <v>1</v>
-      </c>
-      <c r="I313" t="n">
-        <v>0</v>
-      </c>
-      <c r="J313" t="n">
-        <v>54.87</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I313" t="inlineStr"/>
+      <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr"/>
-      <c r="L313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M313" t="n">
-        <v>1</v>
-      </c>
-      <c r="N313" t="inlineStr"/>
+      <c r="L313" t="n">
+        <v>1</v>
+      </c>
+      <c r="M313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -12072,24 +11005,15 @@
         <v>170175.6220758304</v>
       </c>
       <c r="H314" t="n">
-        <v>1</v>
-      </c>
-      <c r="I314" t="n">
-        <v>0</v>
-      </c>
-      <c r="J314" t="n">
-        <v>54.87</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I314" t="inlineStr"/>
+      <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr"/>
-      <c r="L314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M314" t="n">
-        <v>1</v>
-      </c>
-      <c r="N314" t="inlineStr"/>
+      <c r="L314" t="n">
+        <v>1</v>
+      </c>
+      <c r="M314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -12114,24 +11038,15 @@
         <v>170175.6220758304</v>
       </c>
       <c r="H315" t="n">
-        <v>1</v>
-      </c>
-      <c r="I315" t="n">
-        <v>0</v>
-      </c>
-      <c r="J315" t="n">
-        <v>54.87</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I315" t="inlineStr"/>
+      <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr"/>
-      <c r="L315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M315" t="n">
-        <v>1</v>
-      </c>
-      <c r="N315" t="inlineStr"/>
+      <c r="L315" t="n">
+        <v>1</v>
+      </c>
+      <c r="M315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -12156,24 +11071,15 @@
         <v>170175.6220758304</v>
       </c>
       <c r="H316" t="n">
-        <v>1</v>
-      </c>
-      <c r="I316" t="n">
-        <v>0</v>
-      </c>
-      <c r="J316" t="n">
-        <v>54.87</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I316" t="inlineStr"/>
+      <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr"/>
-      <c r="L316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M316" t="n">
-        <v>1</v>
-      </c>
-      <c r="N316" t="inlineStr"/>
+      <c r="L316" t="n">
+        <v>1</v>
+      </c>
+      <c r="M316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -12198,24 +11104,15 @@
         <v>170175.6220758304</v>
       </c>
       <c r="H317" t="n">
-        <v>1</v>
-      </c>
-      <c r="I317" t="n">
-        <v>0</v>
-      </c>
-      <c r="J317" t="n">
-        <v>54.87</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I317" t="inlineStr"/>
+      <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr"/>
-      <c r="L317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M317" t="n">
-        <v>1</v>
-      </c>
-      <c r="N317" t="inlineStr"/>
+      <c r="L317" t="n">
+        <v>1</v>
+      </c>
+      <c r="M317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -12240,24 +11137,15 @@
         <v>170175.6220758304</v>
       </c>
       <c r="H318" t="n">
-        <v>1</v>
-      </c>
-      <c r="I318" t="n">
-        <v>0</v>
-      </c>
-      <c r="J318" t="n">
-        <v>54.87</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I318" t="inlineStr"/>
+      <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr"/>
-      <c r="L318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M318" t="n">
-        <v>1</v>
-      </c>
-      <c r="N318" t="inlineStr"/>
+      <c r="L318" t="n">
+        <v>1</v>
+      </c>
+      <c r="M318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -12282,24 +11170,15 @@
         <v>170175.6220758304</v>
       </c>
       <c r="H319" t="n">
-        <v>1</v>
-      </c>
-      <c r="I319" t="n">
-        <v>0</v>
-      </c>
-      <c r="J319" t="n">
-        <v>54.87</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I319" t="inlineStr"/>
+      <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr"/>
-      <c r="L319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M319" t="n">
-        <v>1</v>
-      </c>
-      <c r="N319" t="inlineStr"/>
+      <c r="L319" t="n">
+        <v>1</v>
+      </c>
+      <c r="M319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -12324,24 +11203,15 @@
         <v>186842.0220758304</v>
       </c>
       <c r="H320" t="n">
-        <v>1</v>
-      </c>
-      <c r="I320" t="n">
-        <v>0</v>
-      </c>
-      <c r="J320" t="n">
-        <v>54.87</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I320" t="inlineStr"/>
+      <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr"/>
-      <c r="L320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M320" t="n">
-        <v>1</v>
-      </c>
-      <c r="N320" t="inlineStr"/>
+      <c r="L320" t="n">
+        <v>1</v>
+      </c>
+      <c r="M320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -12366,24 +11236,15 @@
         <v>186842.0220758304</v>
       </c>
       <c r="H321" t="n">
-        <v>1</v>
-      </c>
-      <c r="I321" t="n">
-        <v>0</v>
-      </c>
-      <c r="J321" t="n">
-        <v>54.96</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I321" t="inlineStr"/>
+      <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr"/>
-      <c r="L321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M321" t="n">
-        <v>1</v>
-      </c>
-      <c r="N321" t="inlineStr"/>
+      <c r="L321" t="n">
+        <v>1</v>
+      </c>
+      <c r="M321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -12408,24 +11269,15 @@
         <v>202689.3476758304</v>
       </c>
       <c r="H322" t="n">
-        <v>1</v>
-      </c>
-      <c r="I322" t="n">
-        <v>0</v>
-      </c>
-      <c r="J322" t="n">
-        <v>54.96</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I322" t="inlineStr"/>
+      <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr"/>
-      <c r="L322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M322" t="n">
-        <v>1</v>
-      </c>
-      <c r="N322" t="inlineStr"/>
+      <c r="L322" t="n">
+        <v>1</v>
+      </c>
+      <c r="M322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -12450,24 +11302,15 @@
         <v>96562.34327583038</v>
       </c>
       <c r="H323" t="n">
-        <v>1</v>
-      </c>
-      <c r="I323" t="n">
-        <v>0</v>
-      </c>
-      <c r="J323" t="n">
-        <v>55.03</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I323" t="inlineStr"/>
+      <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr"/>
-      <c r="L323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M323" t="n">
-        <v>1</v>
-      </c>
-      <c r="N323" t="inlineStr"/>
+      <c r="L323" t="n">
+        <v>1</v>
+      </c>
+      <c r="M323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -12492,24 +11335,15 @@
         <v>107992.5318758304</v>
       </c>
       <c r="H324" t="n">
-        <v>1</v>
-      </c>
-      <c r="I324" t="n">
-        <v>0</v>
-      </c>
-      <c r="J324" t="n">
-        <v>54.88</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I324" t="inlineStr"/>
+      <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr"/>
-      <c r="L324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M324" t="n">
-        <v>1</v>
-      </c>
-      <c r="N324" t="inlineStr"/>
+      <c r="L324" t="n">
+        <v>1</v>
+      </c>
+      <c r="M324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
@@ -12534,24 +11368,15 @@
         <v>95497.31217583038</v>
       </c>
       <c r="H325" t="n">
-        <v>1</v>
-      </c>
-      <c r="I325" t="n">
-        <v>0</v>
-      </c>
-      <c r="J325" t="n">
-        <v>55.05</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I325" t="inlineStr"/>
+      <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr"/>
-      <c r="L325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M325" t="n">
-        <v>1</v>
-      </c>
-      <c r="N325" t="inlineStr"/>
+      <c r="L325" t="n">
+        <v>1</v>
+      </c>
+      <c r="M325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
@@ -12576,24 +11401,15 @@
         <v>71083.20997583037</v>
       </c>
       <c r="H326" t="n">
-        <v>1</v>
-      </c>
-      <c r="I326" t="n">
-        <v>0</v>
-      </c>
-      <c r="J326" t="n">
-        <v>55.03</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I326" t="inlineStr"/>
+      <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr"/>
-      <c r="L326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M326" t="n">
-        <v>1</v>
-      </c>
-      <c r="N326" t="inlineStr"/>
+      <c r="L326" t="n">
+        <v>1</v>
+      </c>
+      <c r="M326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
@@ -12618,24 +11434,15 @@
         <v>53141.58507583037</v>
       </c>
       <c r="H327" t="n">
-        <v>1</v>
-      </c>
-      <c r="I327" t="n">
-        <v>0</v>
-      </c>
-      <c r="J327" t="n">
-        <v>55.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I327" t="inlineStr"/>
+      <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr"/>
-      <c r="L327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M327" t="n">
-        <v>1</v>
-      </c>
-      <c r="N327" t="inlineStr"/>
+      <c r="L327" t="n">
+        <v>1</v>
+      </c>
+      <c r="M327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
@@ -12660,24 +11467,15 @@
         <v>51910.51207583037</v>
       </c>
       <c r="H328" t="n">
-        <v>1</v>
-      </c>
-      <c r="I328" t="n">
-        <v>0</v>
-      </c>
-      <c r="J328" t="n">
-        <v>55</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I328" t="inlineStr"/>
+      <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr"/>
-      <c r="L328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M328" t="n">
-        <v>1</v>
-      </c>
-      <c r="N328" t="inlineStr"/>
+      <c r="L328" t="n">
+        <v>1</v>
+      </c>
+      <c r="M328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
@@ -12702,24 +11500,15 @@
         <v>51910.51207583037</v>
       </c>
       <c r="H329" t="n">
-        <v>1</v>
-      </c>
-      <c r="I329" t="n">
-        <v>0</v>
-      </c>
-      <c r="J329" t="n">
-        <v>54.87</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I329" t="inlineStr"/>
+      <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr"/>
-      <c r="L329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M329" t="n">
-        <v>1</v>
-      </c>
-      <c r="N329" t="inlineStr"/>
+      <c r="L329" t="n">
+        <v>1</v>
+      </c>
+      <c r="M329" t="inlineStr"/>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
@@ -12744,24 +11533,15 @@
         <v>51910.51207583037</v>
       </c>
       <c r="H330" t="n">
-        <v>1</v>
-      </c>
-      <c r="I330" t="n">
-        <v>0</v>
-      </c>
-      <c r="J330" t="n">
-        <v>54.87</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I330" t="inlineStr"/>
+      <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr"/>
-      <c r="L330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M330" t="n">
-        <v>1</v>
-      </c>
-      <c r="N330" t="inlineStr"/>
+      <c r="L330" t="n">
+        <v>1</v>
+      </c>
+      <c r="M330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
@@ -12786,24 +11566,15 @@
         <v>13162.97517583038</v>
       </c>
       <c r="H331" t="n">
-        <v>1</v>
-      </c>
-      <c r="I331" t="n">
-        <v>0</v>
-      </c>
-      <c r="J331" t="n">
-        <v>54.87</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I331" t="inlineStr"/>
+      <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr"/>
-      <c r="L331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M331" t="n">
-        <v>1</v>
-      </c>
-      <c r="N331" t="inlineStr"/>
+      <c r="L331" t="n">
+        <v>1</v>
+      </c>
+      <c r="M331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
@@ -12828,24 +11599,15 @@
         <v>14779.97507583038</v>
       </c>
       <c r="H332" t="n">
-        <v>1</v>
-      </c>
-      <c r="I332" t="n">
-        <v>0</v>
-      </c>
-      <c r="J332" t="n">
-        <v>54.82</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I332" t="inlineStr"/>
+      <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr"/>
-      <c r="L332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M332" t="n">
-        <v>1</v>
-      </c>
-      <c r="N332" t="inlineStr"/>
+      <c r="L332" t="n">
+        <v>1</v>
+      </c>
+      <c r="M332" t="inlineStr"/>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
@@ -12870,24 +11632,15 @@
         <v>10779.97507583038</v>
       </c>
       <c r="H333" t="n">
-        <v>1</v>
-      </c>
-      <c r="I333" t="n">
-        <v>0</v>
-      </c>
-      <c r="J333" t="n">
-        <v>54.91</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I333" t="inlineStr"/>
+      <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr"/>
-      <c r="L333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M333" t="n">
-        <v>1</v>
-      </c>
-      <c r="N333" t="inlineStr"/>
+      <c r="L333" t="n">
+        <v>1</v>
+      </c>
+      <c r="M333" t="inlineStr"/>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
@@ -12912,24 +11665,15 @@
         <v>10779.97507583038</v>
       </c>
       <c r="H334" t="n">
-        <v>1</v>
-      </c>
-      <c r="I334" t="n">
-        <v>0</v>
-      </c>
-      <c r="J334" t="n">
-        <v>54.85</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I334" t="inlineStr"/>
+      <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr"/>
-      <c r="L334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M334" t="n">
-        <v>1</v>
-      </c>
-      <c r="N334" t="inlineStr"/>
+      <c r="L334" t="n">
+        <v>1</v>
+      </c>
+      <c r="M334" t="inlineStr"/>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
@@ -12954,24 +11698,15 @@
         <v>11934.12967583038</v>
       </c>
       <c r="H335" t="n">
-        <v>1</v>
-      </c>
-      <c r="I335" t="n">
-        <v>0</v>
-      </c>
-      <c r="J335" t="n">
-        <v>54.85</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I335" t="inlineStr"/>
+      <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr"/>
-      <c r="L335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M335" t="n">
-        <v>1</v>
-      </c>
-      <c r="N335" t="inlineStr"/>
+      <c r="L335" t="n">
+        <v>1</v>
+      </c>
+      <c r="M335" t="inlineStr"/>
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
@@ -12998,20 +11733,13 @@
       <c r="H336" t="n">
         <v>0</v>
       </c>
-      <c r="I336" t="n">
-        <v>0</v>
-      </c>
+      <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr"/>
-      <c r="L336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M336" t="n">
-        <v>1</v>
-      </c>
-      <c r="N336" t="inlineStr"/>
+      <c r="L336" t="n">
+        <v>1</v>
+      </c>
+      <c r="M336" t="inlineStr"/>
     </row>
     <row r="337">
       <c r="A337" s="1" t="n">
@@ -13038,20 +11766,13 @@
       <c r="H337" t="n">
         <v>0</v>
       </c>
-      <c r="I337" t="n">
-        <v>0</v>
-      </c>
+      <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr"/>
-      <c r="L337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M337" t="n">
-        <v>1</v>
-      </c>
-      <c r="N337" t="inlineStr"/>
+      <c r="L337" t="n">
+        <v>1</v>
+      </c>
+      <c r="M337" t="inlineStr"/>
     </row>
     <row r="338">
       <c r="A338" s="1" t="n">
@@ -13078,20 +11799,13 @@
       <c r="H338" t="n">
         <v>0</v>
       </c>
-      <c r="I338" t="n">
-        <v>0</v>
-      </c>
+      <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr"/>
-      <c r="L338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M338" t="n">
-        <v>1</v>
-      </c>
-      <c r="N338" t="inlineStr"/>
+      <c r="L338" t="n">
+        <v>1</v>
+      </c>
+      <c r="M338" t="inlineStr"/>
     </row>
     <row r="339">
       <c r="A339" s="1" t="n">
@@ -13118,20 +11832,13 @@
       <c r="H339" t="n">
         <v>0</v>
       </c>
-      <c r="I339" t="n">
-        <v>0</v>
-      </c>
+      <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr"/>
-      <c r="L339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M339" t="n">
-        <v>1</v>
-      </c>
-      <c r="N339" t="inlineStr"/>
+      <c r="L339" t="n">
+        <v>1</v>
+      </c>
+      <c r="M339" t="inlineStr"/>
     </row>
     <row r="340">
       <c r="A340" s="1" t="n">
@@ -13158,20 +11865,13 @@
       <c r="H340" t="n">
         <v>0</v>
       </c>
-      <c r="I340" t="n">
-        <v>0</v>
-      </c>
+      <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
       <c r="K340" t="inlineStr"/>
-      <c r="L340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M340" t="n">
-        <v>1</v>
-      </c>
-      <c r="N340" t="inlineStr"/>
+      <c r="L340" t="n">
+        <v>1</v>
+      </c>
+      <c r="M340" t="inlineStr"/>
     </row>
     <row r="341">
       <c r="A341" s="1" t="n">
@@ -13198,20 +11898,13 @@
       <c r="H341" t="n">
         <v>0</v>
       </c>
-      <c r="I341" t="n">
-        <v>0</v>
-      </c>
+      <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
       <c r="K341" t="inlineStr"/>
-      <c r="L341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M341" t="n">
-        <v>1</v>
-      </c>
-      <c r="N341" t="inlineStr"/>
+      <c r="L341" t="n">
+        <v>1</v>
+      </c>
+      <c r="M341" t="inlineStr"/>
     </row>
     <row r="342">
       <c r="A342" s="1" t="n">
@@ -13238,20 +11931,13 @@
       <c r="H342" t="n">
         <v>0</v>
       </c>
-      <c r="I342" t="n">
-        <v>0</v>
-      </c>
+      <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr"/>
-      <c r="L342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M342" t="n">
-        <v>1</v>
-      </c>
-      <c r="N342" t="inlineStr"/>
+      <c r="L342" t="n">
+        <v>1</v>
+      </c>
+      <c r="M342" t="inlineStr"/>
     </row>
     <row r="343">
       <c r="A343" s="1" t="n">
@@ -13278,20 +11964,13 @@
       <c r="H343" t="n">
         <v>0</v>
       </c>
-      <c r="I343" t="n">
-        <v>0</v>
-      </c>
+      <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr"/>
-      <c r="L343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M343" t="n">
-        <v>1</v>
-      </c>
-      <c r="N343" t="inlineStr"/>
+      <c r="L343" t="n">
+        <v>1</v>
+      </c>
+      <c r="M343" t="inlineStr"/>
     </row>
     <row r="344">
       <c r="A344" s="1" t="n">
@@ -13318,20 +11997,13 @@
       <c r="H344" t="n">
         <v>0</v>
       </c>
-      <c r="I344" t="n">
-        <v>0</v>
-      </c>
+      <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
       <c r="K344" t="inlineStr"/>
-      <c r="L344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M344" t="n">
-        <v>1</v>
-      </c>
-      <c r="N344" t="inlineStr"/>
+      <c r="L344" t="n">
+        <v>1</v>
+      </c>
+      <c r="M344" t="inlineStr"/>
     </row>
     <row r="345">
       <c r="A345" s="1" t="n">
@@ -13358,20 +12030,13 @@
       <c r="H345" t="n">
         <v>0</v>
       </c>
-      <c r="I345" t="n">
-        <v>0</v>
-      </c>
+      <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
       <c r="K345" t="inlineStr"/>
-      <c r="L345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M345" t="n">
-        <v>1</v>
-      </c>
-      <c r="N345" t="inlineStr"/>
+      <c r="L345" t="n">
+        <v>1</v>
+      </c>
+      <c r="M345" t="inlineStr"/>
     </row>
     <row r="346">
       <c r="A346" s="1" t="n">
@@ -13398,20 +12063,13 @@
       <c r="H346" t="n">
         <v>0</v>
       </c>
-      <c r="I346" t="n">
-        <v>0</v>
-      </c>
+      <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr"/>
-      <c r="L346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M346" t="n">
-        <v>1</v>
-      </c>
-      <c r="N346" t="inlineStr"/>
+      <c r="L346" t="n">
+        <v>1</v>
+      </c>
+      <c r="M346" t="inlineStr"/>
     </row>
     <row r="347">
       <c r="A347" s="1" t="n">
@@ -13438,20 +12096,13 @@
       <c r="H347" t="n">
         <v>0</v>
       </c>
-      <c r="I347" t="n">
-        <v>0</v>
-      </c>
+      <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
       <c r="K347" t="inlineStr"/>
-      <c r="L347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M347" t="n">
-        <v>1</v>
-      </c>
-      <c r="N347" t="inlineStr"/>
+      <c r="L347" t="n">
+        <v>1</v>
+      </c>
+      <c r="M347" t="inlineStr"/>
     </row>
     <row r="348">
       <c r="A348" s="1" t="n">
@@ -13478,20 +12129,13 @@
       <c r="H348" t="n">
         <v>0</v>
       </c>
-      <c r="I348" t="n">
-        <v>0</v>
-      </c>
+      <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
       <c r="K348" t="inlineStr"/>
-      <c r="L348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M348" t="n">
-        <v>1</v>
-      </c>
-      <c r="N348" t="inlineStr"/>
+      <c r="L348" t="n">
+        <v>1</v>
+      </c>
+      <c r="M348" t="inlineStr"/>
     </row>
     <row r="349">
       <c r="A349" s="1" t="n">
@@ -13518,20 +12162,13 @@
       <c r="H349" t="n">
         <v>0</v>
       </c>
-      <c r="I349" t="n">
-        <v>0</v>
-      </c>
+      <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
       <c r="K349" t="inlineStr"/>
-      <c r="L349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M349" t="n">
-        <v>1</v>
-      </c>
-      <c r="N349" t="inlineStr"/>
+      <c r="L349" t="n">
+        <v>1</v>
+      </c>
+      <c r="M349" t="inlineStr"/>
     </row>
     <row r="350">
       <c r="A350" s="1" t="n">
@@ -13558,20 +12195,13 @@
       <c r="H350" t="n">
         <v>0</v>
       </c>
-      <c r="I350" t="n">
-        <v>0</v>
-      </c>
+      <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
       <c r="K350" t="inlineStr"/>
-      <c r="L350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M350" t="n">
-        <v>1</v>
-      </c>
-      <c r="N350" t="inlineStr"/>
+      <c r="L350" t="n">
+        <v>1</v>
+      </c>
+      <c r="M350" t="inlineStr"/>
     </row>
     <row r="351">
       <c r="A351" s="1" t="n">
@@ -13598,20 +12228,13 @@
       <c r="H351" t="n">
         <v>0</v>
       </c>
-      <c r="I351" t="n">
-        <v>0</v>
-      </c>
+      <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
       <c r="K351" t="inlineStr"/>
-      <c r="L351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M351" t="n">
-        <v>1</v>
-      </c>
-      <c r="N351" t="inlineStr"/>
+      <c r="L351" t="n">
+        <v>1</v>
+      </c>
+      <c r="M351" t="inlineStr"/>
     </row>
     <row r="352">
       <c r="A352" s="1" t="n">
@@ -13638,20 +12261,13 @@
       <c r="H352" t="n">
         <v>0</v>
       </c>
-      <c r="I352" t="n">
-        <v>0</v>
-      </c>
+      <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
       <c r="K352" t="inlineStr"/>
-      <c r="L352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M352" t="n">
-        <v>1</v>
-      </c>
-      <c r="N352" t="inlineStr"/>
+      <c r="L352" t="n">
+        <v>1</v>
+      </c>
+      <c r="M352" t="inlineStr"/>
     </row>
     <row r="353">
       <c r="A353" s="1" t="n">
@@ -13678,20 +12294,13 @@
       <c r="H353" t="n">
         <v>0</v>
       </c>
-      <c r="I353" t="n">
-        <v>0</v>
-      </c>
+      <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
       <c r="K353" t="inlineStr"/>
-      <c r="L353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M353" t="n">
-        <v>1</v>
-      </c>
-      <c r="N353" t="inlineStr"/>
+      <c r="L353" t="n">
+        <v>1</v>
+      </c>
+      <c r="M353" t="inlineStr"/>
     </row>
     <row r="354">
       <c r="A354" s="1" t="n">
@@ -13718,20 +12327,13 @@
       <c r="H354" t="n">
         <v>0</v>
       </c>
-      <c r="I354" t="n">
-        <v>0</v>
-      </c>
+      <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
       <c r="K354" t="inlineStr"/>
-      <c r="L354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M354" t="n">
-        <v>1</v>
-      </c>
-      <c r="N354" t="inlineStr"/>
+      <c r="L354" t="n">
+        <v>1</v>
+      </c>
+      <c r="M354" t="inlineStr"/>
     </row>
     <row r="355">
       <c r="A355" s="1" t="n">
@@ -13758,20 +12360,13 @@
       <c r="H355" t="n">
         <v>0</v>
       </c>
-      <c r="I355" t="n">
-        <v>0</v>
-      </c>
+      <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
       <c r="K355" t="inlineStr"/>
-      <c r="L355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M355" t="n">
-        <v>1</v>
-      </c>
-      <c r="N355" t="inlineStr"/>
+      <c r="L355" t="n">
+        <v>1</v>
+      </c>
+      <c r="M355" t="inlineStr"/>
     </row>
     <row r="356">
       <c r="A356" s="1" t="n">
@@ -13798,20 +12393,13 @@
       <c r="H356" t="n">
         <v>0</v>
       </c>
-      <c r="I356" t="n">
-        <v>0</v>
-      </c>
+      <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
       <c r="K356" t="inlineStr"/>
-      <c r="L356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M356" t="n">
-        <v>1</v>
-      </c>
-      <c r="N356" t="inlineStr"/>
+      <c r="L356" t="n">
+        <v>1</v>
+      </c>
+      <c r="M356" t="inlineStr"/>
     </row>
     <row r="357">
       <c r="A357" s="1" t="n">
@@ -13838,20 +12426,13 @@
       <c r="H357" t="n">
         <v>0</v>
       </c>
-      <c r="I357" t="n">
-        <v>0</v>
-      </c>
+      <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
       <c r="K357" t="inlineStr"/>
-      <c r="L357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M357" t="n">
-        <v>1</v>
-      </c>
-      <c r="N357" t="inlineStr"/>
+      <c r="L357" t="n">
+        <v>1</v>
+      </c>
+      <c r="M357" t="inlineStr"/>
     </row>
     <row r="358">
       <c r="A358" s="1" t="n">
@@ -13878,20 +12459,13 @@
       <c r="H358" t="n">
         <v>0</v>
       </c>
-      <c r="I358" t="n">
-        <v>0</v>
-      </c>
+      <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
       <c r="K358" t="inlineStr"/>
-      <c r="L358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M358" t="n">
-        <v>1</v>
-      </c>
-      <c r="N358" t="inlineStr"/>
+      <c r="L358" t="n">
+        <v>1</v>
+      </c>
+      <c r="M358" t="inlineStr"/>
     </row>
     <row r="359">
       <c r="A359" s="1" t="n">
@@ -13918,20 +12492,13 @@
       <c r="H359" t="n">
         <v>0</v>
       </c>
-      <c r="I359" t="n">
-        <v>0</v>
-      </c>
+      <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
       <c r="K359" t="inlineStr"/>
-      <c r="L359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M359" t="n">
-        <v>1</v>
-      </c>
-      <c r="N359" t="inlineStr"/>
+      <c r="L359" t="n">
+        <v>1</v>
+      </c>
+      <c r="M359" t="inlineStr"/>
     </row>
     <row r="360">
       <c r="A360" s="1" t="n">
@@ -13956,24 +12523,15 @@
         <v>51312.91445765036</v>
       </c>
       <c r="H360" t="n">
-        <v>1</v>
-      </c>
-      <c r="I360" t="n">
-        <v>0</v>
-      </c>
-      <c r="J360" t="n">
-        <v>54.98</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I360" t="inlineStr"/>
+      <c r="J360" t="inlineStr"/>
       <c r="K360" t="inlineStr"/>
-      <c r="L360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M360" t="n">
-        <v>1</v>
-      </c>
-      <c r="N360" t="inlineStr"/>
+      <c r="L360" t="n">
+        <v>1</v>
+      </c>
+      <c r="M360" t="inlineStr"/>
     </row>
     <row r="361">
       <c r="A361" s="1" t="n">
@@ -14000,20 +12558,13 @@
       <c r="H361" t="n">
         <v>0</v>
       </c>
-      <c r="I361" t="n">
-        <v>0</v>
-      </c>
+      <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
       <c r="K361" t="inlineStr"/>
-      <c r="L361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M361" t="n">
-        <v>1</v>
-      </c>
-      <c r="N361" t="inlineStr"/>
+      <c r="L361" t="n">
+        <v>1</v>
+      </c>
+      <c r="M361" t="inlineStr"/>
     </row>
     <row r="362">
       <c r="A362" s="1" t="n">
@@ -14040,20 +12591,13 @@
       <c r="H362" t="n">
         <v>0</v>
       </c>
-      <c r="I362" t="n">
-        <v>0</v>
-      </c>
+      <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
       <c r="K362" t="inlineStr"/>
-      <c r="L362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M362" t="n">
-        <v>1</v>
-      </c>
-      <c r="N362" t="inlineStr"/>
+      <c r="L362" t="n">
+        <v>1</v>
+      </c>
+      <c r="M362" t="inlineStr"/>
     </row>
     <row r="363">
       <c r="A363" s="1" t="n">
@@ -14080,20 +12624,13 @@
       <c r="H363" t="n">
         <v>0</v>
       </c>
-      <c r="I363" t="n">
-        <v>0</v>
-      </c>
+      <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
       <c r="K363" t="inlineStr"/>
-      <c r="L363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M363" t="n">
-        <v>1</v>
-      </c>
-      <c r="N363" t="inlineStr"/>
+      <c r="L363" t="n">
+        <v>1</v>
+      </c>
+      <c r="M363" t="inlineStr"/>
     </row>
     <row r="364">
       <c r="A364" s="1" t="n">
@@ -14120,20 +12657,13 @@
       <c r="H364" t="n">
         <v>0</v>
       </c>
-      <c r="I364" t="n">
-        <v>0</v>
-      </c>
+      <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
       <c r="K364" t="inlineStr"/>
-      <c r="L364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M364" t="n">
-        <v>1</v>
-      </c>
-      <c r="N364" t="inlineStr"/>
+      <c r="L364" t="n">
+        <v>1</v>
+      </c>
+      <c r="M364" t="inlineStr"/>
     </row>
     <row r="365">
       <c r="A365" s="1" t="n">
@@ -14160,20 +12690,13 @@
       <c r="H365" t="n">
         <v>0</v>
       </c>
-      <c r="I365" t="n">
-        <v>0</v>
-      </c>
+      <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
       <c r="K365" t="inlineStr"/>
-      <c r="L365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M365" t="n">
-        <v>1</v>
-      </c>
-      <c r="N365" t="inlineStr"/>
+      <c r="L365" t="n">
+        <v>1</v>
+      </c>
+      <c r="M365" t="inlineStr"/>
     </row>
     <row r="366">
       <c r="A366" s="1" t="n">
@@ -14200,20 +12723,13 @@
       <c r="H366" t="n">
         <v>0</v>
       </c>
-      <c r="I366" t="n">
-        <v>0</v>
-      </c>
+      <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
       <c r="K366" t="inlineStr"/>
-      <c r="L366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M366" t="n">
-        <v>1</v>
-      </c>
-      <c r="N366" t="inlineStr"/>
+      <c r="L366" t="n">
+        <v>1</v>
+      </c>
+      <c r="M366" t="inlineStr"/>
     </row>
     <row r="367">
       <c r="A367" s="1" t="n">
@@ -14240,20 +12756,13 @@
       <c r="H367" t="n">
         <v>0</v>
       </c>
-      <c r="I367" t="n">
-        <v>0</v>
-      </c>
+      <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
       <c r="K367" t="inlineStr"/>
-      <c r="L367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M367" t="n">
-        <v>1</v>
-      </c>
-      <c r="N367" t="inlineStr"/>
+      <c r="L367" t="n">
+        <v>1</v>
+      </c>
+      <c r="M367" t="inlineStr"/>
     </row>
     <row r="368">
       <c r="A368" s="1" t="n">
@@ -14280,20 +12789,13 @@
       <c r="H368" t="n">
         <v>0</v>
       </c>
-      <c r="I368" t="n">
-        <v>0</v>
-      </c>
+      <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
       <c r="K368" t="inlineStr"/>
-      <c r="L368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M368" t="n">
-        <v>1</v>
-      </c>
-      <c r="N368" t="inlineStr"/>
+      <c r="L368" t="n">
+        <v>1</v>
+      </c>
+      <c r="M368" t="inlineStr"/>
     </row>
     <row r="369">
       <c r="A369" s="1" t="n">
@@ -14320,20 +12822,13 @@
       <c r="H369" t="n">
         <v>0</v>
       </c>
-      <c r="I369" t="n">
-        <v>0</v>
-      </c>
+      <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
       <c r="K369" t="inlineStr"/>
-      <c r="L369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M369" t="n">
-        <v>1</v>
-      </c>
-      <c r="N369" t="inlineStr"/>
+      <c r="L369" t="n">
+        <v>1</v>
+      </c>
+      <c r="M369" t="inlineStr"/>
     </row>
     <row r="370">
       <c r="A370" s="1" t="n">
@@ -14360,20 +12855,13 @@
       <c r="H370" t="n">
         <v>0</v>
       </c>
-      <c r="I370" t="n">
-        <v>0</v>
-      </c>
+      <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
       <c r="K370" t="inlineStr"/>
-      <c r="L370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M370" t="n">
-        <v>1</v>
-      </c>
-      <c r="N370" t="inlineStr"/>
+      <c r="L370" t="n">
+        <v>1</v>
+      </c>
+      <c r="M370" t="inlineStr"/>
     </row>
     <row r="371">
       <c r="A371" s="1" t="n">
@@ -14400,20 +12888,13 @@
       <c r="H371" t="n">
         <v>0</v>
       </c>
-      <c r="I371" t="n">
-        <v>0</v>
-      </c>
+      <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
       <c r="K371" t="inlineStr"/>
-      <c r="L371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M371" t="n">
-        <v>1</v>
-      </c>
-      <c r="N371" t="inlineStr"/>
+      <c r="L371" t="n">
+        <v>1</v>
+      </c>
+      <c r="M371" t="inlineStr"/>
     </row>
     <row r="372">
       <c r="A372" s="1" t="n">
@@ -14440,20 +12921,13 @@
       <c r="H372" t="n">
         <v>0</v>
       </c>
-      <c r="I372" t="n">
-        <v>0</v>
-      </c>
+      <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
       <c r="K372" t="inlineStr"/>
-      <c r="L372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M372" t="n">
-        <v>1</v>
-      </c>
-      <c r="N372" t="inlineStr"/>
+      <c r="L372" t="n">
+        <v>1</v>
+      </c>
+      <c r="M372" t="inlineStr"/>
     </row>
     <row r="373">
       <c r="A373" s="1" t="n">
@@ -14480,20 +12954,13 @@
       <c r="H373" t="n">
         <v>0</v>
       </c>
-      <c r="I373" t="n">
-        <v>0</v>
-      </c>
+      <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
       <c r="K373" t="inlineStr"/>
-      <c r="L373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M373" t="n">
-        <v>1</v>
-      </c>
-      <c r="N373" t="inlineStr"/>
+      <c r="L373" t="n">
+        <v>1</v>
+      </c>
+      <c r="M373" t="inlineStr"/>
     </row>
     <row r="374">
       <c r="A374" s="1" t="n">
@@ -14520,20 +12987,13 @@
       <c r="H374" t="n">
         <v>0</v>
       </c>
-      <c r="I374" t="n">
-        <v>0</v>
-      </c>
+      <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
       <c r="K374" t="inlineStr"/>
-      <c r="L374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M374" t="n">
-        <v>1</v>
-      </c>
-      <c r="N374" t="inlineStr"/>
+      <c r="L374" t="n">
+        <v>1</v>
+      </c>
+      <c r="M374" t="inlineStr"/>
     </row>
     <row r="375">
       <c r="A375" s="1" t="n">
@@ -14560,20 +13020,13 @@
       <c r="H375" t="n">
         <v>0</v>
       </c>
-      <c r="I375" t="n">
-        <v>0</v>
-      </c>
+      <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
       <c r="K375" t="inlineStr"/>
-      <c r="L375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M375" t="n">
-        <v>1</v>
-      </c>
-      <c r="N375" t="inlineStr"/>
+      <c r="L375" t="n">
+        <v>1</v>
+      </c>
+      <c r="M375" t="inlineStr"/>
     </row>
     <row r="376">
       <c r="A376" s="1" t="n">
@@ -14600,22 +13053,15 @@
       <c r="H376" t="n">
         <v>0</v>
       </c>
-      <c r="I376" t="n">
-        <v>0</v>
-      </c>
+      <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
       <c r="K376" t="inlineStr"/>
-      <c r="L376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M376" t="n">
-        <v>1</v>
-      </c>
-      <c r="N376" t="inlineStr"/>
+      <c r="L376" t="n">
+        <v>1</v>
+      </c>
+      <c r="M376" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-13 BackTest XLM.xlsx
+++ b/BackTest/2020-01-13 BackTest XLM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>342944.7567245801</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>572785.7022245801</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>572785.7022245801</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>617929.0128245801</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>923756.9994245803</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>998004.5456245804</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>999453.4930245803</v>
       </c>
       <c r="H44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>999453.4930245803</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>974585.1699245803</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>974585.1699245803</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>974585.1699245803</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>974585.1699245803</v>
       </c>
       <c r="H56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>974585.1699245803</v>
       </c>
       <c r="H57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>974585.1699245803</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>974585.1699245803</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>974585.1699245803</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>973107.3150245802</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>978351.4380245802</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>977108.4380245802</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>1010641.70422458</v>
       </c>
       <c r="H64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>1010641.70422458</v>
       </c>
       <c r="H65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>1004692.32792458</v>
       </c>
       <c r="H66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>1004070.32792458</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>1004552.92792458</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>929616.7793245802</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>929616.7793245802</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>929616.7793245802</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>929616.7793245802</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>929616.7793245802</v>
       </c>
       <c r="H85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>944554.6793245802</v>
       </c>
       <c r="H87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>943554.6793245802</v>
       </c>
       <c r="H88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>907067.2260245802</v>
       </c>
       <c r="H89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>907067.2260245802</v>
       </c>
       <c r="H90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>897116.2756245802</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>900866.2756245802</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>903034.2756245802</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>901658.2756245802</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>900866.2756245802</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>844823.0753245802</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>842067.4033245802</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>842898.5313245802</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>842898.5313245802</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>906739.0159245803</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>863340.5005245802</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>862186.9405245803</v>
       </c>
       <c r="H120" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>825823.3041245803</v>
       </c>
       <c r="H121" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>827345.7956245804</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>769448.3745245803</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>769448.3745245803</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>763857.5844245803</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>760181.6666245803</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>760181.6666245803</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>760181.6666245803</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>772605.5880245804</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>392249.0996245804</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -6358,14 +6358,10 @@
         <v>251942.8809758304</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
-      </c>
-      <c r="I181" t="n">
-        <v>54.62</v>
-      </c>
-      <c r="J181" t="n">
-        <v>54.62</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
@@ -6395,19 +6391,11 @@
         <v>252768.7809758304</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
-      </c>
-      <c r="I182" t="n">
-        <v>54.85</v>
-      </c>
-      <c r="J182" t="n">
-        <v>54.62</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6436,19 +6424,11 @@
         <v>252750.5460758304</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
-      </c>
-      <c r="I183" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="J183" t="n">
-        <v>54.62</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6510,14 +6490,10 @@
         <v>253497.9849758304</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
-      </c>
-      <c r="I185" t="n">
-        <v>54.95</v>
-      </c>
-      <c r="J185" t="n">
-        <v>54.95</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
@@ -6550,14 +6526,8 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>54.95</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6589,14 +6559,8 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>54.95</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6628,14 +6592,8 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>54.95</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6667,14 +6625,8 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>54.95</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6706,14 +6658,8 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>54.95</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6745,14 +6691,8 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>54.95</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6784,14 +6724,8 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>54.95</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6823,14 +6757,8 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>54.95</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6859,19 +6787,11 @@
         <v>207271.7722758304</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
-      </c>
-      <c r="I194" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="J194" t="n">
-        <v>54.95</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6900,19 +6820,11 @@
         <v>188969.6383758304</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
-      </c>
-      <c r="I195" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="J195" t="n">
-        <v>54.95</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -6941,19 +6853,11 @@
         <v>183571.9752758304</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
-      </c>
-      <c r="I196" t="n">
-        <v>54.73</v>
-      </c>
-      <c r="J196" t="n">
-        <v>54.95</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -6982,19 +6886,11 @@
         <v>183571.9752758304</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
-      </c>
-      <c r="I197" t="n">
-        <v>54.61</v>
-      </c>
-      <c r="J197" t="n">
-        <v>54.95</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7023,19 +6919,11 @@
         <v>187982.7882758304</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
-      </c>
-      <c r="I198" t="n">
-        <v>54.61</v>
-      </c>
-      <c r="J198" t="n">
-        <v>54.95</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7064,19 +6952,11 @@
         <v>187240.7882758304</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
-      </c>
-      <c r="I199" t="n">
-        <v>54.71</v>
-      </c>
-      <c r="J199" t="n">
-        <v>54.95</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7108,14 +6988,8 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>54.95</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7147,14 +7021,8 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>54.95</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7186,14 +7054,8 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>54.95</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7225,14 +7087,8 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>54.95</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7264,14 +7120,8 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>54.95</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7303,14 +7153,8 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>54.95</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7342,14 +7186,8 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>54.95</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7381,14 +7219,8 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>54.95</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7417,17 +7249,15 @@
         <v>220678.4822758304</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I208" t="n">
+        <v>54.72</v>
+      </c>
       <c r="J208" t="n">
-        <v>54.95</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>54.72</v>
+      </c>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7460,11 +7290,11 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="n">
-        <v>54.95</v>
+        <v>54.72</v>
       </c>
       <c r="K209" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L209" t="n">
@@ -7499,11 +7329,11 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="n">
-        <v>54.95</v>
+        <v>54.72</v>
       </c>
       <c r="K210" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L210" t="n">
@@ -7537,14 +7367,8 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>54.95</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7576,14 +7400,8 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>54.95</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7615,14 +7433,8 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>54.95</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7654,14 +7466,8 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>54.95</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7693,14 +7499,8 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>54.95</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7732,14 +7532,8 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>54.95</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7771,14 +7565,8 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>54.95</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7810,14 +7598,8 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>54.95</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7849,14 +7631,8 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>54.95</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7888,14 +7664,8 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>54.95</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7927,14 +7697,8 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>54.95</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7963,19 +7727,13 @@
         <v>232755.9873758304</v>
       </c>
       <c r="H222" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>54.95</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
-        <v>0.9962738853503185</v>
+        <v>1</v>
       </c>
       <c r="M222" t="inlineStr"/>
     </row>
@@ -8002,7 +7760,7 @@
         <v>231750.5416758303</v>
       </c>
       <c r="H223" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -8035,7 +7793,7 @@
         <v>231650.5416758303</v>
       </c>
       <c r="H224" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -8101,10 +7859,14 @@
         <v>228831.6837758303</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I226" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="J226" t="n">
+        <v>54.9</v>
+      </c>
       <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
@@ -8134,11 +7896,19 @@
         <v>228831.6837758303</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I227" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="J227" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8170,8 +7940,14 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8266,10 +8042,14 @@
         <v>229258.4440758303</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I231" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="J231" t="n">
+        <v>54.9</v>
+      </c>
       <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
@@ -8302,8 +8082,14 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8332,11 +8118,19 @@
         <v>230542.1628758303</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I233" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="J233" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8365,11 +8159,19 @@
         <v>233030.1628758303</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I234" t="n">
+        <v>54.83</v>
+      </c>
+      <c r="J234" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8401,8 +8203,14 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8434,8 +8242,14 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8467,8 +8281,14 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8500,8 +8320,14 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8533,8 +8359,14 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8566,8 +8398,14 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8599,8 +8437,14 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8632,8 +8476,14 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8665,8 +8515,14 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8698,8 +8554,14 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8731,8 +8593,14 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8764,8 +8632,14 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8797,8 +8671,14 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8830,8 +8710,14 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8863,8 +8749,14 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8896,8 +8788,14 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8929,8 +8827,14 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8962,8 +8866,14 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8992,11 +8902,19 @@
         <v>254521.5467758303</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I253" t="n">
+        <v>54.93</v>
+      </c>
+      <c r="J253" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9028,8 +8946,14 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9061,8 +8985,14 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9094,8 +9024,14 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9127,8 +9063,14 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9160,8 +9102,14 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9193,8 +9141,14 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9226,8 +9180,14 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9259,8 +9219,14 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9292,8 +9258,14 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9325,8 +9297,14 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9358,8 +9336,14 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9391,8 +9375,14 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9424,8 +9414,14 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9457,8 +9453,14 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9487,11 +9489,17 @@
         <v>252067.3869138903</v>
       </c>
       <c r="H268" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9520,11 +9528,17 @@
         <v>252067.3869138903</v>
       </c>
       <c r="H269" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9553,11 +9567,17 @@
         <v>243415.1987138903</v>
       </c>
       <c r="H270" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9586,11 +9606,17 @@
         <v>258503.5373758303</v>
       </c>
       <c r="H271" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9619,11 +9645,17 @@
         <v>259053.7023758303</v>
       </c>
       <c r="H272" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9652,11 +9684,17 @@
         <v>259391.7023758303</v>
       </c>
       <c r="H273" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9688,8 +9726,14 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9721,8 +9765,14 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9754,8 +9804,14 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9787,8 +9843,14 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9820,8 +9882,14 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9853,8 +9921,14 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9886,8 +9960,14 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9919,8 +9999,14 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9952,8 +10038,14 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -9985,8 +10077,14 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10015,11 +10113,17 @@
         <v>274359.0973758303</v>
       </c>
       <c r="H284" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10048,11 +10152,17 @@
         <v>274359.0973758303</v>
       </c>
       <c r="H285" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10081,11 +10191,17 @@
         <v>274359.0973758303</v>
       </c>
       <c r="H286" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10114,11 +10230,17 @@
         <v>274359.0973758303</v>
       </c>
       <c r="H287" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10147,11 +10269,17 @@
         <v>274369.1303758303</v>
       </c>
       <c r="H288" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10180,11 +10308,17 @@
         <v>274366.4494758304</v>
       </c>
       <c r="H289" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10216,8 +10350,14 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10249,8 +10389,14 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10282,8 +10428,14 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10315,8 +10467,14 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10348,8 +10506,14 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10381,8 +10545,14 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10414,8 +10584,14 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10444,11 +10620,17 @@
         <v>263912.8928758304</v>
       </c>
       <c r="H297" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10477,11 +10659,17 @@
         <v>263912.8928758304</v>
       </c>
       <c r="H298" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10510,11 +10698,17 @@
         <v>256200.1252758304</v>
       </c>
       <c r="H299" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10543,11 +10737,17 @@
         <v>255098.9265758304</v>
       </c>
       <c r="H300" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10579,8 +10779,14 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10612,8 +10818,14 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10645,8 +10857,14 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10678,8 +10896,14 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10711,8 +10935,14 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10744,8 +10974,14 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10777,8 +11013,14 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10810,8 +11052,14 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10843,8 +11091,14 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10876,8 +11130,14 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -10909,8 +11169,14 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -10942,8 +11208,14 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -10975,8 +11247,14 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11008,8 +11286,14 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11041,8 +11325,14 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11074,8 +11364,14 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11107,8 +11403,14 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11140,8 +11442,14 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11173,8 +11481,14 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11203,11 +11517,19 @@
         <v>186842.0220758304</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
-      </c>
-      <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I320" t="n">
+        <v>54.87</v>
+      </c>
+      <c r="J320" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11239,8 +11561,14 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11272,8 +11600,14 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11305,8 +11639,14 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11338,8 +11678,14 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11371,8 +11717,14 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11404,8 +11756,14 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11437,8 +11795,14 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11470,8 +11834,14 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11503,8 +11873,14 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11536,8 +11912,14 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11569,8 +11951,14 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11602,8 +11990,14 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11635,8 +12029,14 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11668,8 +12068,14 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11701,8 +12107,14 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11734,8 +12146,14 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11767,8 +12185,14 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11800,8 +12224,14 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11833,8 +12263,14 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -11866,8 +12302,14 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -11899,8 +12341,14 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -11932,8 +12380,14 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -11965,8 +12419,14 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -11998,8 +12458,14 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12031,8 +12497,14 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12064,8 +12536,14 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12097,8 +12575,14 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12130,8 +12614,14 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12163,8 +12653,14 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12196,8 +12692,14 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12229,8 +12731,14 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12262,8 +12770,14 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12295,8 +12809,14 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12328,8 +12848,14 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12361,8 +12887,14 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12394,8 +12926,14 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12427,8 +12965,14 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12457,11 +13001,19 @@
         <v>46753.91445765036</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
-      </c>
-      <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I358" t="n">
+        <v>54.95</v>
+      </c>
+      <c r="J358" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12490,11 +13042,19 @@
         <v>51312.91445765036</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
-      </c>
-      <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I359" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="J359" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12523,11 +13083,19 @@
         <v>51312.91445765036</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
-      </c>
-      <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I360" t="n">
+        <v>54.98</v>
+      </c>
+      <c r="J360" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12556,11 +13124,19 @@
         <v>51725.91295765036</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
-      </c>
-      <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I361" t="n">
+        <v>54.98</v>
+      </c>
+      <c r="J361" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12589,11 +13165,19 @@
         <v>31036.96635765036</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
-      </c>
-      <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I362" t="n">
+        <v>55.07</v>
+      </c>
+      <c r="J362" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12622,11 +13206,19 @@
         <v>31036.96635765036</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
-      </c>
-      <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I363" t="n">
+        <v>55</v>
+      </c>
+      <c r="J363" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12655,11 +13247,19 @@
         <v>31036.96635765036</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
-      </c>
-      <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I364" t="n">
+        <v>55</v>
+      </c>
+      <c r="J364" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12688,11 +13288,19 @@
         <v>31036.96635765036</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
-      </c>
-      <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I365" t="n">
+        <v>55</v>
+      </c>
+      <c r="J365" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12721,11 +13329,19 @@
         <v>31036.96635765036</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
-      </c>
-      <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I366" t="n">
+        <v>55</v>
+      </c>
+      <c r="J366" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -12754,11 +13370,19 @@
         <v>31036.96635765036</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
-      </c>
-      <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I367" t="n">
+        <v>55</v>
+      </c>
+      <c r="J367" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -12787,11 +13411,19 @@
         <v>31036.96635765036</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
-      </c>
-      <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I368" t="n">
+        <v>55</v>
+      </c>
+      <c r="J368" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -12820,11 +13452,19 @@
         <v>31036.96635765036</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
-      </c>
-      <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I369" t="n">
+        <v>55</v>
+      </c>
+      <c r="J369" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -12853,11 +13493,19 @@
         <v>31036.96635765036</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
-      </c>
-      <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I370" t="n">
+        <v>55</v>
+      </c>
+      <c r="J370" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -12886,11 +13534,19 @@
         <v>31036.96635765036</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
-      </c>
-      <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I371" t="n">
+        <v>55</v>
+      </c>
+      <c r="J371" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -12919,11 +13575,19 @@
         <v>31036.96635765036</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
-      </c>
-      <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I372" t="n">
+        <v>55</v>
+      </c>
+      <c r="J372" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -12952,11 +13616,19 @@
         <v>39197.40135765036</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
-      </c>
-      <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I373" t="n">
+        <v>55</v>
+      </c>
+      <c r="J373" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -12985,11 +13657,19 @@
         <v>39197.40135765036</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
-      </c>
-      <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I374" t="n">
+        <v>55.05</v>
+      </c>
+      <c r="J374" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13018,11 +13698,19 @@
         <v>39333.16215765036</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
-      </c>
-      <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I375" t="n">
+        <v>55.05</v>
+      </c>
+      <c r="J375" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13051,17 +13739,25 @@
         <v>39333.16215765036</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
-      </c>
-      <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I376" t="n">
+        <v>55.07</v>
+      </c>
+      <c r="J376" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
       <c r="M376" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-13 BackTest XLM.xlsx
+++ b/BackTest/2020-01-13 BackTest XLM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1177,7 +1177,7 @@
         <v>923756.9994245803</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>998004.5456245804</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>999453.4930245803</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>999453.4930245803</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>974585.1699245803</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>974585.1699245803</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>974585.1699245803</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>974585.1699245803</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>974585.1699245803</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>974585.1699245803</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>973107.3150245802</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>978351.4380245802</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>977108.4380245802</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>1010641.70422458</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>1010641.70422458</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>1004692.32792458</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>1004070.32792458</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>1004552.92792458</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>929616.7793245802</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>929616.7793245802</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>929616.7793245802</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>929616.7793245802</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>929616.7793245802</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>944554.6793245802</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>943554.6793245802</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>907067.2260245802</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>907067.2260245802</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>897116.2756245802</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>900866.2756245802</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>903034.2756245802</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>901658.2756245802</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>900866.2756245802</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>844823.0753245802</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>842067.4033245802</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>842898.5313245802</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>842898.5313245802</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>906739.0159245803</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>863340.5005245802</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>827345.7956245804</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>769448.3745245803</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>769448.3745245803</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>763857.5844245803</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>760181.6666245803</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>760181.6666245803</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>760181.6666245803</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>204185.1311758304</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>204197.8142758304</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>203619.8152758304</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>207798.5552758304</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>207735.2446758304</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>207775.2446758304</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>207711.8812758304</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>207271.7722758304</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>207271.7722758304</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>188969.6383758304</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>183571.9752758304</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7249,14 +7249,10 @@
         <v>220678.4822758304</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
-      </c>
-      <c r="I208" t="n">
-        <v>54.72</v>
-      </c>
-      <c r="J208" t="n">
-        <v>54.72</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
@@ -7289,14 +7285,8 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>54.72</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7328,14 +7318,8 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>54.72</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7859,14 +7843,10 @@
         <v>228831.6837758303</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
-      </c>
-      <c r="I226" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="J226" t="n">
-        <v>54.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
@@ -7896,19 +7876,11 @@
         <v>228831.6837758303</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
-      </c>
-      <c r="I227" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="J227" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -7940,14 +7912,8 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8042,14 +8008,10 @@
         <v>229258.4440758303</v>
       </c>
       <c r="H231" t="n">
-        <v>1</v>
-      </c>
-      <c r="I231" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="J231" t="n">
-        <v>54.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I231" t="inlineStr"/>
+      <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
@@ -8082,4312 +8044,3658 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="n">
+        <v>54.73</v>
+      </c>
+      <c r="C233" t="n">
+        <v>54.83</v>
+      </c>
+      <c r="D233" t="n">
+        <v>54.83</v>
+      </c>
+      <c r="E233" t="n">
+        <v>54.73</v>
+      </c>
+      <c r="F233" t="n">
+        <v>1489.2808</v>
+      </c>
+      <c r="G233" t="n">
+        <v>230542.1628758303</v>
+      </c>
+      <c r="H233" t="n">
+        <v>0</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="n">
+        <v>54.86</v>
+      </c>
+      <c r="C234" t="n">
+        <v>54.87</v>
+      </c>
+      <c r="D234" t="n">
+        <v>54.87</v>
+      </c>
+      <c r="E234" t="n">
+        <v>54.86</v>
+      </c>
+      <c r="F234" t="n">
+        <v>2488</v>
+      </c>
+      <c r="G234" t="n">
+        <v>233030.1628758303</v>
+      </c>
+      <c r="H234" t="n">
+        <v>0</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="n">
+        <v>54.87</v>
+      </c>
+      <c r="C235" t="n">
+        <v>54.87</v>
+      </c>
+      <c r="D235" t="n">
+        <v>54.87</v>
+      </c>
+      <c r="E235" t="n">
+        <v>54.87</v>
+      </c>
+      <c r="F235" t="n">
+        <v>499</v>
+      </c>
+      <c r="G235" t="n">
+        <v>233030.1628758303</v>
+      </c>
+      <c r="H235" t="n">
+        <v>0</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="n">
         <v>54.9</v>
       </c>
-      <c r="K232" t="inlineStr">
+      <c r="C236" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="D236" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="E236" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="F236" t="n">
+        <v>1238.9603</v>
+      </c>
+      <c r="G236" t="n">
+        <v>234269.1231758303</v>
+      </c>
+      <c r="H236" t="n">
+        <v>0</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="n">
+        <v>54.96</v>
+      </c>
+      <c r="C237" t="n">
+        <v>54.96</v>
+      </c>
+      <c r="D237" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="E237" t="n">
+        <v>54.96</v>
+      </c>
+      <c r="F237" t="n">
+        <v>18233.3333</v>
+      </c>
+      <c r="G237" t="n">
+        <v>252502.4564758303</v>
+      </c>
+      <c r="H237" t="n">
+        <v>0</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="C238" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="D238" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="E238" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="F238" t="n">
+        <v>124.4152</v>
+      </c>
+      <c r="G238" t="n">
+        <v>252626.8716758303</v>
+      </c>
+      <c r="H238" t="n">
+        <v>0</v>
+      </c>
+      <c r="I238" t="inlineStr"/>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="C239" t="n">
+        <v>55.22</v>
+      </c>
+      <c r="D239" t="n">
+        <v>55.22</v>
+      </c>
+      <c r="E239" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="F239" t="n">
+        <v>20980.5086</v>
+      </c>
+      <c r="G239" t="n">
+        <v>273607.3802758303</v>
+      </c>
+      <c r="H239" t="n">
+        <v>0</v>
+      </c>
+      <c r="I239" t="inlineStr"/>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>55.16</v>
+      </c>
+      <c r="C240" t="n">
+        <v>55.16</v>
+      </c>
+      <c r="D240" t="n">
+        <v>55.16</v>
+      </c>
+      <c r="E240" t="n">
+        <v>55.16</v>
+      </c>
+      <c r="F240" t="n">
+        <v>1802.032</v>
+      </c>
+      <c r="G240" t="n">
+        <v>271805.3482758303</v>
+      </c>
+      <c r="H240" t="n">
+        <v>0</v>
+      </c>
+      <c r="I240" t="inlineStr"/>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="n">
+        <v>55.24</v>
+      </c>
+      <c r="C241" t="n">
+        <v>55.24</v>
+      </c>
+      <c r="D241" t="n">
+        <v>55.24</v>
+      </c>
+      <c r="E241" t="n">
+        <v>55.24</v>
+      </c>
+      <c r="F241" t="n">
+        <v>3693.675</v>
+      </c>
+      <c r="G241" t="n">
+        <v>275499.0232758303</v>
+      </c>
+      <c r="H241" t="n">
+        <v>0</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="n">
+        <v>55.21</v>
+      </c>
+      <c r="C242" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="D242" t="n">
+        <v>55.21</v>
+      </c>
+      <c r="E242" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="F242" t="n">
+        <v>2703.558</v>
+      </c>
+      <c r="G242" t="n">
+        <v>272795.4652758303</v>
+      </c>
+      <c r="H242" t="n">
+        <v>0</v>
+      </c>
+      <c r="I242" t="inlineStr"/>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="n">
+        <v>55.17</v>
+      </c>
+      <c r="C243" t="n">
+        <v>55.16</v>
+      </c>
+      <c r="D243" t="n">
+        <v>55.17</v>
+      </c>
+      <c r="E243" t="n">
+        <v>55.16</v>
+      </c>
+      <c r="F243" t="n">
+        <v>5597.298</v>
+      </c>
+      <c r="G243" t="n">
+        <v>267198.1672758303</v>
+      </c>
+      <c r="H243" t="n">
+        <v>0</v>
+      </c>
+      <c r="I243" t="inlineStr"/>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="n">
+        <v>55.16</v>
+      </c>
+      <c r="C244" t="n">
+        <v>55.15</v>
+      </c>
+      <c r="D244" t="n">
+        <v>55.16</v>
+      </c>
+      <c r="E244" t="n">
+        <v>55.15</v>
+      </c>
+      <c r="F244" t="n">
+        <v>273.8268</v>
+      </c>
+      <c r="G244" t="n">
+        <v>266924.3404758303</v>
+      </c>
+      <c r="H244" t="n">
+        <v>0</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="n">
+        <v>55.16</v>
+      </c>
+      <c r="C245" t="n">
+        <v>55.05</v>
+      </c>
+      <c r="D245" t="n">
+        <v>55.16</v>
+      </c>
+      <c r="E245" t="n">
+        <v>55.05</v>
+      </c>
+      <c r="F245" t="n">
+        <v>7352.4922</v>
+      </c>
+      <c r="G245" t="n">
+        <v>259571.8482758303</v>
+      </c>
+      <c r="H245" t="n">
+        <v>0</v>
+      </c>
+      <c r="I245" t="inlineStr"/>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="n">
+        <v>55.04</v>
+      </c>
+      <c r="C246" t="n">
+        <v>55.04</v>
+      </c>
+      <c r="D246" t="n">
+        <v>55.04</v>
+      </c>
+      <c r="E246" t="n">
+        <v>55.04</v>
+      </c>
+      <c r="F246" t="n">
+        <v>11045.9021</v>
+      </c>
+      <c r="G246" t="n">
+        <v>248525.9461758303</v>
+      </c>
+      <c r="H246" t="n">
+        <v>0</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="n">
+        <v>55.04</v>
+      </c>
+      <c r="C247" t="n">
+        <v>55.04</v>
+      </c>
+      <c r="D247" t="n">
+        <v>55.04</v>
+      </c>
+      <c r="E247" t="n">
+        <v>55.04</v>
+      </c>
+      <c r="F247" t="n">
+        <v>978.1815</v>
+      </c>
+      <c r="G247" t="n">
+        <v>248525.9461758303</v>
+      </c>
+      <c r="H247" t="n">
+        <v>0</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="n">
+        <v>55.01</v>
+      </c>
+      <c r="C248" t="n">
+        <v>55.01</v>
+      </c>
+      <c r="D248" t="n">
+        <v>55.01</v>
+      </c>
+      <c r="E248" t="n">
+        <v>55.01</v>
+      </c>
+      <c r="F248" t="n">
+        <v>2487.6715</v>
+      </c>
+      <c r="G248" t="n">
+        <v>246038.2746758303</v>
+      </c>
+      <c r="H248" t="n">
+        <v>0</v>
+      </c>
+      <c r="I248" t="inlineStr"/>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="n">
+        <v>55.01</v>
+      </c>
+      <c r="C249" t="n">
+        <v>55.04</v>
+      </c>
+      <c r="D249" t="n">
+        <v>55.04</v>
+      </c>
+      <c r="E249" t="n">
+        <v>55.01</v>
+      </c>
+      <c r="F249" t="n">
+        <v>688.0624</v>
+      </c>
+      <c r="G249" t="n">
+        <v>246726.3370758303</v>
+      </c>
+      <c r="H249" t="n">
+        <v>0</v>
+      </c>
+      <c r="I249" t="inlineStr"/>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="n">
+        <v>55.04</v>
+      </c>
+      <c r="C250" t="n">
+        <v>55.04</v>
+      </c>
+      <c r="D250" t="n">
+        <v>55.04</v>
+      </c>
+      <c r="E250" t="n">
+        <v>55.04</v>
+      </c>
+      <c r="F250" t="n">
+        <v>994.769</v>
+      </c>
+      <c r="G250" t="n">
+        <v>246726.3370758303</v>
+      </c>
+      <c r="H250" t="n">
+        <v>0</v>
+      </c>
+      <c r="I250" t="inlineStr"/>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="n">
+        <v>55.04</v>
+      </c>
+      <c r="C251" t="n">
+        <v>54.91</v>
+      </c>
+      <c r="D251" t="n">
+        <v>55.04</v>
+      </c>
+      <c r="E251" t="n">
+        <v>54.91</v>
+      </c>
+      <c r="F251" t="n">
+        <v>1916</v>
+      </c>
+      <c r="G251" t="n">
+        <v>244810.3370758303</v>
+      </c>
+      <c r="H251" t="n">
+        <v>0</v>
+      </c>
+      <c r="I251" t="inlineStr"/>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="n">
+        <v>54.93</v>
+      </c>
+      <c r="C252" t="n">
+        <v>54.93</v>
+      </c>
+      <c r="D252" t="n">
+        <v>54.93</v>
+      </c>
+      <c r="E252" t="n">
+        <v>54.93</v>
+      </c>
+      <c r="F252" t="n">
+        <v>626.6572</v>
+      </c>
+      <c r="G252" t="n">
+        <v>245436.9942758303</v>
+      </c>
+      <c r="H252" t="n">
+        <v>0</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="n">
+        <v>55</v>
+      </c>
+      <c r="C253" t="n">
+        <v>55</v>
+      </c>
+      <c r="D253" t="n">
+        <v>55</v>
+      </c>
+      <c r="E253" t="n">
+        <v>55</v>
+      </c>
+      <c r="F253" t="n">
+        <v>9084.5525</v>
+      </c>
+      <c r="G253" t="n">
+        <v>254521.5467758303</v>
+      </c>
+      <c r="H253" t="n">
+        <v>0</v>
+      </c>
+      <c r="I253" t="inlineStr"/>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="n">
+        <v>54.93</v>
+      </c>
+      <c r="C254" t="n">
+        <v>54.76</v>
+      </c>
+      <c r="D254" t="n">
+        <v>54.93</v>
+      </c>
+      <c r="E254" t="n">
+        <v>54.76</v>
+      </c>
+      <c r="F254" t="n">
+        <v>10045.6248</v>
+      </c>
+      <c r="G254" t="n">
+        <v>244475.9219758303</v>
+      </c>
+      <c r="H254" t="n">
+        <v>0</v>
+      </c>
+      <c r="I254" t="inlineStr"/>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="n">
+        <v>54.89</v>
+      </c>
+      <c r="C255" t="n">
+        <v>54.89</v>
+      </c>
+      <c r="D255" t="n">
+        <v>54.89</v>
+      </c>
+      <c r="E255" t="n">
+        <v>54.89</v>
+      </c>
+      <c r="F255" t="n">
+        <v>659</v>
+      </c>
+      <c r="G255" t="n">
+        <v>245134.9219758303</v>
+      </c>
+      <c r="H255" t="n">
+        <v>0</v>
+      </c>
+      <c r="I255" t="inlineStr"/>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="n">
+        <v>54.89</v>
+      </c>
+      <c r="C256" t="n">
+        <v>54.89</v>
+      </c>
+      <c r="D256" t="n">
+        <v>54.89</v>
+      </c>
+      <c r="E256" t="n">
+        <v>54.89</v>
+      </c>
+      <c r="F256" t="n">
+        <v>1205.4353</v>
+      </c>
+      <c r="G256" t="n">
+        <v>245134.9219758303</v>
+      </c>
+      <c r="H256" t="n">
+        <v>0</v>
+      </c>
+      <c r="I256" t="inlineStr"/>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="n">
+        <v>54.93</v>
+      </c>
+      <c r="C257" t="n">
+        <v>54.93</v>
+      </c>
+      <c r="D257" t="n">
+        <v>54.93</v>
+      </c>
+      <c r="E257" t="n">
+        <v>54.93</v>
+      </c>
+      <c r="F257" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G257" t="n">
+        <v>246134.9219758303</v>
+      </c>
+      <c r="H257" t="n">
+        <v>0</v>
+      </c>
+      <c r="I257" t="inlineStr"/>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="n">
+        <v>55.01</v>
+      </c>
+      <c r="C258" t="n">
+        <v>55.01</v>
+      </c>
+      <c r="D258" t="n">
+        <v>55.01</v>
+      </c>
+      <c r="E258" t="n">
+        <v>55.01</v>
+      </c>
+      <c r="F258" t="n">
+        <v>2840.5028</v>
+      </c>
+      <c r="G258" t="n">
+        <v>248975.4247758303</v>
+      </c>
+      <c r="H258" t="n">
+        <v>0</v>
+      </c>
+      <c r="I258" t="inlineStr"/>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="C259" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="D259" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="E259" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="F259" t="n">
+        <v>1084.6799</v>
+      </c>
+      <c r="G259" t="n">
+        <v>250060.1046758303</v>
+      </c>
+      <c r="H259" t="n">
+        <v>0</v>
+      </c>
+      <c r="I259" t="inlineStr"/>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="C260" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="D260" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="E260" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="F260" t="n">
+        <v>972.7521</v>
+      </c>
+      <c r="G260" t="n">
+        <v>250060.1046758303</v>
+      </c>
+      <c r="H260" t="n">
+        <v>0</v>
+      </c>
+      <c r="I260" t="inlineStr"/>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="n">
+        <v>55.01</v>
+      </c>
+      <c r="C261" t="n">
+        <v>55.01</v>
+      </c>
+      <c r="D261" t="n">
+        <v>55.01</v>
+      </c>
+      <c r="E261" t="n">
+        <v>55.01</v>
+      </c>
+      <c r="F261" t="n">
+        <v>31.0684</v>
+      </c>
+      <c r="G261" t="n">
+        <v>250029.0362758303</v>
+      </c>
+      <c r="H261" t="n">
+        <v>0</v>
+      </c>
+      <c r="I261" t="inlineStr"/>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="C262" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="D262" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="E262" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="F262" t="n">
+        <v>2453.7599</v>
+      </c>
+      <c r="G262" t="n">
+        <v>252482.7961758303</v>
+      </c>
+      <c r="H262" t="n">
+        <v>0</v>
+      </c>
+      <c r="I262" t="inlineStr"/>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="n">
+        <v>55.01</v>
+      </c>
+      <c r="C263" t="n">
+        <v>54.98</v>
+      </c>
+      <c r="D263" t="n">
+        <v>55.01</v>
+      </c>
+      <c r="E263" t="n">
+        <v>54.98</v>
+      </c>
+      <c r="F263" t="n">
+        <v>89.2146</v>
+      </c>
+      <c r="G263" t="n">
+        <v>252393.5815758303</v>
+      </c>
+      <c r="H263" t="n">
+        <v>0</v>
+      </c>
+      <c r="I263" t="inlineStr"/>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="n">
+        <v>54.91</v>
+      </c>
+      <c r="C264" t="n">
+        <v>54.78</v>
+      </c>
+      <c r="D264" t="n">
+        <v>55.01</v>
+      </c>
+      <c r="E264" t="n">
+        <v>54.69</v>
+      </c>
+      <c r="F264" t="n">
+        <v>2079.4606</v>
+      </c>
+      <c r="G264" t="n">
+        <v>250314.1209758303</v>
+      </c>
+      <c r="H264" t="n">
+        <v>0</v>
+      </c>
+      <c r="I264" t="inlineStr"/>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="n">
+        <v>54.91</v>
+      </c>
+      <c r="C265" t="n">
+        <v>54.91</v>
+      </c>
+      <c r="D265" t="n">
+        <v>54.91</v>
+      </c>
+      <c r="E265" t="n">
+        <v>54.91</v>
+      </c>
+      <c r="F265" t="n">
+        <v>10</v>
+      </c>
+      <c r="G265" t="n">
+        <v>250324.1209758303</v>
+      </c>
+      <c r="H265" t="n">
+        <v>0</v>
+      </c>
+      <c r="I265" t="inlineStr"/>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="n">
+        <v>54.79</v>
+      </c>
+      <c r="C266" t="n">
+        <v>54.79</v>
+      </c>
+      <c r="D266" t="n">
+        <v>54.79</v>
+      </c>
+      <c r="E266" t="n">
+        <v>54.79</v>
+      </c>
+      <c r="F266" t="n">
+        <v>633</v>
+      </c>
+      <c r="G266" t="n">
+        <v>249691.1209758303</v>
+      </c>
+      <c r="H266" t="n">
+        <v>0</v>
+      </c>
+      <c r="I266" t="inlineStr"/>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="C267" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="D267" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="E267" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="F267" t="n">
+        <v>930</v>
+      </c>
+      <c r="G267" t="n">
+        <v>250621.1209758303</v>
+      </c>
+      <c r="H267" t="n">
+        <v>0</v>
+      </c>
+      <c r="I267" t="inlineStr"/>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="C268" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="D268" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="E268" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="F268" t="n">
+        <v>1446.26593806</v>
+      </c>
+      <c r="G268" t="n">
+        <v>252067.3869138903</v>
+      </c>
+      <c r="H268" t="n">
+        <v>0</v>
+      </c>
+      <c r="I268" t="inlineStr"/>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="C269" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="D269" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="E269" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="F269" t="n">
+        <v>14.5021</v>
+      </c>
+      <c r="G269" t="n">
+        <v>252067.3869138903</v>
+      </c>
+      <c r="H269" t="n">
+        <v>0</v>
+      </c>
+      <c r="I269" t="inlineStr"/>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" t="n">
+        <v>54.75</v>
+      </c>
+      <c r="C270" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="D270" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="E270" t="n">
+        <v>54.64</v>
+      </c>
+      <c r="F270" t="n">
+        <v>8652.188200000001</v>
+      </c>
+      <c r="G270" t="n">
+        <v>243415.1987138903</v>
+      </c>
+      <c r="H270" t="n">
+        <v>0</v>
+      </c>
+      <c r="I270" t="inlineStr"/>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="C271" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="D271" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="E271" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="F271" t="n">
+        <v>15088.33866194</v>
+      </c>
+      <c r="G271" t="n">
+        <v>258503.5373758303</v>
+      </c>
+      <c r="H271" t="n">
+        <v>0</v>
+      </c>
+      <c r="I271" t="inlineStr"/>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B272" t="n">
+        <v>54.92</v>
+      </c>
+      <c r="C272" t="n">
+        <v>54.92</v>
+      </c>
+      <c r="D272" t="n">
+        <v>54.92</v>
+      </c>
+      <c r="E272" t="n">
+        <v>54.92</v>
+      </c>
+      <c r="F272" t="n">
+        <v>550.165</v>
+      </c>
+      <c r="G272" t="n">
+        <v>259053.7023758303</v>
+      </c>
+      <c r="H272" t="n">
+        <v>0</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B273" t="n">
+        <v>55</v>
+      </c>
+      <c r="C273" t="n">
+        <v>55</v>
+      </c>
+      <c r="D273" t="n">
+        <v>55</v>
+      </c>
+      <c r="E273" t="n">
+        <v>55</v>
+      </c>
+      <c r="F273" t="n">
+        <v>338</v>
+      </c>
+      <c r="G273" t="n">
+        <v>259391.7023758303</v>
+      </c>
+      <c r="H273" t="n">
+        <v>0</v>
+      </c>
+      <c r="I273" t="inlineStr"/>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B274" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="C274" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="D274" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="E274" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="F274" t="n">
+        <v>1361.8653</v>
+      </c>
+      <c r="G274" t="n">
+        <v>260753.5676758303</v>
+      </c>
+      <c r="H274" t="n">
+        <v>0</v>
+      </c>
+      <c r="I274" t="inlineStr"/>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B275" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="C275" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="D275" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="E275" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="F275" t="n">
+        <v>6547.318</v>
+      </c>
+      <c r="G275" t="n">
+        <v>260753.5676758303</v>
+      </c>
+      <c r="H275" t="n">
+        <v>0</v>
+      </c>
+      <c r="I275" t="inlineStr"/>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B276" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="C276" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="D276" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="E276" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="F276" t="n">
+        <v>239.5598</v>
+      </c>
+      <c r="G276" t="n">
+        <v>260753.5676758303</v>
+      </c>
+      <c r="H276" t="n">
+        <v>0</v>
+      </c>
+      <c r="I276" t="inlineStr"/>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr"/>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B277" t="n">
+        <v>55.15</v>
+      </c>
+      <c r="C277" t="n">
+        <v>55.15</v>
+      </c>
+      <c r="D277" t="n">
+        <v>55.15</v>
+      </c>
+      <c r="E277" t="n">
+        <v>55.15</v>
+      </c>
+      <c r="F277" t="n">
+        <v>572.1716</v>
+      </c>
+      <c r="G277" t="n">
+        <v>261325.7392758303</v>
+      </c>
+      <c r="H277" t="n">
+        <v>0</v>
+      </c>
+      <c r="I277" t="inlineStr"/>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="inlineStr"/>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B278" t="n">
+        <v>55.15</v>
+      </c>
+      <c r="C278" t="n">
+        <v>55.14</v>
+      </c>
+      <c r="D278" t="n">
+        <v>55.15</v>
+      </c>
+      <c r="E278" t="n">
+        <v>55.14</v>
+      </c>
+      <c r="F278" t="n">
+        <v>3285.4411</v>
+      </c>
+      <c r="G278" t="n">
+        <v>258040.2981758303</v>
+      </c>
+      <c r="H278" t="n">
+        <v>0</v>
+      </c>
+      <c r="I278" t="inlineStr"/>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B279" t="n">
+        <v>55.15</v>
+      </c>
+      <c r="C279" t="n">
+        <v>55.15</v>
+      </c>
+      <c r="D279" t="n">
+        <v>55.15</v>
+      </c>
+      <c r="E279" t="n">
+        <v>55.15</v>
+      </c>
+      <c r="F279" t="n">
+        <v>12810.0035</v>
+      </c>
+      <c r="G279" t="n">
+        <v>270850.3016758303</v>
+      </c>
+      <c r="H279" t="n">
+        <v>0</v>
+      </c>
+      <c r="I279" t="inlineStr"/>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="inlineStr"/>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B280" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="C280" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="D280" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="E280" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="F280" t="n">
+        <v>8539.2639</v>
+      </c>
+      <c r="G280" t="n">
+        <v>279389.5655758303</v>
+      </c>
+      <c r="H280" t="n">
+        <v>0</v>
+      </c>
+      <c r="I280" t="inlineStr"/>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="inlineStr"/>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="B281" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="C281" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="D281" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="E281" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="F281" t="n">
+        <v>30760.209</v>
+      </c>
+      <c r="G281" t="n">
+        <v>279389.5655758303</v>
+      </c>
+      <c r="H281" t="n">
+        <v>0</v>
+      </c>
+      <c r="I281" t="inlineStr"/>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
+      <c r="L281" t="n">
+        <v>1</v>
+      </c>
+      <c r="M281" t="inlineStr"/>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="B282" t="n">
+        <v>55.22</v>
+      </c>
+      <c r="C282" t="n">
+        <v>55.22</v>
+      </c>
+      <c r="D282" t="n">
+        <v>55.22</v>
+      </c>
+      <c r="E282" t="n">
+        <v>55.22</v>
+      </c>
+      <c r="F282" t="n">
+        <v>181</v>
+      </c>
+      <c r="G282" t="n">
+        <v>279570.5655758303</v>
+      </c>
+      <c r="H282" t="n">
+        <v>0</v>
+      </c>
+      <c r="I282" t="inlineStr"/>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
+      <c r="L282" t="n">
+        <v>1</v>
+      </c>
+      <c r="M282" t="inlineStr"/>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="B283" t="n">
+        <v>55.22</v>
+      </c>
+      <c r="C283" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="D283" t="n">
+        <v>55.25</v>
+      </c>
+      <c r="E283" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="F283" t="n">
+        <v>5211.4682</v>
+      </c>
+      <c r="G283" t="n">
+        <v>274359.0973758303</v>
+      </c>
+      <c r="H283" t="n">
+        <v>0</v>
+      </c>
+      <c r="I283" t="inlineStr"/>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
+      <c r="L283" t="n">
+        <v>1</v>
+      </c>
+      <c r="M283" t="inlineStr"/>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>282</v>
+      </c>
+      <c r="B284" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="C284" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="D284" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="E284" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="F284" t="n">
+        <v>36475.9815</v>
+      </c>
+      <c r="G284" t="n">
+        <v>274359.0973758303</v>
+      </c>
+      <c r="H284" t="n">
+        <v>0</v>
+      </c>
+      <c r="I284" t="inlineStr"/>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
+      <c r="L284" t="n">
+        <v>1</v>
+      </c>
+      <c r="M284" t="inlineStr"/>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="n">
+        <v>283</v>
+      </c>
+      <c r="B285" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="C285" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="D285" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="E285" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="F285" t="n">
+        <v>11000</v>
+      </c>
+      <c r="G285" t="n">
+        <v>274359.0973758303</v>
+      </c>
+      <c r="H285" t="n">
+        <v>0</v>
+      </c>
+      <c r="I285" t="inlineStr"/>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
+      <c r="L285" t="n">
+        <v>1</v>
+      </c>
+      <c r="M285" t="inlineStr"/>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="n">
+        <v>284</v>
+      </c>
+      <c r="B286" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="C286" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="D286" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="E286" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="F286" t="n">
+        <v>584.0700000000001</v>
+      </c>
+      <c r="G286" t="n">
+        <v>274359.0973758303</v>
+      </c>
+      <c r="H286" t="n">
+        <v>0</v>
+      </c>
+      <c r="I286" t="inlineStr"/>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
+      <c r="L286" t="n">
+        <v>1</v>
+      </c>
+      <c r="M286" t="inlineStr"/>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="n">
+        <v>285</v>
+      </c>
+      <c r="B287" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="C287" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="D287" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="E287" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="F287" t="n">
+        <v>8933.369000000001</v>
+      </c>
+      <c r="G287" t="n">
+        <v>274359.0973758303</v>
+      </c>
+      <c r="H287" t="n">
+        <v>0</v>
+      </c>
+      <c r="I287" t="inlineStr"/>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
+      <c r="L287" t="n">
+        <v>1</v>
+      </c>
+      <c r="M287" t="inlineStr"/>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="n">
+        <v>286</v>
+      </c>
+      <c r="B288" t="n">
+        <v>55.21</v>
+      </c>
+      <c r="C288" t="n">
+        <v>55.21</v>
+      </c>
+      <c r="D288" t="n">
+        <v>55.21</v>
+      </c>
+      <c r="E288" t="n">
+        <v>55.21</v>
+      </c>
+      <c r="F288" t="n">
+        <v>10.033</v>
+      </c>
+      <c r="G288" t="n">
+        <v>274369.1303758303</v>
+      </c>
+      <c r="H288" t="n">
+        <v>0</v>
+      </c>
+      <c r="I288" t="inlineStr"/>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
+      <c r="L288" t="n">
+        <v>1</v>
+      </c>
+      <c r="M288" t="inlineStr"/>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="n">
+        <v>287</v>
+      </c>
+      <c r="B289" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="C289" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="D289" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="E289" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="F289" t="n">
+        <v>2.6809</v>
+      </c>
+      <c r="G289" t="n">
+        <v>274366.4494758304</v>
+      </c>
+      <c r="H289" t="n">
+        <v>0</v>
+      </c>
+      <c r="I289" t="inlineStr"/>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
+      <c r="L289" t="n">
+        <v>1</v>
+      </c>
+      <c r="M289" t="inlineStr"/>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="n">
+        <v>288</v>
+      </c>
+      <c r="B290" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="C290" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="D290" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="E290" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="F290" t="n">
+        <v>2334.961</v>
+      </c>
+      <c r="G290" t="n">
+        <v>274366.4494758304</v>
+      </c>
+      <c r="H290" t="n">
+        <v>0</v>
+      </c>
+      <c r="I290" t="inlineStr"/>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
+      <c r="L290" t="n">
+        <v>1</v>
+      </c>
+      <c r="M290" t="inlineStr"/>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="n">
+        <v>289</v>
+      </c>
+      <c r="B291" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="C291" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="D291" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="E291" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="F291" t="n">
+        <v>3614.1461</v>
+      </c>
+      <c r="G291" t="n">
+        <v>274366.4494758304</v>
+      </c>
+      <c r="H291" t="n">
+        <v>0</v>
+      </c>
+      <c r="I291" t="inlineStr"/>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
+      <c r="L291" t="n">
+        <v>1</v>
+      </c>
+      <c r="M291" t="inlineStr"/>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="n">
+        <v>290</v>
+      </c>
+      <c r="B292" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="C292" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="D292" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="E292" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="F292" t="n">
+        <v>4776.4979</v>
+      </c>
+      <c r="G292" t="n">
+        <v>274366.4494758304</v>
+      </c>
+      <c r="H292" t="n">
+        <v>0</v>
+      </c>
+      <c r="I292" t="inlineStr"/>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
+      <c r="L292" t="n">
+        <v>1</v>
+      </c>
+      <c r="M292" t="inlineStr"/>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="n">
+        <v>291</v>
+      </c>
+      <c r="B293" t="n">
+        <v>55.13</v>
+      </c>
+      <c r="C293" t="n">
+        <v>55.13</v>
+      </c>
+      <c r="D293" t="n">
+        <v>55.13</v>
+      </c>
+      <c r="E293" t="n">
+        <v>55.04</v>
+      </c>
+      <c r="F293" t="n">
+        <v>15251.0599</v>
+      </c>
+      <c r="G293" t="n">
+        <v>259115.3895758304</v>
+      </c>
+      <c r="H293" t="n">
+        <v>0</v>
+      </c>
+      <c r="I293" t="inlineStr"/>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
+      <c r="L293" t="n">
+        <v>1</v>
+      </c>
+      <c r="M293" t="inlineStr"/>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="n">
+        <v>292</v>
+      </c>
+      <c r="B294" t="n">
+        <v>55.13</v>
+      </c>
+      <c r="C294" t="n">
+        <v>55.13</v>
+      </c>
+      <c r="D294" t="n">
+        <v>55.13</v>
+      </c>
+      <c r="E294" t="n">
+        <v>55.13</v>
+      </c>
+      <c r="F294" t="n">
+        <v>246.821</v>
+      </c>
+      <c r="G294" t="n">
+        <v>259115.3895758304</v>
+      </c>
+      <c r="H294" t="n">
+        <v>0</v>
+      </c>
+      <c r="I294" t="inlineStr"/>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
+      <c r="L294" t="n">
+        <v>1</v>
+      </c>
+      <c r="M294" t="inlineStr"/>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="n">
+        <v>293</v>
+      </c>
+      <c r="B295" t="n">
+        <v>55.25</v>
+      </c>
+      <c r="C295" t="n">
+        <v>55.25</v>
+      </c>
+      <c r="D295" t="n">
+        <v>55.25</v>
+      </c>
+      <c r="E295" t="n">
+        <v>55.25</v>
+      </c>
+      <c r="F295" t="n">
+        <v>4797.5033</v>
+      </c>
+      <c r="G295" t="n">
+        <v>263912.8928758304</v>
+      </c>
+      <c r="H295" t="n">
+        <v>0</v>
+      </c>
+      <c r="I295" t="inlineStr"/>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr"/>
+      <c r="L295" t="n">
+        <v>1</v>
+      </c>
+      <c r="M295" t="inlineStr"/>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="n">
+        <v>294</v>
+      </c>
+      <c r="B296" t="n">
+        <v>55.23</v>
+      </c>
+      <c r="C296" t="n">
+        <v>55.25</v>
+      </c>
+      <c r="D296" t="n">
+        <v>55.25</v>
+      </c>
+      <c r="E296" t="n">
+        <v>55.23</v>
+      </c>
+      <c r="F296" t="n">
+        <v>15828.479</v>
+      </c>
+      <c r="G296" t="n">
+        <v>263912.8928758304</v>
+      </c>
+      <c r="H296" t="n">
+        <v>0</v>
+      </c>
+      <c r="I296" t="inlineStr"/>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
+      <c r="L296" t="n">
+        <v>1</v>
+      </c>
+      <c r="M296" t="inlineStr"/>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="n">
+        <v>295</v>
+      </c>
+      <c r="B297" t="n">
+        <v>55.25</v>
+      </c>
+      <c r="C297" t="n">
+        <v>55.25</v>
+      </c>
+      <c r="D297" t="n">
+        <v>55.25</v>
+      </c>
+      <c r="E297" t="n">
+        <v>55.25</v>
+      </c>
+      <c r="F297" t="n">
+        <v>5359.319</v>
+      </c>
+      <c r="G297" t="n">
+        <v>263912.8928758304</v>
+      </c>
+      <c r="H297" t="n">
+        <v>0</v>
+      </c>
+      <c r="I297" t="inlineStr"/>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr"/>
+      <c r="L297" t="n">
+        <v>1</v>
+      </c>
+      <c r="M297" t="inlineStr"/>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="n">
+        <v>296</v>
+      </c>
+      <c r="B298" t="n">
+        <v>55.25</v>
+      </c>
+      <c r="C298" t="n">
+        <v>55.25</v>
+      </c>
+      <c r="D298" t="n">
+        <v>55.25</v>
+      </c>
+      <c r="E298" t="n">
+        <v>55.25</v>
+      </c>
+      <c r="F298" t="n">
+        <v>21671.522</v>
+      </c>
+      <c r="G298" t="n">
+        <v>263912.8928758304</v>
+      </c>
+      <c r="H298" t="n">
+        <v>0</v>
+      </c>
+      <c r="I298" t="inlineStr"/>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="inlineStr"/>
+      <c r="L298" t="n">
+        <v>1</v>
+      </c>
+      <c r="M298" t="inlineStr"/>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="n">
+        <v>297</v>
+      </c>
+      <c r="B299" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="C299" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="D299" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="E299" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="F299" t="n">
+        <v>7712.7676</v>
+      </c>
+      <c r="G299" t="n">
+        <v>256200.1252758304</v>
+      </c>
+      <c r="H299" t="n">
+        <v>0</v>
+      </c>
+      <c r="I299" t="inlineStr"/>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr"/>
+      <c r="L299" t="n">
+        <v>1</v>
+      </c>
+      <c r="M299" t="inlineStr"/>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="n">
+        <v>298</v>
+      </c>
+      <c r="B300" t="n">
+        <v>55.12</v>
+      </c>
+      <c r="C300" t="n">
+        <v>55.14</v>
+      </c>
+      <c r="D300" t="n">
+        <v>55.14</v>
+      </c>
+      <c r="E300" t="n">
+        <v>55.11</v>
+      </c>
+      <c r="F300" t="n">
+        <v>1101.1987</v>
+      </c>
+      <c r="G300" t="n">
+        <v>255098.9265758304</v>
+      </c>
+      <c r="H300" t="n">
+        <v>0</v>
+      </c>
+      <c r="I300" t="inlineStr"/>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="inlineStr"/>
+      <c r="L300" t="n">
+        <v>1</v>
+      </c>
+      <c r="M300" t="inlineStr"/>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="n">
+        <v>299</v>
+      </c>
+      <c r="B301" t="n">
+        <v>55.14</v>
+      </c>
+      <c r="C301" t="n">
+        <v>55.14</v>
+      </c>
+      <c r="D301" t="n">
+        <v>55.14</v>
+      </c>
+      <c r="E301" t="n">
+        <v>55.14</v>
+      </c>
+      <c r="F301" t="n">
+        <v>553</v>
+      </c>
+      <c r="G301" t="n">
+        <v>255098.9265758304</v>
+      </c>
+      <c r="H301" t="n">
+        <v>0</v>
+      </c>
+      <c r="I301" t="inlineStr"/>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="inlineStr"/>
+      <c r="L301" t="n">
+        <v>1</v>
+      </c>
+      <c r="M301" t="inlineStr"/>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="B302" t="n">
+        <v>55.01</v>
+      </c>
+      <c r="C302" t="n">
+        <v>55</v>
+      </c>
+      <c r="D302" t="n">
+        <v>55.01</v>
+      </c>
+      <c r="E302" t="n">
+        <v>55</v>
+      </c>
+      <c r="F302" t="n">
+        <v>25078.4</v>
+      </c>
+      <c r="G302" t="n">
+        <v>230020.5265758304</v>
+      </c>
+      <c r="H302" t="n">
+        <v>0</v>
+      </c>
+      <c r="I302" t="inlineStr"/>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr"/>
+      <c r="L302" t="n">
+        <v>1</v>
+      </c>
+      <c r="M302" t="inlineStr"/>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="B303" t="n">
+        <v>55</v>
+      </c>
+      <c r="C303" t="n">
+        <v>55</v>
+      </c>
+      <c r="D303" t="n">
+        <v>55</v>
+      </c>
+      <c r="E303" t="n">
+        <v>55</v>
+      </c>
+      <c r="F303" t="n">
+        <v>554.1488000000001</v>
+      </c>
+      <c r="G303" t="n">
+        <v>230020.5265758304</v>
+      </c>
+      <c r="H303" t="n">
+        <v>0</v>
+      </c>
+      <c r="I303" t="inlineStr"/>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="inlineStr"/>
+      <c r="L303" t="n">
+        <v>1</v>
+      </c>
+      <c r="M303" t="inlineStr"/>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="n">
+        <v>302</v>
+      </c>
+      <c r="B304" t="n">
+        <v>55.01</v>
+      </c>
+      <c r="C304" t="n">
+        <v>55</v>
+      </c>
+      <c r="D304" t="n">
+        <v>55.01</v>
+      </c>
+      <c r="E304" t="n">
+        <v>55</v>
+      </c>
+      <c r="F304" t="n">
+        <v>3397.6498</v>
+      </c>
+      <c r="G304" t="n">
+        <v>230020.5265758304</v>
+      </c>
+      <c r="H304" t="n">
+        <v>0</v>
+      </c>
+      <c r="I304" t="inlineStr"/>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="inlineStr"/>
+      <c r="L304" t="n">
+        <v>1</v>
+      </c>
+      <c r="M304" t="inlineStr"/>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="n">
+        <v>303</v>
+      </c>
+      <c r="B305" t="n">
+        <v>55</v>
+      </c>
+      <c r="C305" t="n">
+        <v>55</v>
+      </c>
+      <c r="D305" t="n">
+        <v>55</v>
+      </c>
+      <c r="E305" t="n">
+        <v>55</v>
+      </c>
+      <c r="F305" t="n">
+        <v>201.9747</v>
+      </c>
+      <c r="G305" t="n">
+        <v>230020.5265758304</v>
+      </c>
+      <c r="H305" t="n">
+        <v>0</v>
+      </c>
+      <c r="I305" t="inlineStr"/>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr"/>
+      <c r="L305" t="n">
+        <v>1</v>
+      </c>
+      <c r="M305" t="inlineStr"/>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="n">
+        <v>304</v>
+      </c>
+      <c r="B306" t="n">
+        <v>54.97</v>
+      </c>
+      <c r="C306" t="n">
+        <v>54.93</v>
+      </c>
+      <c r="D306" t="n">
+        <v>54.97</v>
+      </c>
+      <c r="E306" t="n">
+        <v>54.93</v>
+      </c>
+      <c r="F306" t="n">
+        <v>11481.7651</v>
+      </c>
+      <c r="G306" t="n">
+        <v>218538.7614758304</v>
+      </c>
+      <c r="H306" t="n">
+        <v>0</v>
+      </c>
+      <c r="I306" t="inlineStr"/>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="inlineStr"/>
+      <c r="L306" t="n">
+        <v>1</v>
+      </c>
+      <c r="M306" t="inlineStr"/>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="n">
+        <v>305</v>
+      </c>
+      <c r="B307" t="n">
+        <v>54.81</v>
+      </c>
+      <c r="C307" t="n">
+        <v>54.81</v>
+      </c>
+      <c r="D307" t="n">
+        <v>54.81</v>
+      </c>
+      <c r="E307" t="n">
+        <v>54.81</v>
+      </c>
+      <c r="F307" t="n">
+        <v>4617.4214</v>
+      </c>
+      <c r="G307" t="n">
+        <v>213921.3400758304</v>
+      </c>
+      <c r="H307" t="n">
+        <v>0</v>
+      </c>
+      <c r="I307" t="inlineStr"/>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="inlineStr"/>
+      <c r="L307" t="n">
+        <v>1</v>
+      </c>
+      <c r="M307" t="inlineStr"/>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="n">
+        <v>306</v>
+      </c>
+      <c r="B308" t="n">
+        <v>54.72</v>
+      </c>
+      <c r="C308" t="n">
+        <v>54.72</v>
+      </c>
+      <c r="D308" t="n">
+        <v>54.72</v>
+      </c>
+      <c r="E308" t="n">
+        <v>54.72</v>
+      </c>
+      <c r="F308" t="n">
+        <v>5511.4939</v>
+      </c>
+      <c r="G308" t="n">
+        <v>208409.8461758304</v>
+      </c>
+      <c r="H308" t="n">
+        <v>0</v>
+      </c>
+      <c r="I308" t="inlineStr"/>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="inlineStr"/>
+      <c r="L308" t="n">
+        <v>1</v>
+      </c>
+      <c r="M308" t="inlineStr"/>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="n">
+        <v>307</v>
+      </c>
+      <c r="B309" t="n">
+        <v>54.82</v>
+      </c>
+      <c r="C309" t="n">
+        <v>54.82</v>
+      </c>
+      <c r="D309" t="n">
+        <v>54.82</v>
+      </c>
+      <c r="E309" t="n">
+        <v>54.82</v>
+      </c>
+      <c r="F309" t="n">
+        <v>437.2281</v>
+      </c>
+      <c r="G309" t="n">
+        <v>208847.0742758304</v>
+      </c>
+      <c r="H309" t="n">
+        <v>0</v>
+      </c>
+      <c r="I309" t="inlineStr"/>
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="inlineStr"/>
+      <c r="L309" t="n">
+        <v>1</v>
+      </c>
+      <c r="M309" t="inlineStr"/>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="n">
+        <v>308</v>
+      </c>
+      <c r="B310" t="n">
+        <v>54.72</v>
+      </c>
+      <c r="C310" t="n">
+        <v>54.72</v>
+      </c>
+      <c r="D310" t="n">
+        <v>54.72</v>
+      </c>
+      <c r="E310" t="n">
+        <v>54.72</v>
+      </c>
+      <c r="F310" t="n">
+        <v>40175</v>
+      </c>
+      <c r="G310" t="n">
+        <v>168672.0742758304</v>
+      </c>
+      <c r="H310" t="n">
+        <v>0</v>
+      </c>
+      <c r="I310" t="inlineStr"/>
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="inlineStr"/>
+      <c r="L310" t="n">
+        <v>1</v>
+      </c>
+      <c r="M310" t="inlineStr"/>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="n">
+        <v>309</v>
+      </c>
+      <c r="B311" t="n">
+        <v>54.82</v>
+      </c>
+      <c r="C311" t="n">
+        <v>54.82</v>
+      </c>
+      <c r="D311" t="n">
+        <v>54.82</v>
+      </c>
+      <c r="E311" t="n">
+        <v>54.82</v>
+      </c>
+      <c r="F311" t="n">
+        <v>459.671</v>
+      </c>
+      <c r="G311" t="n">
+        <v>169131.7452758304</v>
+      </c>
+      <c r="H311" t="n">
+        <v>0</v>
+      </c>
+      <c r="I311" t="inlineStr"/>
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="inlineStr"/>
+      <c r="L311" t="n">
+        <v>1</v>
+      </c>
+      <c r="M311" t="inlineStr"/>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="n">
+        <v>310</v>
+      </c>
+      <c r="B312" t="n">
+        <v>54.82</v>
+      </c>
+      <c r="C312" t="n">
+        <v>54.87</v>
+      </c>
+      <c r="D312" t="n">
+        <v>54.87</v>
+      </c>
+      <c r="E312" t="n">
+        <v>54.82</v>
+      </c>
+      <c r="F312" t="n">
+        <v>1043.8768</v>
+      </c>
+      <c r="G312" t="n">
+        <v>170175.6220758304</v>
+      </c>
+      <c r="H312" t="n">
+        <v>0</v>
+      </c>
+      <c r="I312" t="inlineStr"/>
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="inlineStr"/>
+      <c r="L312" t="n">
+        <v>1</v>
+      </c>
+      <c r="M312" t="inlineStr"/>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="n">
+        <v>311</v>
+      </c>
+      <c r="B313" t="n">
+        <v>54.87</v>
+      </c>
+      <c r="C313" t="n">
+        <v>54.87</v>
+      </c>
+      <c r="D313" t="n">
+        <v>54.87</v>
+      </c>
+      <c r="E313" t="n">
+        <v>54.87</v>
+      </c>
+      <c r="F313" t="n">
+        <v>318.8</v>
+      </c>
+      <c r="G313" t="n">
+        <v>170175.6220758304</v>
+      </c>
+      <c r="H313" t="n">
+        <v>0</v>
+      </c>
+      <c r="I313" t="inlineStr"/>
+      <c r="J313" t="inlineStr"/>
+      <c r="K313" t="inlineStr"/>
+      <c r="L313" t="n">
+        <v>1</v>
+      </c>
+      <c r="M313" t="inlineStr"/>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="n">
+        <v>312</v>
+      </c>
+      <c r="B314" t="n">
+        <v>54.87</v>
+      </c>
+      <c r="C314" t="n">
+        <v>54.87</v>
+      </c>
+      <c r="D314" t="n">
+        <v>54.87</v>
+      </c>
+      <c r="E314" t="n">
+        <v>54.87</v>
+      </c>
+      <c r="F314" t="n">
+        <v>2198.1148</v>
+      </c>
+      <c r="G314" t="n">
+        <v>170175.6220758304</v>
+      </c>
+      <c r="H314" t="n">
+        <v>0</v>
+      </c>
+      <c r="I314" t="inlineStr"/>
+      <c r="J314" t="inlineStr"/>
+      <c r="K314" t="inlineStr"/>
+      <c r="L314" t="n">
+        <v>1</v>
+      </c>
+      <c r="M314" t="inlineStr"/>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="n">
+        <v>313</v>
+      </c>
+      <c r="B315" t="n">
+        <v>54.88</v>
+      </c>
+      <c r="C315" t="n">
+        <v>54.87</v>
+      </c>
+      <c r="D315" t="n">
+        <v>54.88</v>
+      </c>
+      <c r="E315" t="n">
+        <v>54.87</v>
+      </c>
+      <c r="F315" t="n">
+        <v>911.5674</v>
+      </c>
+      <c r="G315" t="n">
+        <v>170175.6220758304</v>
+      </c>
+      <c r="H315" t="n">
+        <v>0</v>
+      </c>
+      <c r="I315" t="inlineStr"/>
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="inlineStr"/>
+      <c r="L315" t="n">
+        <v>1</v>
+      </c>
+      <c r="M315" t="inlineStr"/>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="n">
+        <v>314</v>
+      </c>
+      <c r="B316" t="n">
+        <v>54.87</v>
+      </c>
+      <c r="C316" t="n">
+        <v>54.87</v>
+      </c>
+      <c r="D316" t="n">
+        <v>54.87</v>
+      </c>
+      <c r="E316" t="n">
+        <v>54.87</v>
+      </c>
+      <c r="F316" t="n">
+        <v>41552.3459</v>
+      </c>
+      <c r="G316" t="n">
+        <v>170175.6220758304</v>
+      </c>
+      <c r="H316" t="n">
+        <v>0</v>
+      </c>
+      <c r="I316" t="inlineStr"/>
+      <c r="J316" t="inlineStr"/>
+      <c r="K316" t="inlineStr"/>
+      <c r="L316" t="n">
+        <v>1</v>
+      </c>
+      <c r="M316" t="inlineStr"/>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="n">
+        <v>315</v>
+      </c>
+      <c r="B317" t="n">
+        <v>54.87</v>
+      </c>
+      <c r="C317" t="n">
+        <v>54.87</v>
+      </c>
+      <c r="D317" t="n">
+        <v>54.87</v>
+      </c>
+      <c r="E317" t="n">
+        <v>54.87</v>
+      </c>
+      <c r="F317" t="n">
+        <v>672.138</v>
+      </c>
+      <c r="G317" t="n">
+        <v>170175.6220758304</v>
+      </c>
+      <c r="H317" t="n">
+        <v>0</v>
+      </c>
+      <c r="I317" t="inlineStr"/>
+      <c r="J317" t="inlineStr"/>
+      <c r="K317" t="inlineStr"/>
+      <c r="L317" t="n">
+        <v>1</v>
+      </c>
+      <c r="M317" t="inlineStr"/>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="n">
+        <v>316</v>
+      </c>
+      <c r="B318" t="n">
+        <v>54.87</v>
+      </c>
+      <c r="C318" t="n">
+        <v>54.87</v>
+      </c>
+      <c r="D318" t="n">
+        <v>54.87</v>
+      </c>
+      <c r="E318" t="n">
+        <v>54.87</v>
+      </c>
+      <c r="F318" t="n">
+        <v>7060.0582</v>
+      </c>
+      <c r="G318" t="n">
+        <v>170175.6220758304</v>
+      </c>
+      <c r="H318" t="n">
+        <v>0</v>
+      </c>
+      <c r="I318" t="inlineStr"/>
+      <c r="J318" t="inlineStr"/>
+      <c r="K318" t="inlineStr"/>
+      <c r="L318" t="n">
+        <v>1</v>
+      </c>
+      <c r="M318" t="inlineStr"/>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="n">
+        <v>317</v>
+      </c>
+      <c r="B319" t="n">
+        <v>54.87</v>
+      </c>
+      <c r="C319" t="n">
+        <v>54.87</v>
+      </c>
+      <c r="D319" t="n">
+        <v>54.87</v>
+      </c>
+      <c r="E319" t="n">
+        <v>54.87</v>
+      </c>
+      <c r="F319" t="n">
+        <v>6159.8429</v>
+      </c>
+      <c r="G319" t="n">
+        <v>170175.6220758304</v>
+      </c>
+      <c r="H319" t="n">
+        <v>0</v>
+      </c>
+      <c r="I319" t="inlineStr"/>
+      <c r="J319" t="inlineStr"/>
+      <c r="K319" t="inlineStr"/>
+      <c r="L319" t="n">
+        <v>1</v>
+      </c>
+      <c r="M319" t="inlineStr"/>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="n">
+        <v>318</v>
+      </c>
+      <c r="B320" t="n">
+        <v>54.96</v>
+      </c>
+      <c r="C320" t="n">
+        <v>54.96</v>
+      </c>
+      <c r="D320" t="n">
+        <v>54.96</v>
+      </c>
+      <c r="E320" t="n">
+        <v>54.96</v>
+      </c>
+      <c r="F320" t="n">
+        <v>16666.4</v>
+      </c>
+      <c r="G320" t="n">
+        <v>186842.0220758304</v>
+      </c>
+      <c r="H320" t="n">
+        <v>0</v>
+      </c>
+      <c r="I320" t="inlineStr"/>
+      <c r="J320" t="inlineStr"/>
+      <c r="K320" t="inlineStr"/>
+      <c r="L320" t="n">
+        <v>1</v>
+      </c>
+      <c r="M320" t="inlineStr"/>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="n">
+        <v>319</v>
+      </c>
+      <c r="B321" t="n">
+        <v>54.96</v>
+      </c>
+      <c r="C321" t="n">
+        <v>54.96</v>
+      </c>
+      <c r="D321" t="n">
+        <v>54.96</v>
+      </c>
+      <c r="E321" t="n">
+        <v>54.96</v>
+      </c>
+      <c r="F321" t="n">
+        <v>3333.6</v>
+      </c>
+      <c r="G321" t="n">
+        <v>186842.0220758304</v>
+      </c>
+      <c r="H321" t="n">
+        <v>0</v>
+      </c>
+      <c r="I321" t="inlineStr"/>
+      <c r="J321" t="inlineStr"/>
+      <c r="K321" t="inlineStr"/>
+      <c r="L321" t="n">
+        <v>1</v>
+      </c>
+      <c r="M321" t="inlineStr"/>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="n">
+        <v>320</v>
+      </c>
+      <c r="B322" t="n">
+        <v>55.03</v>
+      </c>
+      <c r="C322" t="n">
+        <v>55.03</v>
+      </c>
+      <c r="D322" t="n">
+        <v>55.03</v>
+      </c>
+      <c r="E322" t="n">
+        <v>55.03</v>
+      </c>
+      <c r="F322" t="n">
+        <v>15847.3256</v>
+      </c>
+      <c r="G322" t="n">
+        <v>202689.3476758304</v>
+      </c>
+      <c r="H322" t="n">
+        <v>0</v>
+      </c>
+      <c r="I322" t="inlineStr"/>
+      <c r="J322" t="inlineStr"/>
+      <c r="K322" t="inlineStr"/>
+      <c r="L322" t="n">
+        <v>1</v>
+      </c>
+      <c r="M322" t="inlineStr"/>
+    </row>
+    <row r="323">
+      <c r="A323" s="1" t="n">
+        <v>321</v>
+      </c>
+      <c r="B323" t="n">
+        <v>54.88</v>
+      </c>
+      <c r="C323" t="n">
+        <v>54.88</v>
+      </c>
+      <c r="D323" t="n">
+        <v>54.88</v>
+      </c>
+      <c r="E323" t="n">
+        <v>54.88</v>
+      </c>
+      <c r="F323" t="n">
+        <v>106127.0044</v>
+      </c>
+      <c r="G323" t="n">
+        <v>96562.34327583038</v>
+      </c>
+      <c r="H323" t="n">
+        <v>0</v>
+      </c>
+      <c r="I323" t="inlineStr"/>
+      <c r="J323" t="inlineStr"/>
+      <c r="K323" t="inlineStr"/>
+      <c r="L323" t="n">
+        <v>1</v>
+      </c>
+      <c r="M323" t="inlineStr"/>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="n">
+        <v>322</v>
+      </c>
+      <c r="B324" t="n">
+        <v>55.04</v>
+      </c>
+      <c r="C324" t="n">
+        <v>55.05</v>
+      </c>
+      <c r="D324" t="n">
+        <v>55.05</v>
+      </c>
+      <c r="E324" t="n">
+        <v>55.04</v>
+      </c>
+      <c r="F324" t="n">
+        <v>11430.1886</v>
+      </c>
+      <c r="G324" t="n">
+        <v>107992.5318758304</v>
+      </c>
+      <c r="H324" t="n">
+        <v>0</v>
+      </c>
+      <c r="I324" t="inlineStr"/>
+      <c r="J324" t="inlineStr"/>
+      <c r="K324" t="inlineStr"/>
+      <c r="L324" t="n">
+        <v>1</v>
+      </c>
+      <c r="M324" t="inlineStr"/>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="n">
+        <v>323</v>
+      </c>
+      <c r="B325" t="n">
+        <v>55.05</v>
+      </c>
+      <c r="C325" t="n">
+        <v>55.03</v>
+      </c>
+      <c r="D325" t="n">
+        <v>55.05</v>
+      </c>
+      <c r="E325" t="n">
+        <v>55.03</v>
+      </c>
+      <c r="F325" t="n">
+        <v>12495.2197</v>
+      </c>
+      <c r="G325" t="n">
+        <v>95497.31217583038</v>
+      </c>
+      <c r="H325" t="n">
+        <v>0</v>
+      </c>
+      <c r="I325" t="inlineStr"/>
+      <c r="J325" t="inlineStr"/>
+      <c r="K325" t="inlineStr"/>
+      <c r="L325" t="n">
+        <v>1</v>
+      </c>
+      <c r="M325" t="inlineStr"/>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="n">
+        <v>324</v>
+      </c>
+      <c r="B326" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="C326" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="D326" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="E326" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="F326" t="n">
+        <v>24414.1022</v>
+      </c>
+      <c r="G326" t="n">
+        <v>71083.20997583037</v>
+      </c>
+      <c r="H326" t="n">
+        <v>0</v>
+      </c>
+      <c r="I326" t="inlineStr"/>
+      <c r="J326" t="inlineStr"/>
+      <c r="K326" t="inlineStr"/>
+      <c r="L326" t="n">
+        <v>1</v>
+      </c>
+      <c r="M326" t="inlineStr"/>
+    </row>
+    <row r="327">
+      <c r="A327" s="1" t="n">
+        <v>325</v>
+      </c>
+      <c r="B327" t="n">
+        <v>55</v>
+      </c>
+      <c r="C327" t="n">
+        <v>55</v>
+      </c>
+      <c r="D327" t="n">
+        <v>55</v>
+      </c>
+      <c r="E327" t="n">
+        <v>55</v>
+      </c>
+      <c r="F327" t="n">
+        <v>17941.6249</v>
+      </c>
+      <c r="G327" t="n">
+        <v>53141.58507583037</v>
+      </c>
+      <c r="H327" t="n">
+        <v>0</v>
+      </c>
+      <c r="I327" t="inlineStr"/>
+      <c r="J327" t="inlineStr"/>
+      <c r="K327" t="inlineStr"/>
+      <c r="L327" t="n">
+        <v>1</v>
+      </c>
+      <c r="M327" t="inlineStr"/>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="n">
+        <v>326</v>
+      </c>
+      <c r="B328" t="n">
+        <v>54.88</v>
+      </c>
+      <c r="C328" t="n">
+        <v>54.87</v>
+      </c>
+      <c r="D328" t="n">
+        <v>54.88</v>
+      </c>
+      <c r="E328" t="n">
+        <v>54.87</v>
+      </c>
+      <c r="F328" t="n">
+        <v>1231.073</v>
+      </c>
+      <c r="G328" t="n">
+        <v>51910.51207583037</v>
+      </c>
+      <c r="H328" t="n">
+        <v>0</v>
+      </c>
+      <c r="I328" t="inlineStr"/>
+      <c r="J328" t="inlineStr"/>
+      <c r="K328" t="inlineStr"/>
+      <c r="L328" t="n">
+        <v>1</v>
+      </c>
+      <c r="M328" t="inlineStr"/>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="n">
+        <v>327</v>
+      </c>
+      <c r="B329" t="n">
+        <v>54.87</v>
+      </c>
+      <c r="C329" t="n">
+        <v>54.87</v>
+      </c>
+      <c r="D329" t="n">
+        <v>54.87</v>
+      </c>
+      <c r="E329" t="n">
+        <v>54.87</v>
+      </c>
+      <c r="F329" t="n">
+        <v>13729.0683</v>
+      </c>
+      <c r="G329" t="n">
+        <v>51910.51207583037</v>
+      </c>
+      <c r="H329" t="n">
+        <v>0</v>
+      </c>
+      <c r="I329" t="inlineStr"/>
+      <c r="J329" t="inlineStr"/>
+      <c r="K329" t="inlineStr"/>
+      <c r="L329" t="n">
+        <v>1</v>
+      </c>
+      <c r="M329" t="inlineStr"/>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="n">
+        <v>328</v>
+      </c>
+      <c r="B330" t="n">
+        <v>54.87</v>
+      </c>
+      <c r="C330" t="n">
+        <v>54.87</v>
+      </c>
+      <c r="D330" t="n">
+        <v>54.87</v>
+      </c>
+      <c r="E330" t="n">
+        <v>54.87</v>
+      </c>
+      <c r="F330" t="n">
+        <v>1063.5094</v>
+      </c>
+      <c r="G330" t="n">
+        <v>51910.51207583037</v>
+      </c>
+      <c r="H330" t="n">
+        <v>0</v>
+      </c>
+      <c r="I330" t="inlineStr"/>
+      <c r="J330" t="inlineStr"/>
+      <c r="K330" t="inlineStr"/>
+      <c r="L330" t="n">
+        <v>1</v>
+      </c>
+      <c r="M330" t="inlineStr"/>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="n">
+        <v>329</v>
+      </c>
+      <c r="B331" t="n">
+        <v>54.82</v>
+      </c>
+      <c r="C331" t="n">
+        <v>54.82</v>
+      </c>
+      <c r="D331" t="n">
+        <v>54.82</v>
+      </c>
+      <c r="E331" t="n">
+        <v>54.82</v>
+      </c>
+      <c r="F331" t="n">
+        <v>38747.5369</v>
+      </c>
+      <c r="G331" t="n">
+        <v>13162.97517583038</v>
+      </c>
+      <c r="H331" t="n">
+        <v>0</v>
+      </c>
+      <c r="I331" t="inlineStr"/>
+      <c r="J331" t="inlineStr"/>
+      <c r="K331" t="inlineStr"/>
+      <c r="L331" t="n">
+        <v>1</v>
+      </c>
+      <c r="M331" t="inlineStr"/>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="n">
+        <v>330</v>
+      </c>
+      <c r="B332" t="n">
+        <v>54.91</v>
+      </c>
+      <c r="C332" t="n">
+        <v>54.91</v>
+      </c>
+      <c r="D332" t="n">
+        <v>54.91</v>
+      </c>
+      <c r="E332" t="n">
+        <v>54.91</v>
+      </c>
+      <c r="F332" t="n">
+        <v>1616.9999</v>
+      </c>
+      <c r="G332" t="n">
+        <v>14779.97507583038</v>
+      </c>
+      <c r="H332" t="n">
+        <v>0</v>
+      </c>
+      <c r="I332" t="inlineStr"/>
+      <c r="J332" t="inlineStr"/>
+      <c r="K332" t="inlineStr"/>
+      <c r="L332" t="n">
+        <v>1</v>
+      </c>
+      <c r="M332" t="inlineStr"/>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="n">
+        <v>331</v>
+      </c>
+      <c r="B333" t="n">
+        <v>54.85</v>
+      </c>
+      <c r="C333" t="n">
+        <v>54.85</v>
+      </c>
+      <c r="D333" t="n">
+        <v>54.85</v>
+      </c>
+      <c r="E333" t="n">
+        <v>54.85</v>
+      </c>
+      <c r="F333" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G333" t="n">
+        <v>10779.97507583038</v>
+      </c>
+      <c r="H333" t="n">
+        <v>0</v>
+      </c>
+      <c r="I333" t="inlineStr"/>
+      <c r="J333" t="inlineStr"/>
+      <c r="K333" t="inlineStr"/>
+      <c r="L333" t="n">
+        <v>1</v>
+      </c>
+      <c r="M333" t="inlineStr"/>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="n">
+        <v>332</v>
+      </c>
+      <c r="B334" t="n">
+        <v>54.85</v>
+      </c>
+      <c r="C334" t="n">
+        <v>54.85</v>
+      </c>
+      <c r="D334" t="n">
+        <v>54.85</v>
+      </c>
+      <c r="E334" t="n">
+        <v>54.85</v>
+      </c>
+      <c r="F334" t="n">
+        <v>5158.6196</v>
+      </c>
+      <c r="G334" t="n">
+        <v>10779.97507583038</v>
+      </c>
+      <c r="H334" t="n">
+        <v>0</v>
+      </c>
+      <c r="I334" t="inlineStr"/>
+      <c r="J334" t="inlineStr"/>
+      <c r="K334" t="inlineStr"/>
+      <c r="L334" t="n">
+        <v>1</v>
+      </c>
+      <c r="M334" t="inlineStr"/>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="n">
+        <v>333</v>
+      </c>
+      <c r="B335" t="n">
+        <v>55.01</v>
+      </c>
+      <c r="C335" t="n">
+        <v>55</v>
+      </c>
+      <c r="D335" t="n">
+        <v>55.01</v>
+      </c>
+      <c r="E335" t="n">
+        <v>55</v>
+      </c>
+      <c r="F335" t="n">
+        <v>1154.1546</v>
+      </c>
+      <c r="G335" t="n">
+        <v>11934.12967583038</v>
+      </c>
+      <c r="H335" t="n">
+        <v>0</v>
+      </c>
+      <c r="I335" t="inlineStr"/>
+      <c r="J335" t="inlineStr"/>
+      <c r="K335" t="inlineStr"/>
+      <c r="L335" t="n">
+        <v>1</v>
+      </c>
+      <c r="M335" t="inlineStr"/>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="n">
+        <v>334</v>
+      </c>
+      <c r="B336" t="n">
+        <v>55</v>
+      </c>
+      <c r="C336" t="n">
+        <v>55</v>
+      </c>
+      <c r="D336" t="n">
+        <v>55</v>
+      </c>
+      <c r="E336" t="n">
+        <v>55</v>
+      </c>
+      <c r="F336" t="n">
+        <v>14280.2781</v>
+      </c>
+      <c r="G336" t="n">
+        <v>11934.12967583038</v>
+      </c>
+      <c r="H336" t="n">
+        <v>0</v>
+      </c>
+      <c r="I336" t="inlineStr"/>
+      <c r="J336" t="inlineStr"/>
+      <c r="K336" t="inlineStr"/>
+      <c r="L336" t="n">
+        <v>1</v>
+      </c>
+      <c r="M336" t="inlineStr"/>
+    </row>
+    <row r="337">
+      <c r="A337" s="1" t="n">
+        <v>335</v>
+      </c>
+      <c r="B337" t="n">
+        <v>55</v>
+      </c>
+      <c r="C337" t="n">
+        <v>55</v>
+      </c>
+      <c r="D337" t="n">
+        <v>55</v>
+      </c>
+      <c r="E337" t="n">
+        <v>55</v>
+      </c>
+      <c r="F337" t="n">
+        <v>2646.3542</v>
+      </c>
+      <c r="G337" t="n">
+        <v>11934.12967583038</v>
+      </c>
+      <c r="H337" t="n">
+        <v>0</v>
+      </c>
+      <c r="I337" t="inlineStr"/>
+      <c r="J337" t="inlineStr"/>
+      <c r="K337" t="inlineStr"/>
+      <c r="L337" t="n">
+        <v>1</v>
+      </c>
+      <c r="M337" t="inlineStr"/>
+    </row>
+    <row r="338">
+      <c r="A338" s="1" t="n">
+        <v>336</v>
+      </c>
+      <c r="B338" t="n">
+        <v>55</v>
+      </c>
+      <c r="C338" t="n">
+        <v>55</v>
+      </c>
+      <c r="D338" t="n">
+        <v>55</v>
+      </c>
+      <c r="E338" t="n">
+        <v>55</v>
+      </c>
+      <c r="F338" t="n">
+        <v>1818.18181818</v>
+      </c>
+      <c r="G338" t="n">
+        <v>11934.12967583038</v>
+      </c>
+      <c r="H338" t="n">
+        <v>0</v>
+      </c>
+      <c r="I338" t="inlineStr"/>
+      <c r="J338" t="inlineStr"/>
+      <c r="K338" t="inlineStr"/>
+      <c r="L338" t="n">
+        <v>1</v>
+      </c>
+      <c r="M338" t="inlineStr"/>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="n">
+        <v>337</v>
+      </c>
+      <c r="B339" t="n">
+        <v>55</v>
+      </c>
+      <c r="C339" t="n">
+        <v>55</v>
+      </c>
+      <c r="D339" t="n">
+        <v>55</v>
+      </c>
+      <c r="E339" t="n">
+        <v>55</v>
+      </c>
+      <c r="F339" t="n">
+        <v>669.1566</v>
+      </c>
+      <c r="G339" t="n">
+        <v>11934.12967583038</v>
+      </c>
+      <c r="H339" t="n">
+        <v>0</v>
+      </c>
+      <c r="I339" t="inlineStr"/>
+      <c r="J339" t="inlineStr"/>
+      <c r="K339" t="inlineStr"/>
+      <c r="L339" t="n">
+        <v>1</v>
+      </c>
+      <c r="M339" t="inlineStr"/>
+    </row>
+    <row r="340">
+      <c r="A340" s="1" t="n">
+        <v>338</v>
+      </c>
+      <c r="B340" t="n">
+        <v>55</v>
+      </c>
+      <c r="C340" t="n">
+        <v>55</v>
+      </c>
+      <c r="D340" t="n">
+        <v>55</v>
+      </c>
+      <c r="E340" t="n">
+        <v>55</v>
+      </c>
+      <c r="F340" t="n">
+        <v>10713.4313</v>
+      </c>
+      <c r="G340" t="n">
+        <v>11934.12967583038</v>
+      </c>
+      <c r="H340" t="n">
+        <v>1</v>
+      </c>
+      <c r="I340" t="n">
+        <v>55</v>
+      </c>
+      <c r="J340" t="n">
+        <v>55</v>
+      </c>
+      <c r="K340" t="inlineStr"/>
+      <c r="L340" t="n">
+        <v>1</v>
+      </c>
+      <c r="M340" t="inlineStr"/>
+    </row>
+    <row r="341">
+      <c r="A341" s="1" t="n">
+        <v>339</v>
+      </c>
+      <c r="B341" t="n">
+        <v>54.88</v>
+      </c>
+      <c r="C341" t="n">
+        <v>54.88</v>
+      </c>
+      <c r="D341" t="n">
+        <v>54.88</v>
+      </c>
+      <c r="E341" t="n">
+        <v>54.88</v>
+      </c>
+      <c r="F341" t="n">
+        <v>211.4</v>
+      </c>
+      <c r="G341" t="n">
+        <v>11722.72967583038</v>
+      </c>
+      <c r="H341" t="n">
+        <v>1</v>
+      </c>
+      <c r="I341" t="n">
+        <v>55</v>
+      </c>
+      <c r="J341" t="n">
+        <v>55</v>
+      </c>
+      <c r="K341" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
-        <v>231</v>
-      </c>
-      <c r="B233" t="n">
-        <v>54.73</v>
-      </c>
-      <c r="C233" t="n">
-        <v>54.83</v>
-      </c>
-      <c r="D233" t="n">
-        <v>54.83</v>
-      </c>
-      <c r="E233" t="n">
-        <v>54.73</v>
-      </c>
-      <c r="F233" t="n">
-        <v>1489.2808</v>
-      </c>
-      <c r="G233" t="n">
-        <v>230542.1628758303</v>
-      </c>
-      <c r="H233" t="n">
-        <v>1</v>
-      </c>
-      <c r="I233" t="n">
-        <v>54.8</v>
-      </c>
-      <c r="J233" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="K233" t="inlineStr">
+      <c r="L341" t="n">
+        <v>1</v>
+      </c>
+      <c r="M341" t="inlineStr"/>
+    </row>
+    <row r="342">
+      <c r="A342" s="1" t="n">
+        <v>340</v>
+      </c>
+      <c r="B342" t="n">
+        <v>55</v>
+      </c>
+      <c r="C342" t="n">
+        <v>55.01</v>
+      </c>
+      <c r="D342" t="n">
+        <v>55.01</v>
+      </c>
+      <c r="E342" t="n">
+        <v>55</v>
+      </c>
+      <c r="F342" t="n">
+        <v>51471.44338182</v>
+      </c>
+      <c r="G342" t="n">
+        <v>63194.17305765038</v>
+      </c>
+      <c r="H342" t="n">
+        <v>1</v>
+      </c>
+      <c r="I342" t="n">
+        <v>54.88</v>
+      </c>
+      <c r="J342" t="n">
+        <v>55</v>
+      </c>
+      <c r="K342" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="n">
-        <v>232</v>
-      </c>
-      <c r="B234" t="n">
-        <v>54.86</v>
-      </c>
-      <c r="C234" t="n">
-        <v>54.87</v>
-      </c>
-      <c r="D234" t="n">
-        <v>54.87</v>
-      </c>
-      <c r="E234" t="n">
-        <v>54.86</v>
-      </c>
-      <c r="F234" t="n">
-        <v>2488</v>
-      </c>
-      <c r="G234" t="n">
-        <v>233030.1628758303</v>
-      </c>
-      <c r="H234" t="n">
-        <v>1</v>
-      </c>
-      <c r="I234" t="n">
-        <v>54.83</v>
-      </c>
-      <c r="J234" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="n">
-        <v>233</v>
-      </c>
-      <c r="B235" t="n">
-        <v>54.87</v>
-      </c>
-      <c r="C235" t="n">
-        <v>54.87</v>
-      </c>
-      <c r="D235" t="n">
-        <v>54.87</v>
-      </c>
-      <c r="E235" t="n">
-        <v>54.87</v>
-      </c>
-      <c r="F235" t="n">
-        <v>499</v>
-      </c>
-      <c r="G235" t="n">
-        <v>233030.1628758303</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="n">
-        <v>234</v>
-      </c>
-      <c r="B236" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="C236" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="D236" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="E236" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="F236" t="n">
-        <v>1238.9603</v>
-      </c>
-      <c r="G236" t="n">
-        <v>234269.1231758303</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
-    </row>
-    <row r="237">
-      <c r="A237" s="1" t="n">
-        <v>235</v>
-      </c>
-      <c r="B237" t="n">
-        <v>54.96</v>
-      </c>
-      <c r="C237" t="n">
-        <v>54.96</v>
-      </c>
-      <c r="D237" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="E237" t="n">
-        <v>54.96</v>
-      </c>
-      <c r="F237" t="n">
-        <v>18233.3333</v>
-      </c>
-      <c r="G237" t="n">
-        <v>252502.4564758303</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="n">
-        <v>236</v>
-      </c>
-      <c r="B238" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="C238" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="D238" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="E238" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="F238" t="n">
-        <v>124.4152</v>
-      </c>
-      <c r="G238" t="n">
-        <v>252626.8716758303</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
-    </row>
-    <row r="239">
-      <c r="A239" s="1" t="n">
-        <v>237</v>
-      </c>
-      <c r="B239" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="C239" t="n">
-        <v>55.22</v>
-      </c>
-      <c r="D239" t="n">
-        <v>55.22</v>
-      </c>
-      <c r="E239" t="n">
-        <v>55.1</v>
-      </c>
-      <c r="F239" t="n">
-        <v>20980.5086</v>
-      </c>
-      <c r="G239" t="n">
-        <v>273607.3802758303</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
-    </row>
-    <row r="240">
-      <c r="A240" s="1" t="n">
-        <v>238</v>
-      </c>
-      <c r="B240" t="n">
-        <v>55.16</v>
-      </c>
-      <c r="C240" t="n">
-        <v>55.16</v>
-      </c>
-      <c r="D240" t="n">
-        <v>55.16</v>
-      </c>
-      <c r="E240" t="n">
-        <v>55.16</v>
-      </c>
-      <c r="F240" t="n">
-        <v>1802.032</v>
-      </c>
-      <c r="G240" t="n">
-        <v>271805.3482758303</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
-    </row>
-    <row r="241">
-      <c r="A241" s="1" t="n">
-        <v>239</v>
-      </c>
-      <c r="B241" t="n">
-        <v>55.24</v>
-      </c>
-      <c r="C241" t="n">
-        <v>55.24</v>
-      </c>
-      <c r="D241" t="n">
-        <v>55.24</v>
-      </c>
-      <c r="E241" t="n">
-        <v>55.24</v>
-      </c>
-      <c r="F241" t="n">
-        <v>3693.675</v>
-      </c>
-      <c r="G241" t="n">
-        <v>275499.0232758303</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
-    </row>
-    <row r="242">
-      <c r="A242" s="1" t="n">
-        <v>240</v>
-      </c>
-      <c r="B242" t="n">
-        <v>55.21</v>
-      </c>
-      <c r="C242" t="n">
-        <v>55.2</v>
-      </c>
-      <c r="D242" t="n">
-        <v>55.21</v>
-      </c>
-      <c r="E242" t="n">
-        <v>55.2</v>
-      </c>
-      <c r="F242" t="n">
-        <v>2703.558</v>
-      </c>
-      <c r="G242" t="n">
-        <v>272795.4652758303</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
-    </row>
-    <row r="243">
-      <c r="A243" s="1" t="n">
-        <v>241</v>
-      </c>
-      <c r="B243" t="n">
-        <v>55.17</v>
-      </c>
-      <c r="C243" t="n">
-        <v>55.16</v>
-      </c>
-      <c r="D243" t="n">
-        <v>55.17</v>
-      </c>
-      <c r="E243" t="n">
-        <v>55.16</v>
-      </c>
-      <c r="F243" t="n">
-        <v>5597.298</v>
-      </c>
-      <c r="G243" t="n">
-        <v>267198.1672758303</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
-    </row>
-    <row r="244">
-      <c r="A244" s="1" t="n">
-        <v>242</v>
-      </c>
-      <c r="B244" t="n">
-        <v>55.16</v>
-      </c>
-      <c r="C244" t="n">
-        <v>55.15</v>
-      </c>
-      <c r="D244" t="n">
-        <v>55.16</v>
-      </c>
-      <c r="E244" t="n">
-        <v>55.15</v>
-      </c>
-      <c r="F244" t="n">
-        <v>273.8268</v>
-      </c>
-      <c r="G244" t="n">
-        <v>266924.3404758303</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
-    </row>
-    <row r="245">
-      <c r="A245" s="1" t="n">
-        <v>243</v>
-      </c>
-      <c r="B245" t="n">
-        <v>55.16</v>
-      </c>
-      <c r="C245" t="n">
-        <v>55.05</v>
-      </c>
-      <c r="D245" t="n">
-        <v>55.16</v>
-      </c>
-      <c r="E245" t="n">
-        <v>55.05</v>
-      </c>
-      <c r="F245" t="n">
-        <v>7352.4922</v>
-      </c>
-      <c r="G245" t="n">
-        <v>259571.8482758303</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
-    </row>
-    <row r="246">
-      <c r="A246" s="1" t="n">
-        <v>244</v>
-      </c>
-      <c r="B246" t="n">
-        <v>55.04</v>
-      </c>
-      <c r="C246" t="n">
-        <v>55.04</v>
-      </c>
-      <c r="D246" t="n">
-        <v>55.04</v>
-      </c>
-      <c r="E246" t="n">
-        <v>55.04</v>
-      </c>
-      <c r="F246" t="n">
-        <v>11045.9021</v>
-      </c>
-      <c r="G246" t="n">
-        <v>248525.9461758303</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
-    </row>
-    <row r="247">
-      <c r="A247" s="1" t="n">
-        <v>245</v>
-      </c>
-      <c r="B247" t="n">
-        <v>55.04</v>
-      </c>
-      <c r="C247" t="n">
-        <v>55.04</v>
-      </c>
-      <c r="D247" t="n">
-        <v>55.04</v>
-      </c>
-      <c r="E247" t="n">
-        <v>55.04</v>
-      </c>
-      <c r="F247" t="n">
-        <v>978.1815</v>
-      </c>
-      <c r="G247" t="n">
-        <v>248525.9461758303</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
-    </row>
-    <row r="248">
-      <c r="A248" s="1" t="n">
-        <v>246</v>
-      </c>
-      <c r="B248" t="n">
-        <v>55.01</v>
-      </c>
-      <c r="C248" t="n">
-        <v>55.01</v>
-      </c>
-      <c r="D248" t="n">
-        <v>55.01</v>
-      </c>
-      <c r="E248" t="n">
-        <v>55.01</v>
-      </c>
-      <c r="F248" t="n">
-        <v>2487.6715</v>
-      </c>
-      <c r="G248" t="n">
-        <v>246038.2746758303</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
-    </row>
-    <row r="249">
-      <c r="A249" s="1" t="n">
-        <v>247</v>
-      </c>
-      <c r="B249" t="n">
-        <v>55.01</v>
-      </c>
-      <c r="C249" t="n">
-        <v>55.04</v>
-      </c>
-      <c r="D249" t="n">
-        <v>55.04</v>
-      </c>
-      <c r="E249" t="n">
-        <v>55.01</v>
-      </c>
-      <c r="F249" t="n">
-        <v>688.0624</v>
-      </c>
-      <c r="G249" t="n">
-        <v>246726.3370758303</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
-    </row>
-    <row r="250">
-      <c r="A250" s="1" t="n">
-        <v>248</v>
-      </c>
-      <c r="B250" t="n">
-        <v>55.04</v>
-      </c>
-      <c r="C250" t="n">
-        <v>55.04</v>
-      </c>
-      <c r="D250" t="n">
-        <v>55.04</v>
-      </c>
-      <c r="E250" t="n">
-        <v>55.04</v>
-      </c>
-      <c r="F250" t="n">
-        <v>994.769</v>
-      </c>
-      <c r="G250" t="n">
-        <v>246726.3370758303</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
-    </row>
-    <row r="251">
-      <c r="A251" s="1" t="n">
-        <v>249</v>
-      </c>
-      <c r="B251" t="n">
-        <v>55.04</v>
-      </c>
-      <c r="C251" t="n">
-        <v>54.91</v>
-      </c>
-      <c r="D251" t="n">
-        <v>55.04</v>
-      </c>
-      <c r="E251" t="n">
-        <v>54.91</v>
-      </c>
-      <c r="F251" t="n">
-        <v>1916</v>
-      </c>
-      <c r="G251" t="n">
-        <v>244810.3370758303</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
-    </row>
-    <row r="252">
-      <c r="A252" s="1" t="n">
-        <v>250</v>
-      </c>
-      <c r="B252" t="n">
-        <v>54.93</v>
-      </c>
-      <c r="C252" t="n">
-        <v>54.93</v>
-      </c>
-      <c r="D252" t="n">
-        <v>54.93</v>
-      </c>
-      <c r="E252" t="n">
-        <v>54.93</v>
-      </c>
-      <c r="F252" t="n">
-        <v>626.6572</v>
-      </c>
-      <c r="G252" t="n">
-        <v>245436.9942758303</v>
-      </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
-    </row>
-    <row r="253">
-      <c r="A253" s="1" t="n">
-        <v>251</v>
-      </c>
-      <c r="B253" t="n">
-        <v>55</v>
-      </c>
-      <c r="C253" t="n">
-        <v>55</v>
-      </c>
-      <c r="D253" t="n">
-        <v>55</v>
-      </c>
-      <c r="E253" t="n">
-        <v>55</v>
-      </c>
-      <c r="F253" t="n">
-        <v>9084.5525</v>
-      </c>
-      <c r="G253" t="n">
-        <v>254521.5467758303</v>
-      </c>
-      <c r="H253" t="n">
-        <v>1</v>
-      </c>
-      <c r="I253" t="n">
-        <v>54.93</v>
-      </c>
-      <c r="J253" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
-    </row>
-    <row r="254">
-      <c r="A254" s="1" t="n">
-        <v>252</v>
-      </c>
-      <c r="B254" t="n">
-        <v>54.93</v>
-      </c>
-      <c r="C254" t="n">
-        <v>54.76</v>
-      </c>
-      <c r="D254" t="n">
-        <v>54.93</v>
-      </c>
-      <c r="E254" t="n">
-        <v>54.76</v>
-      </c>
-      <c r="F254" t="n">
-        <v>10045.6248</v>
-      </c>
-      <c r="G254" t="n">
-        <v>244475.9219758303</v>
-      </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
-    </row>
-    <row r="255">
-      <c r="A255" s="1" t="n">
-        <v>253</v>
-      </c>
-      <c r="B255" t="n">
-        <v>54.89</v>
-      </c>
-      <c r="C255" t="n">
-        <v>54.89</v>
-      </c>
-      <c r="D255" t="n">
-        <v>54.89</v>
-      </c>
-      <c r="E255" t="n">
-        <v>54.89</v>
-      </c>
-      <c r="F255" t="n">
-        <v>659</v>
-      </c>
-      <c r="G255" t="n">
-        <v>245134.9219758303</v>
-      </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
-    </row>
-    <row r="256">
-      <c r="A256" s="1" t="n">
-        <v>254</v>
-      </c>
-      <c r="B256" t="n">
-        <v>54.89</v>
-      </c>
-      <c r="C256" t="n">
-        <v>54.89</v>
-      </c>
-      <c r="D256" t="n">
-        <v>54.89</v>
-      </c>
-      <c r="E256" t="n">
-        <v>54.89</v>
-      </c>
-      <c r="F256" t="n">
-        <v>1205.4353</v>
-      </c>
-      <c r="G256" t="n">
-        <v>245134.9219758303</v>
-      </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
-    </row>
-    <row r="257">
-      <c r="A257" s="1" t="n">
-        <v>255</v>
-      </c>
-      <c r="B257" t="n">
-        <v>54.93</v>
-      </c>
-      <c r="C257" t="n">
-        <v>54.93</v>
-      </c>
-      <c r="D257" t="n">
-        <v>54.93</v>
-      </c>
-      <c r="E257" t="n">
-        <v>54.93</v>
-      </c>
-      <c r="F257" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G257" t="n">
-        <v>246134.9219758303</v>
-      </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
-    </row>
-    <row r="258">
-      <c r="A258" s="1" t="n">
-        <v>256</v>
-      </c>
-      <c r="B258" t="n">
-        <v>55.01</v>
-      </c>
-      <c r="C258" t="n">
-        <v>55.01</v>
-      </c>
-      <c r="D258" t="n">
-        <v>55.01</v>
-      </c>
-      <c r="E258" t="n">
-        <v>55.01</v>
-      </c>
-      <c r="F258" t="n">
-        <v>2840.5028</v>
-      </c>
-      <c r="G258" t="n">
-        <v>248975.4247758303</v>
-      </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
-      <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
-    </row>
-    <row r="259">
-      <c r="A259" s="1" t="n">
-        <v>257</v>
-      </c>
-      <c r="B259" t="n">
-        <v>55.02</v>
-      </c>
-      <c r="C259" t="n">
-        <v>55.02</v>
-      </c>
-      <c r="D259" t="n">
-        <v>55.02</v>
-      </c>
-      <c r="E259" t="n">
-        <v>55.02</v>
-      </c>
-      <c r="F259" t="n">
-        <v>1084.6799</v>
-      </c>
-      <c r="G259" t="n">
-        <v>250060.1046758303</v>
-      </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
-    </row>
-    <row r="260">
-      <c r="A260" s="1" t="n">
-        <v>258</v>
-      </c>
-      <c r="B260" t="n">
-        <v>55.02</v>
-      </c>
-      <c r="C260" t="n">
-        <v>55.02</v>
-      </c>
-      <c r="D260" t="n">
-        <v>55.02</v>
-      </c>
-      <c r="E260" t="n">
-        <v>55.02</v>
-      </c>
-      <c r="F260" t="n">
-        <v>972.7521</v>
-      </c>
-      <c r="G260" t="n">
-        <v>250060.1046758303</v>
-      </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M260" t="inlineStr"/>
-    </row>
-    <row r="261">
-      <c r="A261" s="1" t="n">
-        <v>259</v>
-      </c>
-      <c r="B261" t="n">
-        <v>55.01</v>
-      </c>
-      <c r="C261" t="n">
-        <v>55.01</v>
-      </c>
-      <c r="D261" t="n">
-        <v>55.01</v>
-      </c>
-      <c r="E261" t="n">
-        <v>55.01</v>
-      </c>
-      <c r="F261" t="n">
-        <v>31.0684</v>
-      </c>
-      <c r="G261" t="n">
-        <v>250029.0362758303</v>
-      </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
-    </row>
-    <row r="262">
-      <c r="A262" s="1" t="n">
-        <v>260</v>
-      </c>
-      <c r="B262" t="n">
-        <v>55.02</v>
-      </c>
-      <c r="C262" t="n">
-        <v>55.02</v>
-      </c>
-      <c r="D262" t="n">
-        <v>55.02</v>
-      </c>
-      <c r="E262" t="n">
-        <v>55.02</v>
-      </c>
-      <c r="F262" t="n">
-        <v>2453.7599</v>
-      </c>
-      <c r="G262" t="n">
-        <v>252482.7961758303</v>
-      </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L262" t="n">
-        <v>1</v>
-      </c>
-      <c r="M262" t="inlineStr"/>
-    </row>
-    <row r="263">
-      <c r="A263" s="1" t="n">
-        <v>261</v>
-      </c>
-      <c r="B263" t="n">
-        <v>55.01</v>
-      </c>
-      <c r="C263" t="n">
-        <v>54.98</v>
-      </c>
-      <c r="D263" t="n">
-        <v>55.01</v>
-      </c>
-      <c r="E263" t="n">
-        <v>54.98</v>
-      </c>
-      <c r="F263" t="n">
-        <v>89.2146</v>
-      </c>
-      <c r="G263" t="n">
-        <v>252393.5815758303</v>
-      </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L263" t="n">
-        <v>1</v>
-      </c>
-      <c r="M263" t="inlineStr"/>
-    </row>
-    <row r="264">
-      <c r="A264" s="1" t="n">
-        <v>262</v>
-      </c>
-      <c r="B264" t="n">
-        <v>54.91</v>
-      </c>
-      <c r="C264" t="n">
-        <v>54.78</v>
-      </c>
-      <c r="D264" t="n">
-        <v>55.01</v>
-      </c>
-      <c r="E264" t="n">
-        <v>54.69</v>
-      </c>
-      <c r="F264" t="n">
-        <v>2079.4606</v>
-      </c>
-      <c r="G264" t="n">
-        <v>250314.1209758303</v>
-      </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L264" t="n">
-        <v>1</v>
-      </c>
-      <c r="M264" t="inlineStr"/>
-    </row>
-    <row r="265">
-      <c r="A265" s="1" t="n">
-        <v>263</v>
-      </c>
-      <c r="B265" t="n">
-        <v>54.91</v>
-      </c>
-      <c r="C265" t="n">
-        <v>54.91</v>
-      </c>
-      <c r="D265" t="n">
-        <v>54.91</v>
-      </c>
-      <c r="E265" t="n">
-        <v>54.91</v>
-      </c>
-      <c r="F265" t="n">
-        <v>10</v>
-      </c>
-      <c r="G265" t="n">
-        <v>250324.1209758303</v>
-      </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L265" t="n">
-        <v>1</v>
-      </c>
-      <c r="M265" t="inlineStr"/>
-    </row>
-    <row r="266">
-      <c r="A266" s="1" t="n">
-        <v>264</v>
-      </c>
-      <c r="B266" t="n">
-        <v>54.79</v>
-      </c>
-      <c r="C266" t="n">
-        <v>54.79</v>
-      </c>
-      <c r="D266" t="n">
-        <v>54.79</v>
-      </c>
-      <c r="E266" t="n">
-        <v>54.79</v>
-      </c>
-      <c r="F266" t="n">
-        <v>633</v>
-      </c>
-      <c r="G266" t="n">
-        <v>249691.1209758303</v>
-      </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L266" t="n">
-        <v>1</v>
-      </c>
-      <c r="M266" t="inlineStr"/>
-    </row>
-    <row r="267">
-      <c r="A267" s="1" t="n">
-        <v>265</v>
-      </c>
-      <c r="B267" t="n">
-        <v>54.8</v>
-      </c>
-      <c r="C267" t="n">
-        <v>54.8</v>
-      </c>
-      <c r="D267" t="n">
-        <v>54.8</v>
-      </c>
-      <c r="E267" t="n">
-        <v>54.8</v>
-      </c>
-      <c r="F267" t="n">
-        <v>930</v>
-      </c>
-      <c r="G267" t="n">
-        <v>250621.1209758303</v>
-      </c>
-      <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L267" t="n">
-        <v>1</v>
-      </c>
-      <c r="M267" t="inlineStr"/>
-    </row>
-    <row r="268">
-      <c r="A268" s="1" t="n">
-        <v>266</v>
-      </c>
-      <c r="B268" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="C268" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="D268" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="E268" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="F268" t="n">
-        <v>1446.26593806</v>
-      </c>
-      <c r="G268" t="n">
-        <v>252067.3869138903</v>
-      </c>
-      <c r="H268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L268" t="n">
-        <v>1</v>
-      </c>
-      <c r="M268" t="inlineStr"/>
-    </row>
-    <row r="269">
-      <c r="A269" s="1" t="n">
-        <v>267</v>
-      </c>
-      <c r="B269" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="C269" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="D269" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="E269" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="F269" t="n">
-        <v>14.5021</v>
-      </c>
-      <c r="G269" t="n">
-        <v>252067.3869138903</v>
-      </c>
-      <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L269" t="n">
-        <v>1</v>
-      </c>
-      <c r="M269" t="inlineStr"/>
-    </row>
-    <row r="270">
-      <c r="A270" s="1" t="n">
-        <v>268</v>
-      </c>
-      <c r="B270" t="n">
-        <v>54.75</v>
-      </c>
-      <c r="C270" t="n">
-        <v>54.8</v>
-      </c>
-      <c r="D270" t="n">
-        <v>54.8</v>
-      </c>
-      <c r="E270" t="n">
-        <v>54.64</v>
-      </c>
-      <c r="F270" t="n">
-        <v>8652.188200000001</v>
-      </c>
-      <c r="G270" t="n">
-        <v>243415.1987138903</v>
-      </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L270" t="n">
-        <v>1</v>
-      </c>
-      <c r="M270" t="inlineStr"/>
-    </row>
-    <row r="271">
-      <c r="A271" s="1" t="n">
-        <v>269</v>
-      </c>
-      <c r="B271" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="C271" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="D271" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="E271" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="F271" t="n">
-        <v>15088.33866194</v>
-      </c>
-      <c r="G271" t="n">
-        <v>258503.5373758303</v>
-      </c>
-      <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L271" t="n">
-        <v>1</v>
-      </c>
-      <c r="M271" t="inlineStr"/>
-    </row>
-    <row r="272">
-      <c r="A272" s="1" t="n">
-        <v>270</v>
-      </c>
-      <c r="B272" t="n">
-        <v>54.92</v>
-      </c>
-      <c r="C272" t="n">
-        <v>54.92</v>
-      </c>
-      <c r="D272" t="n">
-        <v>54.92</v>
-      </c>
-      <c r="E272" t="n">
-        <v>54.92</v>
-      </c>
-      <c r="F272" t="n">
-        <v>550.165</v>
-      </c>
-      <c r="G272" t="n">
-        <v>259053.7023758303</v>
-      </c>
-      <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L272" t="n">
-        <v>1</v>
-      </c>
-      <c r="M272" t="inlineStr"/>
-    </row>
-    <row r="273">
-      <c r="A273" s="1" t="n">
-        <v>271</v>
-      </c>
-      <c r="B273" t="n">
-        <v>55</v>
-      </c>
-      <c r="C273" t="n">
-        <v>55</v>
-      </c>
-      <c r="D273" t="n">
-        <v>55</v>
-      </c>
-      <c r="E273" t="n">
-        <v>55</v>
-      </c>
-      <c r="F273" t="n">
-        <v>338</v>
-      </c>
-      <c r="G273" t="n">
-        <v>259391.7023758303</v>
-      </c>
-      <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L273" t="n">
-        <v>1</v>
-      </c>
-      <c r="M273" t="inlineStr"/>
-    </row>
-    <row r="274">
-      <c r="A274" s="1" t="n">
-        <v>272</v>
-      </c>
-      <c r="B274" t="n">
-        <v>55.02</v>
-      </c>
-      <c r="C274" t="n">
-        <v>55.02</v>
-      </c>
-      <c r="D274" t="n">
-        <v>55.02</v>
-      </c>
-      <c r="E274" t="n">
-        <v>55.02</v>
-      </c>
-      <c r="F274" t="n">
-        <v>1361.8653</v>
-      </c>
-      <c r="G274" t="n">
-        <v>260753.5676758303</v>
-      </c>
-      <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L274" t="n">
-        <v>1</v>
-      </c>
-      <c r="M274" t="inlineStr"/>
-    </row>
-    <row r="275">
-      <c r="A275" s="1" t="n">
-        <v>273</v>
-      </c>
-      <c r="B275" t="n">
-        <v>55.02</v>
-      </c>
-      <c r="C275" t="n">
-        <v>55.02</v>
-      </c>
-      <c r="D275" t="n">
-        <v>55.02</v>
-      </c>
-      <c r="E275" t="n">
-        <v>55.02</v>
-      </c>
-      <c r="F275" t="n">
-        <v>6547.318</v>
-      </c>
-      <c r="G275" t="n">
-        <v>260753.5676758303</v>
-      </c>
-      <c r="H275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L275" t="n">
-        <v>1</v>
-      </c>
-      <c r="M275" t="inlineStr"/>
-    </row>
-    <row r="276">
-      <c r="A276" s="1" t="n">
-        <v>274</v>
-      </c>
-      <c r="B276" t="n">
-        <v>55.02</v>
-      </c>
-      <c r="C276" t="n">
-        <v>55.02</v>
-      </c>
-      <c r="D276" t="n">
-        <v>55.02</v>
-      </c>
-      <c r="E276" t="n">
-        <v>55.02</v>
-      </c>
-      <c r="F276" t="n">
-        <v>239.5598</v>
-      </c>
-      <c r="G276" t="n">
-        <v>260753.5676758303</v>
-      </c>
-      <c r="H276" t="n">
-        <v>0</v>
-      </c>
-      <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L276" t="n">
-        <v>1</v>
-      </c>
-      <c r="M276" t="inlineStr"/>
-    </row>
-    <row r="277">
-      <c r="A277" s="1" t="n">
-        <v>275</v>
-      </c>
-      <c r="B277" t="n">
-        <v>55.15</v>
-      </c>
-      <c r="C277" t="n">
-        <v>55.15</v>
-      </c>
-      <c r="D277" t="n">
-        <v>55.15</v>
-      </c>
-      <c r="E277" t="n">
-        <v>55.15</v>
-      </c>
-      <c r="F277" t="n">
-        <v>572.1716</v>
-      </c>
-      <c r="G277" t="n">
-        <v>261325.7392758303</v>
-      </c>
-      <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L277" t="n">
-        <v>1</v>
-      </c>
-      <c r="M277" t="inlineStr"/>
-    </row>
-    <row r="278">
-      <c r="A278" s="1" t="n">
-        <v>276</v>
-      </c>
-      <c r="B278" t="n">
-        <v>55.15</v>
-      </c>
-      <c r="C278" t="n">
-        <v>55.14</v>
-      </c>
-      <c r="D278" t="n">
-        <v>55.15</v>
-      </c>
-      <c r="E278" t="n">
-        <v>55.14</v>
-      </c>
-      <c r="F278" t="n">
-        <v>3285.4411</v>
-      </c>
-      <c r="G278" t="n">
-        <v>258040.2981758303</v>
-      </c>
-      <c r="H278" t="n">
-        <v>0</v>
-      </c>
-      <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L278" t="n">
-        <v>1</v>
-      </c>
-      <c r="M278" t="inlineStr"/>
-    </row>
-    <row r="279">
-      <c r="A279" s="1" t="n">
-        <v>277</v>
-      </c>
-      <c r="B279" t="n">
-        <v>55.15</v>
-      </c>
-      <c r="C279" t="n">
-        <v>55.15</v>
-      </c>
-      <c r="D279" t="n">
-        <v>55.15</v>
-      </c>
-      <c r="E279" t="n">
-        <v>55.15</v>
-      </c>
-      <c r="F279" t="n">
-        <v>12810.0035</v>
-      </c>
-      <c r="G279" t="n">
-        <v>270850.3016758303</v>
-      </c>
-      <c r="H279" t="n">
-        <v>0</v>
-      </c>
-      <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L279" t="n">
-        <v>1</v>
-      </c>
-      <c r="M279" t="inlineStr"/>
-    </row>
-    <row r="280">
-      <c r="A280" s="1" t="n">
-        <v>278</v>
-      </c>
-      <c r="B280" t="n">
-        <v>55.2</v>
-      </c>
-      <c r="C280" t="n">
-        <v>55.2</v>
-      </c>
-      <c r="D280" t="n">
-        <v>55.2</v>
-      </c>
-      <c r="E280" t="n">
-        <v>55.2</v>
-      </c>
-      <c r="F280" t="n">
-        <v>8539.2639</v>
-      </c>
-      <c r="G280" t="n">
-        <v>279389.5655758303</v>
-      </c>
-      <c r="H280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L280" t="n">
-        <v>1</v>
-      </c>
-      <c r="M280" t="inlineStr"/>
-    </row>
-    <row r="281">
-      <c r="A281" s="1" t="n">
-        <v>279</v>
-      </c>
-      <c r="B281" t="n">
-        <v>55.2</v>
-      </c>
-      <c r="C281" t="n">
-        <v>55.2</v>
-      </c>
-      <c r="D281" t="n">
-        <v>55.2</v>
-      </c>
-      <c r="E281" t="n">
-        <v>55.2</v>
-      </c>
-      <c r="F281" t="n">
-        <v>30760.209</v>
-      </c>
-      <c r="G281" t="n">
-        <v>279389.5655758303</v>
-      </c>
-      <c r="H281" t="n">
-        <v>0</v>
-      </c>
-      <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L281" t="n">
-        <v>1</v>
-      </c>
-      <c r="M281" t="inlineStr"/>
-    </row>
-    <row r="282">
-      <c r="A282" s="1" t="n">
-        <v>280</v>
-      </c>
-      <c r="B282" t="n">
-        <v>55.22</v>
-      </c>
-      <c r="C282" t="n">
-        <v>55.22</v>
-      </c>
-      <c r="D282" t="n">
-        <v>55.22</v>
-      </c>
-      <c r="E282" t="n">
-        <v>55.22</v>
-      </c>
-      <c r="F282" t="n">
-        <v>181</v>
-      </c>
-      <c r="G282" t="n">
-        <v>279570.5655758303</v>
-      </c>
-      <c r="H282" t="n">
-        <v>0</v>
-      </c>
-      <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L282" t="n">
-        <v>1</v>
-      </c>
-      <c r="M282" t="inlineStr"/>
-    </row>
-    <row r="283">
-      <c r="A283" s="1" t="n">
-        <v>281</v>
-      </c>
-      <c r="B283" t="n">
-        <v>55.22</v>
-      </c>
-      <c r="C283" t="n">
-        <v>55.2</v>
-      </c>
-      <c r="D283" t="n">
-        <v>55.25</v>
-      </c>
-      <c r="E283" t="n">
-        <v>55.2</v>
-      </c>
-      <c r="F283" t="n">
-        <v>5211.4682</v>
-      </c>
-      <c r="G283" t="n">
-        <v>274359.0973758303</v>
-      </c>
-      <c r="H283" t="n">
-        <v>0</v>
-      </c>
-      <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L283" t="n">
-        <v>1</v>
-      </c>
-      <c r="M283" t="inlineStr"/>
-    </row>
-    <row r="284">
-      <c r="A284" s="1" t="n">
-        <v>282</v>
-      </c>
-      <c r="B284" t="n">
-        <v>55.2</v>
-      </c>
-      <c r="C284" t="n">
-        <v>55.2</v>
-      </c>
-      <c r="D284" t="n">
-        <v>55.2</v>
-      </c>
-      <c r="E284" t="n">
-        <v>55.2</v>
-      </c>
-      <c r="F284" t="n">
-        <v>36475.9815</v>
-      </c>
-      <c r="G284" t="n">
-        <v>274359.0973758303</v>
-      </c>
-      <c r="H284" t="n">
-        <v>0</v>
-      </c>
-      <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L284" t="n">
-        <v>1</v>
-      </c>
-      <c r="M284" t="inlineStr"/>
-    </row>
-    <row r="285">
-      <c r="A285" s="1" t="n">
-        <v>283</v>
-      </c>
-      <c r="B285" t="n">
-        <v>55.2</v>
-      </c>
-      <c r="C285" t="n">
-        <v>55.2</v>
-      </c>
-      <c r="D285" t="n">
-        <v>55.2</v>
-      </c>
-      <c r="E285" t="n">
-        <v>55.2</v>
-      </c>
-      <c r="F285" t="n">
-        <v>11000</v>
-      </c>
-      <c r="G285" t="n">
-        <v>274359.0973758303</v>
-      </c>
-      <c r="H285" t="n">
-        <v>0</v>
-      </c>
-      <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L285" t="n">
-        <v>1</v>
-      </c>
-      <c r="M285" t="inlineStr"/>
-    </row>
-    <row r="286">
-      <c r="A286" s="1" t="n">
-        <v>284</v>
-      </c>
-      <c r="B286" t="n">
-        <v>55.2</v>
-      </c>
-      <c r="C286" t="n">
-        <v>55.2</v>
-      </c>
-      <c r="D286" t="n">
-        <v>55.2</v>
-      </c>
-      <c r="E286" t="n">
-        <v>55.2</v>
-      </c>
-      <c r="F286" t="n">
-        <v>584.0700000000001</v>
-      </c>
-      <c r="G286" t="n">
-        <v>274359.0973758303</v>
-      </c>
-      <c r="H286" t="n">
-        <v>0</v>
-      </c>
-      <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L286" t="n">
-        <v>1</v>
-      </c>
-      <c r="M286" t="inlineStr"/>
-    </row>
-    <row r="287">
-      <c r="A287" s="1" t="n">
-        <v>285</v>
-      </c>
-      <c r="B287" t="n">
-        <v>55.2</v>
-      </c>
-      <c r="C287" t="n">
-        <v>55.2</v>
-      </c>
-      <c r="D287" t="n">
-        <v>55.2</v>
-      </c>
-      <c r="E287" t="n">
-        <v>55.2</v>
-      </c>
-      <c r="F287" t="n">
-        <v>8933.369000000001</v>
-      </c>
-      <c r="G287" t="n">
-        <v>274359.0973758303</v>
-      </c>
-      <c r="H287" t="n">
-        <v>0</v>
-      </c>
-      <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L287" t="n">
-        <v>1</v>
-      </c>
-      <c r="M287" t="inlineStr"/>
-    </row>
-    <row r="288">
-      <c r="A288" s="1" t="n">
-        <v>286</v>
-      </c>
-      <c r="B288" t="n">
-        <v>55.21</v>
-      </c>
-      <c r="C288" t="n">
-        <v>55.21</v>
-      </c>
-      <c r="D288" t="n">
-        <v>55.21</v>
-      </c>
-      <c r="E288" t="n">
-        <v>55.21</v>
-      </c>
-      <c r="F288" t="n">
-        <v>10.033</v>
-      </c>
-      <c r="G288" t="n">
-        <v>274369.1303758303</v>
-      </c>
-      <c r="H288" t="n">
-        <v>0</v>
-      </c>
-      <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L288" t="n">
-        <v>1</v>
-      </c>
-      <c r="M288" t="inlineStr"/>
-    </row>
-    <row r="289">
-      <c r="A289" s="1" t="n">
-        <v>287</v>
-      </c>
-      <c r="B289" t="n">
-        <v>55.2</v>
-      </c>
-      <c r="C289" t="n">
-        <v>55.2</v>
-      </c>
-      <c r="D289" t="n">
-        <v>55.2</v>
-      </c>
-      <c r="E289" t="n">
-        <v>55.2</v>
-      </c>
-      <c r="F289" t="n">
-        <v>2.6809</v>
-      </c>
-      <c r="G289" t="n">
-        <v>274366.4494758304</v>
-      </c>
-      <c r="H289" t="n">
-        <v>0</v>
-      </c>
-      <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L289" t="n">
-        <v>1</v>
-      </c>
-      <c r="M289" t="inlineStr"/>
-    </row>
-    <row r="290">
-      <c r="A290" s="1" t="n">
-        <v>288</v>
-      </c>
-      <c r="B290" t="n">
-        <v>55.2</v>
-      </c>
-      <c r="C290" t="n">
-        <v>55.2</v>
-      </c>
-      <c r="D290" t="n">
-        <v>55.2</v>
-      </c>
-      <c r="E290" t="n">
-        <v>55.2</v>
-      </c>
-      <c r="F290" t="n">
-        <v>2334.961</v>
-      </c>
-      <c r="G290" t="n">
-        <v>274366.4494758304</v>
-      </c>
-      <c r="H290" t="n">
-        <v>0</v>
-      </c>
-      <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L290" t="n">
-        <v>1</v>
-      </c>
-      <c r="M290" t="inlineStr"/>
-    </row>
-    <row r="291">
-      <c r="A291" s="1" t="n">
-        <v>289</v>
-      </c>
-      <c r="B291" t="n">
-        <v>55.2</v>
-      </c>
-      <c r="C291" t="n">
-        <v>55.2</v>
-      </c>
-      <c r="D291" t="n">
-        <v>55.2</v>
-      </c>
-      <c r="E291" t="n">
-        <v>55.2</v>
-      </c>
-      <c r="F291" t="n">
-        <v>3614.1461</v>
-      </c>
-      <c r="G291" t="n">
-        <v>274366.4494758304</v>
-      </c>
-      <c r="H291" t="n">
-        <v>0</v>
-      </c>
-      <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L291" t="n">
-        <v>1</v>
-      </c>
-      <c r="M291" t="inlineStr"/>
-    </row>
-    <row r="292">
-      <c r="A292" s="1" t="n">
-        <v>290</v>
-      </c>
-      <c r="B292" t="n">
-        <v>55.2</v>
-      </c>
-      <c r="C292" t="n">
-        <v>55.2</v>
-      </c>
-      <c r="D292" t="n">
-        <v>55.2</v>
-      </c>
-      <c r="E292" t="n">
-        <v>55.2</v>
-      </c>
-      <c r="F292" t="n">
-        <v>4776.4979</v>
-      </c>
-      <c r="G292" t="n">
-        <v>274366.4494758304</v>
-      </c>
-      <c r="H292" t="n">
-        <v>0</v>
-      </c>
-      <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L292" t="n">
-        <v>1</v>
-      </c>
-      <c r="M292" t="inlineStr"/>
-    </row>
-    <row r="293">
-      <c r="A293" s="1" t="n">
-        <v>291</v>
-      </c>
-      <c r="B293" t="n">
-        <v>55.13</v>
-      </c>
-      <c r="C293" t="n">
-        <v>55.13</v>
-      </c>
-      <c r="D293" t="n">
-        <v>55.13</v>
-      </c>
-      <c r="E293" t="n">
-        <v>55.04</v>
-      </c>
-      <c r="F293" t="n">
-        <v>15251.0599</v>
-      </c>
-      <c r="G293" t="n">
-        <v>259115.3895758304</v>
-      </c>
-      <c r="H293" t="n">
-        <v>0</v>
-      </c>
-      <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L293" t="n">
-        <v>1</v>
-      </c>
-      <c r="M293" t="inlineStr"/>
-    </row>
-    <row r="294">
-      <c r="A294" s="1" t="n">
-        <v>292</v>
-      </c>
-      <c r="B294" t="n">
-        <v>55.13</v>
-      </c>
-      <c r="C294" t="n">
-        <v>55.13</v>
-      </c>
-      <c r="D294" t="n">
-        <v>55.13</v>
-      </c>
-      <c r="E294" t="n">
-        <v>55.13</v>
-      </c>
-      <c r="F294" t="n">
-        <v>246.821</v>
-      </c>
-      <c r="G294" t="n">
-        <v>259115.3895758304</v>
-      </c>
-      <c r="H294" t="n">
-        <v>0</v>
-      </c>
-      <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L294" t="n">
-        <v>1</v>
-      </c>
-      <c r="M294" t="inlineStr"/>
-    </row>
-    <row r="295">
-      <c r="A295" s="1" t="n">
-        <v>293</v>
-      </c>
-      <c r="B295" t="n">
-        <v>55.25</v>
-      </c>
-      <c r="C295" t="n">
-        <v>55.25</v>
-      </c>
-      <c r="D295" t="n">
-        <v>55.25</v>
-      </c>
-      <c r="E295" t="n">
-        <v>55.25</v>
-      </c>
-      <c r="F295" t="n">
-        <v>4797.5033</v>
-      </c>
-      <c r="G295" t="n">
-        <v>263912.8928758304</v>
-      </c>
-      <c r="H295" t="n">
-        <v>0</v>
-      </c>
-      <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L295" t="n">
-        <v>1</v>
-      </c>
-      <c r="M295" t="inlineStr"/>
-    </row>
-    <row r="296">
-      <c r="A296" s="1" t="n">
-        <v>294</v>
-      </c>
-      <c r="B296" t="n">
-        <v>55.23</v>
-      </c>
-      <c r="C296" t="n">
-        <v>55.25</v>
-      </c>
-      <c r="D296" t="n">
-        <v>55.25</v>
-      </c>
-      <c r="E296" t="n">
-        <v>55.23</v>
-      </c>
-      <c r="F296" t="n">
-        <v>15828.479</v>
-      </c>
-      <c r="G296" t="n">
-        <v>263912.8928758304</v>
-      </c>
-      <c r="H296" t="n">
-        <v>0</v>
-      </c>
-      <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L296" t="n">
-        <v>1</v>
-      </c>
-      <c r="M296" t="inlineStr"/>
-    </row>
-    <row r="297">
-      <c r="A297" s="1" t="n">
-        <v>295</v>
-      </c>
-      <c r="B297" t="n">
-        <v>55.25</v>
-      </c>
-      <c r="C297" t="n">
-        <v>55.25</v>
-      </c>
-      <c r="D297" t="n">
-        <v>55.25</v>
-      </c>
-      <c r="E297" t="n">
-        <v>55.25</v>
-      </c>
-      <c r="F297" t="n">
-        <v>5359.319</v>
-      </c>
-      <c r="G297" t="n">
-        <v>263912.8928758304</v>
-      </c>
-      <c r="H297" t="n">
-        <v>0</v>
-      </c>
-      <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L297" t="n">
-        <v>1</v>
-      </c>
-      <c r="M297" t="inlineStr"/>
-    </row>
-    <row r="298">
-      <c r="A298" s="1" t="n">
-        <v>296</v>
-      </c>
-      <c r="B298" t="n">
-        <v>55.25</v>
-      </c>
-      <c r="C298" t="n">
-        <v>55.25</v>
-      </c>
-      <c r="D298" t="n">
-        <v>55.25</v>
-      </c>
-      <c r="E298" t="n">
-        <v>55.25</v>
-      </c>
-      <c r="F298" t="n">
-        <v>21671.522</v>
-      </c>
-      <c r="G298" t="n">
-        <v>263912.8928758304</v>
-      </c>
-      <c r="H298" t="n">
-        <v>0</v>
-      </c>
-      <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L298" t="n">
-        <v>1</v>
-      </c>
-      <c r="M298" t="inlineStr"/>
-    </row>
-    <row r="299">
-      <c r="A299" s="1" t="n">
-        <v>297</v>
-      </c>
-      <c r="B299" t="n">
-        <v>55.2</v>
-      </c>
-      <c r="C299" t="n">
-        <v>55.2</v>
-      </c>
-      <c r="D299" t="n">
-        <v>55.2</v>
-      </c>
-      <c r="E299" t="n">
-        <v>55.2</v>
-      </c>
-      <c r="F299" t="n">
-        <v>7712.7676</v>
-      </c>
-      <c r="G299" t="n">
-        <v>256200.1252758304</v>
-      </c>
-      <c r="H299" t="n">
-        <v>0</v>
-      </c>
-      <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L299" t="n">
-        <v>1</v>
-      </c>
-      <c r="M299" t="inlineStr"/>
-    </row>
-    <row r="300">
-      <c r="A300" s="1" t="n">
-        <v>298</v>
-      </c>
-      <c r="B300" t="n">
-        <v>55.12</v>
-      </c>
-      <c r="C300" t="n">
-        <v>55.14</v>
-      </c>
-      <c r="D300" t="n">
-        <v>55.14</v>
-      </c>
-      <c r="E300" t="n">
-        <v>55.11</v>
-      </c>
-      <c r="F300" t="n">
-        <v>1101.1987</v>
-      </c>
-      <c r="G300" t="n">
-        <v>255098.9265758304</v>
-      </c>
-      <c r="H300" t="n">
-        <v>0</v>
-      </c>
-      <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L300" t="n">
-        <v>1</v>
-      </c>
-      <c r="M300" t="inlineStr"/>
-    </row>
-    <row r="301">
-      <c r="A301" s="1" t="n">
-        <v>299</v>
-      </c>
-      <c r="B301" t="n">
-        <v>55.14</v>
-      </c>
-      <c r="C301" t="n">
-        <v>55.14</v>
-      </c>
-      <c r="D301" t="n">
-        <v>55.14</v>
-      </c>
-      <c r="E301" t="n">
-        <v>55.14</v>
-      </c>
-      <c r="F301" t="n">
-        <v>553</v>
-      </c>
-      <c r="G301" t="n">
-        <v>255098.9265758304</v>
-      </c>
-      <c r="H301" t="n">
-        <v>0</v>
-      </c>
-      <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L301" t="n">
-        <v>1</v>
-      </c>
-      <c r="M301" t="inlineStr"/>
-    </row>
-    <row r="302">
-      <c r="A302" s="1" t="n">
-        <v>300</v>
-      </c>
-      <c r="B302" t="n">
-        <v>55.01</v>
-      </c>
-      <c r="C302" t="n">
-        <v>55</v>
-      </c>
-      <c r="D302" t="n">
-        <v>55.01</v>
-      </c>
-      <c r="E302" t="n">
-        <v>55</v>
-      </c>
-      <c r="F302" t="n">
-        <v>25078.4</v>
-      </c>
-      <c r="G302" t="n">
-        <v>230020.5265758304</v>
-      </c>
-      <c r="H302" t="n">
-        <v>0</v>
-      </c>
-      <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L302" t="n">
-        <v>1</v>
-      </c>
-      <c r="M302" t="inlineStr"/>
-    </row>
-    <row r="303">
-      <c r="A303" s="1" t="n">
-        <v>301</v>
-      </c>
-      <c r="B303" t="n">
-        <v>55</v>
-      </c>
-      <c r="C303" t="n">
-        <v>55</v>
-      </c>
-      <c r="D303" t="n">
-        <v>55</v>
-      </c>
-      <c r="E303" t="n">
-        <v>55</v>
-      </c>
-      <c r="F303" t="n">
-        <v>554.1488000000001</v>
-      </c>
-      <c r="G303" t="n">
-        <v>230020.5265758304</v>
-      </c>
-      <c r="H303" t="n">
-        <v>0</v>
-      </c>
-      <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L303" t="n">
-        <v>1</v>
-      </c>
-      <c r="M303" t="inlineStr"/>
-    </row>
-    <row r="304">
-      <c r="A304" s="1" t="n">
-        <v>302</v>
-      </c>
-      <c r="B304" t="n">
-        <v>55.01</v>
-      </c>
-      <c r="C304" t="n">
-        <v>55</v>
-      </c>
-      <c r="D304" t="n">
-        <v>55.01</v>
-      </c>
-      <c r="E304" t="n">
-        <v>55</v>
-      </c>
-      <c r="F304" t="n">
-        <v>3397.6498</v>
-      </c>
-      <c r="G304" t="n">
-        <v>230020.5265758304</v>
-      </c>
-      <c r="H304" t="n">
-        <v>0</v>
-      </c>
-      <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L304" t="n">
-        <v>1</v>
-      </c>
-      <c r="M304" t="inlineStr"/>
-    </row>
-    <row r="305">
-      <c r="A305" s="1" t="n">
-        <v>303</v>
-      </c>
-      <c r="B305" t="n">
-        <v>55</v>
-      </c>
-      <c r="C305" t="n">
-        <v>55</v>
-      </c>
-      <c r="D305" t="n">
-        <v>55</v>
-      </c>
-      <c r="E305" t="n">
-        <v>55</v>
-      </c>
-      <c r="F305" t="n">
-        <v>201.9747</v>
-      </c>
-      <c r="G305" t="n">
-        <v>230020.5265758304</v>
-      </c>
-      <c r="H305" t="n">
-        <v>0</v>
-      </c>
-      <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L305" t="n">
-        <v>1</v>
-      </c>
-      <c r="M305" t="inlineStr"/>
-    </row>
-    <row r="306">
-      <c r="A306" s="1" t="n">
-        <v>304</v>
-      </c>
-      <c r="B306" t="n">
-        <v>54.97</v>
-      </c>
-      <c r="C306" t="n">
-        <v>54.93</v>
-      </c>
-      <c r="D306" t="n">
-        <v>54.97</v>
-      </c>
-      <c r="E306" t="n">
-        <v>54.93</v>
-      </c>
-      <c r="F306" t="n">
-        <v>11481.7651</v>
-      </c>
-      <c r="G306" t="n">
-        <v>218538.7614758304</v>
-      </c>
-      <c r="H306" t="n">
-        <v>0</v>
-      </c>
-      <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L306" t="n">
-        <v>1</v>
-      </c>
-      <c r="M306" t="inlineStr"/>
-    </row>
-    <row r="307">
-      <c r="A307" s="1" t="n">
-        <v>305</v>
-      </c>
-      <c r="B307" t="n">
-        <v>54.81</v>
-      </c>
-      <c r="C307" t="n">
-        <v>54.81</v>
-      </c>
-      <c r="D307" t="n">
-        <v>54.81</v>
-      </c>
-      <c r="E307" t="n">
-        <v>54.81</v>
-      </c>
-      <c r="F307" t="n">
-        <v>4617.4214</v>
-      </c>
-      <c r="G307" t="n">
-        <v>213921.3400758304</v>
-      </c>
-      <c r="H307" t="n">
-        <v>0</v>
-      </c>
-      <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L307" t="n">
-        <v>1</v>
-      </c>
-      <c r="M307" t="inlineStr"/>
-    </row>
-    <row r="308">
-      <c r="A308" s="1" t="n">
-        <v>306</v>
-      </c>
-      <c r="B308" t="n">
-        <v>54.72</v>
-      </c>
-      <c r="C308" t="n">
-        <v>54.72</v>
-      </c>
-      <c r="D308" t="n">
-        <v>54.72</v>
-      </c>
-      <c r="E308" t="n">
-        <v>54.72</v>
-      </c>
-      <c r="F308" t="n">
-        <v>5511.4939</v>
-      </c>
-      <c r="G308" t="n">
-        <v>208409.8461758304</v>
-      </c>
-      <c r="H308" t="n">
-        <v>0</v>
-      </c>
-      <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L308" t="n">
-        <v>1</v>
-      </c>
-      <c r="M308" t="inlineStr"/>
-    </row>
-    <row r="309">
-      <c r="A309" s="1" t="n">
-        <v>307</v>
-      </c>
-      <c r="B309" t="n">
-        <v>54.82</v>
-      </c>
-      <c r="C309" t="n">
-        <v>54.82</v>
-      </c>
-      <c r="D309" t="n">
-        <v>54.82</v>
-      </c>
-      <c r="E309" t="n">
-        <v>54.82</v>
-      </c>
-      <c r="F309" t="n">
-        <v>437.2281</v>
-      </c>
-      <c r="G309" t="n">
-        <v>208847.0742758304</v>
-      </c>
-      <c r="H309" t="n">
-        <v>0</v>
-      </c>
-      <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L309" t="n">
-        <v>1</v>
-      </c>
-      <c r="M309" t="inlineStr"/>
-    </row>
-    <row r="310">
-      <c r="A310" s="1" t="n">
-        <v>308</v>
-      </c>
-      <c r="B310" t="n">
-        <v>54.72</v>
-      </c>
-      <c r="C310" t="n">
-        <v>54.72</v>
-      </c>
-      <c r="D310" t="n">
-        <v>54.72</v>
-      </c>
-      <c r="E310" t="n">
-        <v>54.72</v>
-      </c>
-      <c r="F310" t="n">
-        <v>40175</v>
-      </c>
-      <c r="G310" t="n">
-        <v>168672.0742758304</v>
-      </c>
-      <c r="H310" t="n">
-        <v>0</v>
-      </c>
-      <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L310" t="n">
-        <v>1</v>
-      </c>
-      <c r="M310" t="inlineStr"/>
-    </row>
-    <row r="311">
-      <c r="A311" s="1" t="n">
-        <v>309</v>
-      </c>
-      <c r="B311" t="n">
-        <v>54.82</v>
-      </c>
-      <c r="C311" t="n">
-        <v>54.82</v>
-      </c>
-      <c r="D311" t="n">
-        <v>54.82</v>
-      </c>
-      <c r="E311" t="n">
-        <v>54.82</v>
-      </c>
-      <c r="F311" t="n">
-        <v>459.671</v>
-      </c>
-      <c r="G311" t="n">
-        <v>169131.7452758304</v>
-      </c>
-      <c r="H311" t="n">
-        <v>0</v>
-      </c>
-      <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L311" t="n">
-        <v>1</v>
-      </c>
-      <c r="M311" t="inlineStr"/>
-    </row>
-    <row r="312">
-      <c r="A312" s="1" t="n">
-        <v>310</v>
-      </c>
-      <c r="B312" t="n">
-        <v>54.82</v>
-      </c>
-      <c r="C312" t="n">
-        <v>54.87</v>
-      </c>
-      <c r="D312" t="n">
-        <v>54.87</v>
-      </c>
-      <c r="E312" t="n">
-        <v>54.82</v>
-      </c>
-      <c r="F312" t="n">
-        <v>1043.8768</v>
-      </c>
-      <c r="G312" t="n">
-        <v>170175.6220758304</v>
-      </c>
-      <c r="H312" t="n">
-        <v>0</v>
-      </c>
-      <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L312" t="n">
-        <v>1</v>
-      </c>
-      <c r="M312" t="inlineStr"/>
-    </row>
-    <row r="313">
-      <c r="A313" s="1" t="n">
-        <v>311</v>
-      </c>
-      <c r="B313" t="n">
-        <v>54.87</v>
-      </c>
-      <c r="C313" t="n">
-        <v>54.87</v>
-      </c>
-      <c r="D313" t="n">
-        <v>54.87</v>
-      </c>
-      <c r="E313" t="n">
-        <v>54.87</v>
-      </c>
-      <c r="F313" t="n">
-        <v>318.8</v>
-      </c>
-      <c r="G313" t="n">
-        <v>170175.6220758304</v>
-      </c>
-      <c r="H313" t="n">
-        <v>0</v>
-      </c>
-      <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L313" t="n">
-        <v>1</v>
-      </c>
-      <c r="M313" t="inlineStr"/>
-    </row>
-    <row r="314">
-      <c r="A314" s="1" t="n">
-        <v>312</v>
-      </c>
-      <c r="B314" t="n">
-        <v>54.87</v>
-      </c>
-      <c r="C314" t="n">
-        <v>54.87</v>
-      </c>
-      <c r="D314" t="n">
-        <v>54.87</v>
-      </c>
-      <c r="E314" t="n">
-        <v>54.87</v>
-      </c>
-      <c r="F314" t="n">
-        <v>2198.1148</v>
-      </c>
-      <c r="G314" t="n">
-        <v>170175.6220758304</v>
-      </c>
-      <c r="H314" t="n">
-        <v>0</v>
-      </c>
-      <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L314" t="n">
-        <v>1</v>
-      </c>
-      <c r="M314" t="inlineStr"/>
-    </row>
-    <row r="315">
-      <c r="A315" s="1" t="n">
-        <v>313</v>
-      </c>
-      <c r="B315" t="n">
-        <v>54.88</v>
-      </c>
-      <c r="C315" t="n">
-        <v>54.87</v>
-      </c>
-      <c r="D315" t="n">
-        <v>54.88</v>
-      </c>
-      <c r="E315" t="n">
-        <v>54.87</v>
-      </c>
-      <c r="F315" t="n">
-        <v>911.5674</v>
-      </c>
-      <c r="G315" t="n">
-        <v>170175.6220758304</v>
-      </c>
-      <c r="H315" t="n">
-        <v>0</v>
-      </c>
-      <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L315" t="n">
-        <v>1</v>
-      </c>
-      <c r="M315" t="inlineStr"/>
-    </row>
-    <row r="316">
-      <c r="A316" s="1" t="n">
-        <v>314</v>
-      </c>
-      <c r="B316" t="n">
-        <v>54.87</v>
-      </c>
-      <c r="C316" t="n">
-        <v>54.87</v>
-      </c>
-      <c r="D316" t="n">
-        <v>54.87</v>
-      </c>
-      <c r="E316" t="n">
-        <v>54.87</v>
-      </c>
-      <c r="F316" t="n">
-        <v>41552.3459</v>
-      </c>
-      <c r="G316" t="n">
-        <v>170175.6220758304</v>
-      </c>
-      <c r="H316" t="n">
-        <v>0</v>
-      </c>
-      <c r="I316" t="inlineStr"/>
-      <c r="J316" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L316" t="n">
-        <v>1</v>
-      </c>
-      <c r="M316" t="inlineStr"/>
-    </row>
-    <row r="317">
-      <c r="A317" s="1" t="n">
-        <v>315</v>
-      </c>
-      <c r="B317" t="n">
-        <v>54.87</v>
-      </c>
-      <c r="C317" t="n">
-        <v>54.87</v>
-      </c>
-      <c r="D317" t="n">
-        <v>54.87</v>
-      </c>
-      <c r="E317" t="n">
-        <v>54.87</v>
-      </c>
-      <c r="F317" t="n">
-        <v>672.138</v>
-      </c>
-      <c r="G317" t="n">
-        <v>170175.6220758304</v>
-      </c>
-      <c r="H317" t="n">
-        <v>0</v>
-      </c>
-      <c r="I317" t="inlineStr"/>
-      <c r="J317" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L317" t="n">
-        <v>1</v>
-      </c>
-      <c r="M317" t="inlineStr"/>
-    </row>
-    <row r="318">
-      <c r="A318" s="1" t="n">
-        <v>316</v>
-      </c>
-      <c r="B318" t="n">
-        <v>54.87</v>
-      </c>
-      <c r="C318" t="n">
-        <v>54.87</v>
-      </c>
-      <c r="D318" t="n">
-        <v>54.87</v>
-      </c>
-      <c r="E318" t="n">
-        <v>54.87</v>
-      </c>
-      <c r="F318" t="n">
-        <v>7060.0582</v>
-      </c>
-      <c r="G318" t="n">
-        <v>170175.6220758304</v>
-      </c>
-      <c r="H318" t="n">
-        <v>0</v>
-      </c>
-      <c r="I318" t="inlineStr"/>
-      <c r="J318" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L318" t="n">
-        <v>1</v>
-      </c>
-      <c r="M318" t="inlineStr"/>
-    </row>
-    <row r="319">
-      <c r="A319" s="1" t="n">
-        <v>317</v>
-      </c>
-      <c r="B319" t="n">
-        <v>54.87</v>
-      </c>
-      <c r="C319" t="n">
-        <v>54.87</v>
-      </c>
-      <c r="D319" t="n">
-        <v>54.87</v>
-      </c>
-      <c r="E319" t="n">
-        <v>54.87</v>
-      </c>
-      <c r="F319" t="n">
-        <v>6159.8429</v>
-      </c>
-      <c r="G319" t="n">
-        <v>170175.6220758304</v>
-      </c>
-      <c r="H319" t="n">
-        <v>0</v>
-      </c>
-      <c r="I319" t="inlineStr"/>
-      <c r="J319" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L319" t="n">
-        <v>1</v>
-      </c>
-      <c r="M319" t="inlineStr"/>
-    </row>
-    <row r="320">
-      <c r="A320" s="1" t="n">
-        <v>318</v>
-      </c>
-      <c r="B320" t="n">
-        <v>54.96</v>
-      </c>
-      <c r="C320" t="n">
-        <v>54.96</v>
-      </c>
-      <c r="D320" t="n">
-        <v>54.96</v>
-      </c>
-      <c r="E320" t="n">
-        <v>54.96</v>
-      </c>
-      <c r="F320" t="n">
-        <v>16666.4</v>
-      </c>
-      <c r="G320" t="n">
-        <v>186842.0220758304</v>
-      </c>
-      <c r="H320" t="n">
-        <v>1</v>
-      </c>
-      <c r="I320" t="n">
-        <v>54.87</v>
-      </c>
-      <c r="J320" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L320" t="n">
-        <v>1</v>
-      </c>
-      <c r="M320" t="inlineStr"/>
-    </row>
-    <row r="321">
-      <c r="A321" s="1" t="n">
-        <v>319</v>
-      </c>
-      <c r="B321" t="n">
-        <v>54.96</v>
-      </c>
-      <c r="C321" t="n">
-        <v>54.96</v>
-      </c>
-      <c r="D321" t="n">
-        <v>54.96</v>
-      </c>
-      <c r="E321" t="n">
-        <v>54.96</v>
-      </c>
-      <c r="F321" t="n">
-        <v>3333.6</v>
-      </c>
-      <c r="G321" t="n">
-        <v>186842.0220758304</v>
-      </c>
-      <c r="H321" t="n">
-        <v>0</v>
-      </c>
-      <c r="I321" t="inlineStr"/>
-      <c r="J321" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L321" t="n">
-        <v>1</v>
-      </c>
-      <c r="M321" t="inlineStr"/>
-    </row>
-    <row r="322">
-      <c r="A322" s="1" t="n">
-        <v>320</v>
-      </c>
-      <c r="B322" t="n">
-        <v>55.03</v>
-      </c>
-      <c r="C322" t="n">
-        <v>55.03</v>
-      </c>
-      <c r="D322" t="n">
-        <v>55.03</v>
-      </c>
-      <c r="E322" t="n">
-        <v>55.03</v>
-      </c>
-      <c r="F322" t="n">
-        <v>15847.3256</v>
-      </c>
-      <c r="G322" t="n">
-        <v>202689.3476758304</v>
-      </c>
-      <c r="H322" t="n">
-        <v>0</v>
-      </c>
-      <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L322" t="n">
-        <v>1</v>
-      </c>
-      <c r="M322" t="inlineStr"/>
-    </row>
-    <row r="323">
-      <c r="A323" s="1" t="n">
-        <v>321</v>
-      </c>
-      <c r="B323" t="n">
-        <v>54.88</v>
-      </c>
-      <c r="C323" t="n">
-        <v>54.88</v>
-      </c>
-      <c r="D323" t="n">
-        <v>54.88</v>
-      </c>
-      <c r="E323" t="n">
-        <v>54.88</v>
-      </c>
-      <c r="F323" t="n">
-        <v>106127.0044</v>
-      </c>
-      <c r="G323" t="n">
-        <v>96562.34327583038</v>
-      </c>
-      <c r="H323" t="n">
-        <v>0</v>
-      </c>
-      <c r="I323" t="inlineStr"/>
-      <c r="J323" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L323" t="n">
-        <v>1</v>
-      </c>
-      <c r="M323" t="inlineStr"/>
-    </row>
-    <row r="324">
-      <c r="A324" s="1" t="n">
-        <v>322</v>
-      </c>
-      <c r="B324" t="n">
-        <v>55.04</v>
-      </c>
-      <c r="C324" t="n">
-        <v>55.05</v>
-      </c>
-      <c r="D324" t="n">
-        <v>55.05</v>
-      </c>
-      <c r="E324" t="n">
-        <v>55.04</v>
-      </c>
-      <c r="F324" t="n">
-        <v>11430.1886</v>
-      </c>
-      <c r="G324" t="n">
-        <v>107992.5318758304</v>
-      </c>
-      <c r="H324" t="n">
-        <v>0</v>
-      </c>
-      <c r="I324" t="inlineStr"/>
-      <c r="J324" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L324" t="n">
-        <v>1</v>
-      </c>
-      <c r="M324" t="inlineStr"/>
-    </row>
-    <row r="325">
-      <c r="A325" s="1" t="n">
-        <v>323</v>
-      </c>
-      <c r="B325" t="n">
-        <v>55.05</v>
-      </c>
-      <c r="C325" t="n">
-        <v>55.03</v>
-      </c>
-      <c r="D325" t="n">
-        <v>55.05</v>
-      </c>
-      <c r="E325" t="n">
-        <v>55.03</v>
-      </c>
-      <c r="F325" t="n">
-        <v>12495.2197</v>
-      </c>
-      <c r="G325" t="n">
-        <v>95497.31217583038</v>
-      </c>
-      <c r="H325" t="n">
-        <v>0</v>
-      </c>
-      <c r="I325" t="inlineStr"/>
-      <c r="J325" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L325" t="n">
-        <v>1</v>
-      </c>
-      <c r="M325" t="inlineStr"/>
-    </row>
-    <row r="326">
-      <c r="A326" s="1" t="n">
-        <v>324</v>
-      </c>
-      <c r="B326" t="n">
-        <v>55.02</v>
-      </c>
-      <c r="C326" t="n">
-        <v>55.02</v>
-      </c>
-      <c r="D326" t="n">
-        <v>55.02</v>
-      </c>
-      <c r="E326" t="n">
-        <v>55.02</v>
-      </c>
-      <c r="F326" t="n">
-        <v>24414.1022</v>
-      </c>
-      <c r="G326" t="n">
-        <v>71083.20997583037</v>
-      </c>
-      <c r="H326" t="n">
-        <v>0</v>
-      </c>
-      <c r="I326" t="inlineStr"/>
-      <c r="J326" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L326" t="n">
-        <v>1</v>
-      </c>
-      <c r="M326" t="inlineStr"/>
-    </row>
-    <row r="327">
-      <c r="A327" s="1" t="n">
-        <v>325</v>
-      </c>
-      <c r="B327" t="n">
-        <v>55</v>
-      </c>
-      <c r="C327" t="n">
-        <v>55</v>
-      </c>
-      <c r="D327" t="n">
-        <v>55</v>
-      </c>
-      <c r="E327" t="n">
-        <v>55</v>
-      </c>
-      <c r="F327" t="n">
-        <v>17941.6249</v>
-      </c>
-      <c r="G327" t="n">
-        <v>53141.58507583037</v>
-      </c>
-      <c r="H327" t="n">
-        <v>0</v>
-      </c>
-      <c r="I327" t="inlineStr"/>
-      <c r="J327" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L327" t="n">
-        <v>1</v>
-      </c>
-      <c r="M327" t="inlineStr"/>
-    </row>
-    <row r="328">
-      <c r="A328" s="1" t="n">
-        <v>326</v>
-      </c>
-      <c r="B328" t="n">
-        <v>54.88</v>
-      </c>
-      <c r="C328" t="n">
-        <v>54.87</v>
-      </c>
-      <c r="D328" t="n">
-        <v>54.88</v>
-      </c>
-      <c r="E328" t="n">
-        <v>54.87</v>
-      </c>
-      <c r="F328" t="n">
-        <v>1231.073</v>
-      </c>
-      <c r="G328" t="n">
-        <v>51910.51207583037</v>
-      </c>
-      <c r="H328" t="n">
-        <v>0</v>
-      </c>
-      <c r="I328" t="inlineStr"/>
-      <c r="J328" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L328" t="n">
-        <v>1</v>
-      </c>
-      <c r="M328" t="inlineStr"/>
-    </row>
-    <row r="329">
-      <c r="A329" s="1" t="n">
-        <v>327</v>
-      </c>
-      <c r="B329" t="n">
-        <v>54.87</v>
-      </c>
-      <c r="C329" t="n">
-        <v>54.87</v>
-      </c>
-      <c r="D329" t="n">
-        <v>54.87</v>
-      </c>
-      <c r="E329" t="n">
-        <v>54.87</v>
-      </c>
-      <c r="F329" t="n">
-        <v>13729.0683</v>
-      </c>
-      <c r="G329" t="n">
-        <v>51910.51207583037</v>
-      </c>
-      <c r="H329" t="n">
-        <v>0</v>
-      </c>
-      <c r="I329" t="inlineStr"/>
-      <c r="J329" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L329" t="n">
-        <v>1</v>
-      </c>
-      <c r="M329" t="inlineStr"/>
-    </row>
-    <row r="330">
-      <c r="A330" s="1" t="n">
-        <v>328</v>
-      </c>
-      <c r="B330" t="n">
-        <v>54.87</v>
-      </c>
-      <c r="C330" t="n">
-        <v>54.87</v>
-      </c>
-      <c r="D330" t="n">
-        <v>54.87</v>
-      </c>
-      <c r="E330" t="n">
-        <v>54.87</v>
-      </c>
-      <c r="F330" t="n">
-        <v>1063.5094</v>
-      </c>
-      <c r="G330" t="n">
-        <v>51910.51207583037</v>
-      </c>
-      <c r="H330" t="n">
-        <v>0</v>
-      </c>
-      <c r="I330" t="inlineStr"/>
-      <c r="J330" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L330" t="n">
-        <v>1</v>
-      </c>
-      <c r="M330" t="inlineStr"/>
-    </row>
-    <row r="331">
-      <c r="A331" s="1" t="n">
-        <v>329</v>
-      </c>
-      <c r="B331" t="n">
-        <v>54.82</v>
-      </c>
-      <c r="C331" t="n">
-        <v>54.82</v>
-      </c>
-      <c r="D331" t="n">
-        <v>54.82</v>
-      </c>
-      <c r="E331" t="n">
-        <v>54.82</v>
-      </c>
-      <c r="F331" t="n">
-        <v>38747.5369</v>
-      </c>
-      <c r="G331" t="n">
-        <v>13162.97517583038</v>
-      </c>
-      <c r="H331" t="n">
-        <v>0</v>
-      </c>
-      <c r="I331" t="inlineStr"/>
-      <c r="J331" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L331" t="n">
-        <v>1</v>
-      </c>
-      <c r="M331" t="inlineStr"/>
-    </row>
-    <row r="332">
-      <c r="A332" s="1" t="n">
-        <v>330</v>
-      </c>
-      <c r="B332" t="n">
-        <v>54.91</v>
-      </c>
-      <c r="C332" t="n">
-        <v>54.91</v>
-      </c>
-      <c r="D332" t="n">
-        <v>54.91</v>
-      </c>
-      <c r="E332" t="n">
-        <v>54.91</v>
-      </c>
-      <c r="F332" t="n">
-        <v>1616.9999</v>
-      </c>
-      <c r="G332" t="n">
-        <v>14779.97507583038</v>
-      </c>
-      <c r="H332" t="n">
-        <v>0</v>
-      </c>
-      <c r="I332" t="inlineStr"/>
-      <c r="J332" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L332" t="n">
-        <v>1</v>
-      </c>
-      <c r="M332" t="inlineStr"/>
-    </row>
-    <row r="333">
-      <c r="A333" s="1" t="n">
-        <v>331</v>
-      </c>
-      <c r="B333" t="n">
-        <v>54.85</v>
-      </c>
-      <c r="C333" t="n">
-        <v>54.85</v>
-      </c>
-      <c r="D333" t="n">
-        <v>54.85</v>
-      </c>
-      <c r="E333" t="n">
-        <v>54.85</v>
-      </c>
-      <c r="F333" t="n">
-        <v>4000</v>
-      </c>
-      <c r="G333" t="n">
-        <v>10779.97507583038</v>
-      </c>
-      <c r="H333" t="n">
-        <v>0</v>
-      </c>
-      <c r="I333" t="inlineStr"/>
-      <c r="J333" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L333" t="n">
-        <v>1</v>
-      </c>
-      <c r="M333" t="inlineStr"/>
-    </row>
-    <row r="334">
-      <c r="A334" s="1" t="n">
-        <v>332</v>
-      </c>
-      <c r="B334" t="n">
-        <v>54.85</v>
-      </c>
-      <c r="C334" t="n">
-        <v>54.85</v>
-      </c>
-      <c r="D334" t="n">
-        <v>54.85</v>
-      </c>
-      <c r="E334" t="n">
-        <v>54.85</v>
-      </c>
-      <c r="F334" t="n">
-        <v>5158.6196</v>
-      </c>
-      <c r="G334" t="n">
-        <v>10779.97507583038</v>
-      </c>
-      <c r="H334" t="n">
-        <v>0</v>
-      </c>
-      <c r="I334" t="inlineStr"/>
-      <c r="J334" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L334" t="n">
-        <v>1</v>
-      </c>
-      <c r="M334" t="inlineStr"/>
-    </row>
-    <row r="335">
-      <c r="A335" s="1" t="n">
-        <v>333</v>
-      </c>
-      <c r="B335" t="n">
-        <v>55.01</v>
-      </c>
-      <c r="C335" t="n">
-        <v>55</v>
-      </c>
-      <c r="D335" t="n">
-        <v>55.01</v>
-      </c>
-      <c r="E335" t="n">
-        <v>55</v>
-      </c>
-      <c r="F335" t="n">
-        <v>1154.1546</v>
-      </c>
-      <c r="G335" t="n">
-        <v>11934.12967583038</v>
-      </c>
-      <c r="H335" t="n">
-        <v>0</v>
-      </c>
-      <c r="I335" t="inlineStr"/>
-      <c r="J335" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L335" t="n">
-        <v>1</v>
-      </c>
-      <c r="M335" t="inlineStr"/>
-    </row>
-    <row r="336">
-      <c r="A336" s="1" t="n">
-        <v>334</v>
-      </c>
-      <c r="B336" t="n">
-        <v>55</v>
-      </c>
-      <c r="C336" t="n">
-        <v>55</v>
-      </c>
-      <c r="D336" t="n">
-        <v>55</v>
-      </c>
-      <c r="E336" t="n">
-        <v>55</v>
-      </c>
-      <c r="F336" t="n">
-        <v>14280.2781</v>
-      </c>
-      <c r="G336" t="n">
-        <v>11934.12967583038</v>
-      </c>
-      <c r="H336" t="n">
-        <v>0</v>
-      </c>
-      <c r="I336" t="inlineStr"/>
-      <c r="J336" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L336" t="n">
-        <v>1</v>
-      </c>
-      <c r="M336" t="inlineStr"/>
-    </row>
-    <row r="337">
-      <c r="A337" s="1" t="n">
-        <v>335</v>
-      </c>
-      <c r="B337" t="n">
-        <v>55</v>
-      </c>
-      <c r="C337" t="n">
-        <v>55</v>
-      </c>
-      <c r="D337" t="n">
-        <v>55</v>
-      </c>
-      <c r="E337" t="n">
-        <v>55</v>
-      </c>
-      <c r="F337" t="n">
-        <v>2646.3542</v>
-      </c>
-      <c r="G337" t="n">
-        <v>11934.12967583038</v>
-      </c>
-      <c r="H337" t="n">
-        <v>0</v>
-      </c>
-      <c r="I337" t="inlineStr"/>
-      <c r="J337" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L337" t="n">
-        <v>1</v>
-      </c>
-      <c r="M337" t="inlineStr"/>
-    </row>
-    <row r="338">
-      <c r="A338" s="1" t="n">
-        <v>336</v>
-      </c>
-      <c r="B338" t="n">
-        <v>55</v>
-      </c>
-      <c r="C338" t="n">
-        <v>55</v>
-      </c>
-      <c r="D338" t="n">
-        <v>55</v>
-      </c>
-      <c r="E338" t="n">
-        <v>55</v>
-      </c>
-      <c r="F338" t="n">
-        <v>1818.18181818</v>
-      </c>
-      <c r="G338" t="n">
-        <v>11934.12967583038</v>
-      </c>
-      <c r="H338" t="n">
-        <v>0</v>
-      </c>
-      <c r="I338" t="inlineStr"/>
-      <c r="J338" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L338" t="n">
-        <v>1</v>
-      </c>
-      <c r="M338" t="inlineStr"/>
-    </row>
-    <row r="339">
-      <c r="A339" s="1" t="n">
-        <v>337</v>
-      </c>
-      <c r="B339" t="n">
-        <v>55</v>
-      </c>
-      <c r="C339" t="n">
-        <v>55</v>
-      </c>
-      <c r="D339" t="n">
-        <v>55</v>
-      </c>
-      <c r="E339" t="n">
-        <v>55</v>
-      </c>
-      <c r="F339" t="n">
-        <v>669.1566</v>
-      </c>
-      <c r="G339" t="n">
-        <v>11934.12967583038</v>
-      </c>
-      <c r="H339" t="n">
-        <v>0</v>
-      </c>
-      <c r="I339" t="inlineStr"/>
-      <c r="J339" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L339" t="n">
-        <v>1</v>
-      </c>
-      <c r="M339" t="inlineStr"/>
-    </row>
-    <row r="340">
-      <c r="A340" s="1" t="n">
-        <v>338</v>
-      </c>
-      <c r="B340" t="n">
-        <v>55</v>
-      </c>
-      <c r="C340" t="n">
-        <v>55</v>
-      </c>
-      <c r="D340" t="n">
-        <v>55</v>
-      </c>
-      <c r="E340" t="n">
-        <v>55</v>
-      </c>
-      <c r="F340" t="n">
-        <v>10713.4313</v>
-      </c>
-      <c r="G340" t="n">
-        <v>11934.12967583038</v>
-      </c>
-      <c r="H340" t="n">
-        <v>0</v>
-      </c>
-      <c r="I340" t="inlineStr"/>
-      <c r="J340" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L340" t="n">
-        <v>1</v>
-      </c>
-      <c r="M340" t="inlineStr"/>
-    </row>
-    <row r="341">
-      <c r="A341" s="1" t="n">
-        <v>339</v>
-      </c>
-      <c r="B341" t="n">
-        <v>54.88</v>
-      </c>
-      <c r="C341" t="n">
-        <v>54.88</v>
-      </c>
-      <c r="D341" t="n">
-        <v>54.88</v>
-      </c>
-      <c r="E341" t="n">
-        <v>54.88</v>
-      </c>
-      <c r="F341" t="n">
-        <v>211.4</v>
-      </c>
-      <c r="G341" t="n">
-        <v>11722.72967583038</v>
-      </c>
-      <c r="H341" t="n">
-        <v>0</v>
-      </c>
-      <c r="I341" t="inlineStr"/>
-      <c r="J341" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L341" t="n">
-        <v>1</v>
-      </c>
-      <c r="M341" t="inlineStr"/>
-    </row>
-    <row r="342">
-      <c r="A342" s="1" t="n">
-        <v>340</v>
-      </c>
-      <c r="B342" t="n">
-        <v>55</v>
-      </c>
-      <c r="C342" t="n">
-        <v>55.01</v>
-      </c>
-      <c r="D342" t="n">
-        <v>55.01</v>
-      </c>
-      <c r="E342" t="n">
-        <v>55</v>
-      </c>
-      <c r="F342" t="n">
-        <v>51471.44338182</v>
-      </c>
-      <c r="G342" t="n">
-        <v>63194.17305765038</v>
-      </c>
-      <c r="H342" t="n">
-        <v>0</v>
-      </c>
-      <c r="I342" t="inlineStr"/>
-      <c r="J342" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12420,7 +11728,7 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="n">
-        <v>54.9</v>
+        <v>55</v>
       </c>
       <c r="K343" t="inlineStr">
         <is>
@@ -12455,11 +11763,13 @@
         <v>64635.32645765038</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
-      </c>
-      <c r="I344" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I344" t="n">
+        <v>55.04</v>
+      </c>
       <c r="J344" t="n">
-        <v>54.9</v>
+        <v>55</v>
       </c>
       <c r="K344" t="inlineStr">
         <is>
@@ -12494,11 +11804,13 @@
         <v>65174.32645765038</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
-      </c>
-      <c r="I345" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I345" t="n">
+        <v>55.04</v>
+      </c>
       <c r="J345" t="n">
-        <v>54.9</v>
+        <v>55</v>
       </c>
       <c r="K345" t="inlineStr">
         <is>
@@ -12537,7 +11849,7 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="n">
-        <v>54.9</v>
+        <v>55</v>
       </c>
       <c r="K346" t="inlineStr">
         <is>
@@ -12576,7 +11888,7 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="n">
-        <v>54.9</v>
+        <v>55</v>
       </c>
       <c r="K347" t="inlineStr">
         <is>
@@ -12615,7 +11927,7 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="n">
-        <v>54.9</v>
+        <v>55</v>
       </c>
       <c r="K348" t="inlineStr">
         <is>
@@ -12654,7 +11966,7 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="n">
-        <v>54.9</v>
+        <v>55</v>
       </c>
       <c r="K349" t="inlineStr">
         <is>
@@ -12693,7 +12005,7 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="n">
-        <v>54.9</v>
+        <v>55</v>
       </c>
       <c r="K350" t="inlineStr">
         <is>
@@ -12732,7 +12044,7 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="n">
-        <v>54.9</v>
+        <v>55</v>
       </c>
       <c r="K351" t="inlineStr">
         <is>
@@ -12771,7 +12083,7 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="n">
-        <v>54.9</v>
+        <v>55</v>
       </c>
       <c r="K352" t="inlineStr">
         <is>
@@ -12810,7 +12122,7 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="n">
-        <v>54.9</v>
+        <v>55</v>
       </c>
       <c r="K353" t="inlineStr">
         <is>
@@ -12849,7 +12161,7 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="n">
-        <v>54.9</v>
+        <v>55</v>
       </c>
       <c r="K354" t="inlineStr">
         <is>
@@ -12888,7 +12200,7 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="n">
-        <v>54.9</v>
+        <v>55</v>
       </c>
       <c r="K355" t="inlineStr">
         <is>
@@ -12927,7 +12239,7 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="n">
-        <v>54.9</v>
+        <v>55</v>
       </c>
       <c r="K356" t="inlineStr">
         <is>
@@ -12966,7 +12278,7 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="n">
-        <v>54.9</v>
+        <v>55</v>
       </c>
       <c r="K357" t="inlineStr">
         <is>
@@ -13001,13 +12313,11 @@
         <v>46753.91445765036</v>
       </c>
       <c r="H358" t="n">
-        <v>1</v>
-      </c>
-      <c r="I358" t="n">
-        <v>54.95</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I358" t="inlineStr"/>
       <c r="J358" t="n">
-        <v>54.9</v>
+        <v>55</v>
       </c>
       <c r="K358" t="inlineStr">
         <is>
@@ -13042,13 +12352,11 @@
         <v>51312.91445765036</v>
       </c>
       <c r="H359" t="n">
-        <v>1</v>
-      </c>
-      <c r="I359" t="n">
-        <v>54.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I359" t="inlineStr"/>
       <c r="J359" t="n">
-        <v>54.9</v>
+        <v>55</v>
       </c>
       <c r="K359" t="inlineStr">
         <is>
@@ -13083,13 +12391,11 @@
         <v>51312.91445765036</v>
       </c>
       <c r="H360" t="n">
-        <v>1</v>
-      </c>
-      <c r="I360" t="n">
-        <v>54.98</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I360" t="inlineStr"/>
       <c r="J360" t="n">
-        <v>54.9</v>
+        <v>55</v>
       </c>
       <c r="K360" t="inlineStr">
         <is>
@@ -13124,13 +12430,11 @@
         <v>51725.91295765036</v>
       </c>
       <c r="H361" t="n">
-        <v>1</v>
-      </c>
-      <c r="I361" t="n">
-        <v>54.98</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I361" t="inlineStr"/>
       <c r="J361" t="n">
-        <v>54.9</v>
+        <v>55</v>
       </c>
       <c r="K361" t="inlineStr">
         <is>
@@ -13165,13 +12469,11 @@
         <v>31036.96635765036</v>
       </c>
       <c r="H362" t="n">
-        <v>1</v>
-      </c>
-      <c r="I362" t="n">
-        <v>55.07</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I362" t="inlineStr"/>
       <c r="J362" t="n">
-        <v>54.9</v>
+        <v>55</v>
       </c>
       <c r="K362" t="inlineStr">
         <is>
@@ -13206,13 +12508,11 @@
         <v>31036.96635765036</v>
       </c>
       <c r="H363" t="n">
-        <v>1</v>
-      </c>
-      <c r="I363" t="n">
-        <v>55</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I363" t="inlineStr"/>
       <c r="J363" t="n">
-        <v>54.9</v>
+        <v>55</v>
       </c>
       <c r="K363" t="inlineStr">
         <is>
@@ -13247,13 +12547,11 @@
         <v>31036.96635765036</v>
       </c>
       <c r="H364" t="n">
-        <v>1</v>
-      </c>
-      <c r="I364" t="n">
-        <v>55</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I364" t="inlineStr"/>
       <c r="J364" t="n">
-        <v>54.9</v>
+        <v>55</v>
       </c>
       <c r="K364" t="inlineStr">
         <is>
@@ -13288,13 +12586,11 @@
         <v>31036.96635765036</v>
       </c>
       <c r="H365" t="n">
-        <v>1</v>
-      </c>
-      <c r="I365" t="n">
-        <v>55</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I365" t="inlineStr"/>
       <c r="J365" t="n">
-        <v>54.9</v>
+        <v>55</v>
       </c>
       <c r="K365" t="inlineStr">
         <is>
@@ -13329,13 +12625,11 @@
         <v>31036.96635765036</v>
       </c>
       <c r="H366" t="n">
-        <v>1</v>
-      </c>
-      <c r="I366" t="n">
-        <v>55</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I366" t="inlineStr"/>
       <c r="J366" t="n">
-        <v>54.9</v>
+        <v>55</v>
       </c>
       <c r="K366" t="inlineStr">
         <is>
@@ -13370,13 +12664,11 @@
         <v>31036.96635765036</v>
       </c>
       <c r="H367" t="n">
-        <v>1</v>
-      </c>
-      <c r="I367" t="n">
-        <v>55</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I367" t="inlineStr"/>
       <c r="J367" t="n">
-        <v>54.9</v>
+        <v>55</v>
       </c>
       <c r="K367" t="inlineStr">
         <is>
@@ -13411,13 +12703,11 @@
         <v>31036.96635765036</v>
       </c>
       <c r="H368" t="n">
-        <v>1</v>
-      </c>
-      <c r="I368" t="n">
-        <v>55</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I368" t="inlineStr"/>
       <c r="J368" t="n">
-        <v>54.9</v>
+        <v>55</v>
       </c>
       <c r="K368" t="inlineStr">
         <is>
@@ -13452,13 +12742,11 @@
         <v>31036.96635765036</v>
       </c>
       <c r="H369" t="n">
-        <v>1</v>
-      </c>
-      <c r="I369" t="n">
-        <v>55</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I369" t="inlineStr"/>
       <c r="J369" t="n">
-        <v>54.9</v>
+        <v>55</v>
       </c>
       <c r="K369" t="inlineStr">
         <is>
@@ -13493,13 +12781,11 @@
         <v>31036.96635765036</v>
       </c>
       <c r="H370" t="n">
-        <v>1</v>
-      </c>
-      <c r="I370" t="n">
-        <v>55</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I370" t="inlineStr"/>
       <c r="J370" t="n">
-        <v>54.9</v>
+        <v>55</v>
       </c>
       <c r="K370" t="inlineStr">
         <is>
@@ -13534,13 +12820,11 @@
         <v>31036.96635765036</v>
       </c>
       <c r="H371" t="n">
-        <v>1</v>
-      </c>
-      <c r="I371" t="n">
-        <v>55</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I371" t="inlineStr"/>
       <c r="J371" t="n">
-        <v>54.9</v>
+        <v>55</v>
       </c>
       <c r="K371" t="inlineStr">
         <is>
@@ -13575,13 +12859,11 @@
         <v>31036.96635765036</v>
       </c>
       <c r="H372" t="n">
-        <v>1</v>
-      </c>
-      <c r="I372" t="n">
-        <v>55</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I372" t="inlineStr"/>
       <c r="J372" t="n">
-        <v>54.9</v>
+        <v>55</v>
       </c>
       <c r="K372" t="inlineStr">
         <is>
@@ -13616,13 +12898,11 @@
         <v>39197.40135765036</v>
       </c>
       <c r="H373" t="n">
-        <v>1</v>
-      </c>
-      <c r="I373" t="n">
-        <v>55</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I373" t="inlineStr"/>
       <c r="J373" t="n">
-        <v>54.9</v>
+        <v>55</v>
       </c>
       <c r="K373" t="inlineStr">
         <is>
@@ -13657,13 +12937,11 @@
         <v>39197.40135765036</v>
       </c>
       <c r="H374" t="n">
-        <v>1</v>
-      </c>
-      <c r="I374" t="n">
-        <v>55.05</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I374" t="inlineStr"/>
       <c r="J374" t="n">
-        <v>54.9</v>
+        <v>55</v>
       </c>
       <c r="K374" t="inlineStr">
         <is>
@@ -13698,13 +12976,11 @@
         <v>39333.16215765036</v>
       </c>
       <c r="H375" t="n">
-        <v>1</v>
-      </c>
-      <c r="I375" t="n">
-        <v>55.05</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I375" t="inlineStr"/>
       <c r="J375" t="n">
-        <v>54.9</v>
+        <v>55</v>
       </c>
       <c r="K375" t="inlineStr">
         <is>
@@ -13739,13 +13015,11 @@
         <v>39333.16215765036</v>
       </c>
       <c r="H376" t="n">
-        <v>1</v>
-      </c>
-      <c r="I376" t="n">
-        <v>55.07</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I376" t="inlineStr"/>
       <c r="J376" t="n">
-        <v>54.9</v>
+        <v>55</v>
       </c>
       <c r="K376" t="inlineStr">
         <is>
@@ -13758,6 +13032,6 @@
       <c r="M376" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-13 BackTest XLM.xlsx
+++ b/BackTest/2020-01-13 BackTest XLM.xlsx
@@ -451,7 +451,7 @@
         <v>342944.7567245801</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>572785.7022245801</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>572785.7022245801</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>572785.7022245801</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>573445.9792245801</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>573445.9792245801</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>573445.9792245801</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>571277.9792245801</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>560728.5210245801</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>560728.5210245801</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>617929.0128245801</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>617374.6985245801</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>615962.0815245801</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>997414.5456245804</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>1000537.49302458</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>999453.4930245803</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>974585.1699245803</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>974585.1699245803</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>974585.1699245803</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>974585.1699245803</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>974585.1699245803</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>974585.1699245803</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>974585.1699245803</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>974585.1699245803</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>974585.1699245803</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>974585.1699245803</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>974585.1699245803</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>973107.3150245802</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>1010641.70422458</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>1004692.32792458</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>1004070.32792458</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>1004494.04042458</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>1004070.04042458</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>1004494.04042458</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>946843.0703245802</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>946843.0703245802</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>946843.0703245802</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>933367.7793245802</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>953367.7793245802</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>943554.6793245802</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>901658.2756245802</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>204185.1311758304</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>204197.8142758304</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>203619.8152758304</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>207798.5552758304</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>207735.2446758304</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>207775.2446758304</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>207711.8812758304</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>207271.7722758304</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>207271.7722758304</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>188969.6383758304</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>183571.9752758304</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7249,10 +7249,14 @@
         <v>220678.4822758304</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I208" t="n">
+        <v>54.72</v>
+      </c>
+      <c r="J208" t="n">
+        <v>54.72</v>
+      </c>
       <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
@@ -7285,8 +7289,14 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>54.72</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7318,8 +7328,14 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>54.72</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7744,10 +7760,14 @@
         <v>231750.5416758303</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I223" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="J223" t="n">
+        <v>55.02</v>
+      </c>
       <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
@@ -7777,11 +7797,19 @@
         <v>231650.5416758303</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I224" t="n">
+        <v>55.01</v>
+      </c>
+      <c r="J224" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7810,11 +7838,19 @@
         <v>228831.6837758303</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I225" t="n">
+        <v>54.98</v>
+      </c>
+      <c r="J225" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -7843,11 +7879,19 @@
         <v>228831.6837758303</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I226" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="J226" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -7876,11 +7920,19 @@
         <v>228831.6837758303</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I227" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="J227" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -7909,11 +7961,19 @@
         <v>228831.6837758303</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I228" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="J228" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -7942,11 +8002,19 @@
         <v>229824.6837758303</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I229" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="J229" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -7975,11 +8043,19 @@
         <v>229258.4440758303</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I230" t="n">
+        <v>54.92</v>
+      </c>
+      <c r="J230" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8008,11 +8084,19 @@
         <v>229258.4440758303</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I231" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="J231" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8041,11 +8125,19 @@
         <v>229052.8820758303</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I232" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="J232" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8074,11 +8166,19 @@
         <v>230542.1628758303</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I233" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="J233" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8107,11 +8207,19 @@
         <v>233030.1628758303</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I234" t="n">
+        <v>54.83</v>
+      </c>
+      <c r="J234" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8140,11 +8248,19 @@
         <v>233030.1628758303</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I235" t="n">
+        <v>54.87</v>
+      </c>
+      <c r="J235" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8173,11 +8289,19 @@
         <v>234269.1231758303</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I236" t="n">
+        <v>54.87</v>
+      </c>
+      <c r="J236" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8206,11 +8330,19 @@
         <v>252502.4564758303</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I237" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="J237" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8242,8 +8374,14 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8275,8 +8413,14 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8308,8 +8452,14 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8341,8 +8491,14 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8374,8 +8530,14 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8407,8 +8569,14 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8440,8 +8608,14 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8473,8 +8647,14 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8506,8 +8686,14 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8539,8 +8725,14 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8572,8 +8764,14 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8602,11 +8800,19 @@
         <v>246726.3370758303</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I249" t="n">
+        <v>55.01</v>
+      </c>
+      <c r="J249" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8635,11 +8841,19 @@
         <v>246726.3370758303</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I250" t="n">
+        <v>55.04</v>
+      </c>
+      <c r="J250" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8668,11 +8882,19 @@
         <v>244810.3370758303</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I251" t="n">
+        <v>55.04</v>
+      </c>
+      <c r="J251" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8701,11 +8923,19 @@
         <v>245436.9942758303</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I252" t="n">
+        <v>54.91</v>
+      </c>
+      <c r="J252" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8734,11 +8964,19 @@
         <v>254521.5467758303</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I253" t="n">
+        <v>54.93</v>
+      </c>
+      <c r="J253" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8767,11 +9005,19 @@
         <v>244475.9219758303</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I254" t="n">
+        <v>55</v>
+      </c>
+      <c r="J254" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -8800,11 +9046,19 @@
         <v>245134.9219758303</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I255" t="n">
+        <v>54.76</v>
+      </c>
+      <c r="J255" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -8833,11 +9087,19 @@
         <v>245134.9219758303</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I256" t="n">
+        <v>54.89</v>
+      </c>
+      <c r="J256" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -8866,11 +9128,19 @@
         <v>246134.9219758303</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I257" t="n">
+        <v>54.89</v>
+      </c>
+      <c r="J257" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -8899,11 +9169,19 @@
         <v>248975.4247758303</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
-      </c>
-      <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I258" t="n">
+        <v>54.93</v>
+      </c>
+      <c r="J258" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -8932,11 +9210,19 @@
         <v>250060.1046758303</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I259" t="n">
+        <v>55.01</v>
+      </c>
+      <c r="J259" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -8965,11 +9251,19 @@
         <v>250060.1046758303</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I260" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="J260" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -8998,11 +9292,19 @@
         <v>250029.0362758303</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I261" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="J261" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9031,11 +9333,19 @@
         <v>252482.7961758303</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I262" t="n">
+        <v>55.01</v>
+      </c>
+      <c r="J262" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9064,11 +9374,19 @@
         <v>252393.5815758303</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I263" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="J263" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9097,11 +9415,19 @@
         <v>250314.1209758303</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I264" t="n">
+        <v>54.98</v>
+      </c>
+      <c r="J264" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9130,11 +9456,19 @@
         <v>250324.1209758303</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I265" t="n">
+        <v>54.78</v>
+      </c>
+      <c r="J265" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9163,11 +9497,19 @@
         <v>249691.1209758303</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I266" t="n">
+        <v>54.91</v>
+      </c>
+      <c r="J266" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9196,11 +9538,19 @@
         <v>250621.1209758303</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I267" t="n">
+        <v>54.79</v>
+      </c>
+      <c r="J267" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9229,11 +9579,19 @@
         <v>252067.3869138903</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I268" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="J268" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9262,11 +9620,19 @@
         <v>252067.3869138903</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I269" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="J269" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9295,11 +9661,19 @@
         <v>243415.1987138903</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I270" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="J270" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9328,11 +9702,19 @@
         <v>258503.5373758303</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I271" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="J271" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9361,11 +9743,19 @@
         <v>259053.7023758303</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I272" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="J272" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9394,11 +9784,19 @@
         <v>259391.7023758303</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I273" t="n">
+        <v>54.92</v>
+      </c>
+      <c r="J273" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9430,8 +9828,14 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9463,8 +9867,14 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9496,8 +9906,14 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9529,8 +9945,14 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9562,8 +9984,14 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9595,8 +10023,14 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9628,8 +10062,14 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9661,8 +10101,14 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9694,8 +10140,14 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -9727,8 +10179,14 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -9760,8 +10218,14 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -9793,8 +10257,14 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -9826,8 +10296,14 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -9859,8 +10335,14 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -9892,8 +10374,14 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -9925,8 +10413,14 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -9958,8 +10452,14 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -9991,8 +10491,14 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10024,8 +10530,14 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10057,8 +10569,14 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10090,8 +10608,14 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10123,8 +10647,14 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10156,8 +10686,14 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10189,8 +10725,14 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10222,8 +10764,14 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10255,8 +10803,14 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10288,8 +10842,14 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10321,8 +10881,14 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10354,8 +10920,14 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10384,11 +10956,19 @@
         <v>230020.5265758304</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
-      </c>
-      <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I303" t="n">
+        <v>55</v>
+      </c>
+      <c r="J303" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10417,11 +10997,19 @@
         <v>230020.5265758304</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
-      </c>
-      <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I304" t="n">
+        <v>55</v>
+      </c>
+      <c r="J304" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10450,11 +11038,19 @@
         <v>230020.5265758304</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
-      </c>
-      <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I305" t="n">
+        <v>55</v>
+      </c>
+      <c r="J305" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10483,11 +11079,19 @@
         <v>218538.7614758304</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
-      </c>
-      <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I306" t="n">
+        <v>55</v>
+      </c>
+      <c r="J306" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10516,11 +11120,19 @@
         <v>213921.3400758304</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
-      </c>
-      <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I307" t="n">
+        <v>54.93</v>
+      </c>
+      <c r="J307" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10549,11 +11161,19 @@
         <v>208409.8461758304</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
-      </c>
-      <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I308" t="n">
+        <v>54.81</v>
+      </c>
+      <c r="J308" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10582,11 +11202,19 @@
         <v>208847.0742758304</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
-      </c>
-      <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I309" t="n">
+        <v>54.72</v>
+      </c>
+      <c r="J309" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10615,11 +11243,19 @@
         <v>168672.0742758304</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
-      </c>
-      <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I310" t="n">
+        <v>54.82</v>
+      </c>
+      <c r="J310" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -10648,11 +11284,19 @@
         <v>169131.7452758304</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
-      </c>
-      <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I311" t="n">
+        <v>54.72</v>
+      </c>
+      <c r="J311" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -10681,11 +11325,19 @@
         <v>170175.6220758304</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
-      </c>
-      <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I312" t="n">
+        <v>54.82</v>
+      </c>
+      <c r="J312" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -10714,11 +11366,19 @@
         <v>170175.6220758304</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
-      </c>
-      <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I313" t="n">
+        <v>54.87</v>
+      </c>
+      <c r="J313" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -10747,11 +11407,19 @@
         <v>170175.6220758304</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
-      </c>
-      <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I314" t="n">
+        <v>54.87</v>
+      </c>
+      <c r="J314" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -10780,11 +11448,19 @@
         <v>170175.6220758304</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
-      </c>
-      <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I315" t="n">
+        <v>54.87</v>
+      </c>
+      <c r="J315" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -10813,11 +11489,19 @@
         <v>170175.6220758304</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
-      </c>
-      <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I316" t="n">
+        <v>54.87</v>
+      </c>
+      <c r="J316" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -10846,11 +11530,19 @@
         <v>170175.6220758304</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
-      </c>
-      <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I317" t="n">
+        <v>54.87</v>
+      </c>
+      <c r="J317" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -10879,11 +11571,19 @@
         <v>170175.6220758304</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
-      </c>
-      <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I318" t="n">
+        <v>54.87</v>
+      </c>
+      <c r="J318" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -10912,11 +11612,19 @@
         <v>170175.6220758304</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
-      </c>
-      <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I319" t="n">
+        <v>54.87</v>
+      </c>
+      <c r="J319" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -10945,11 +11653,19 @@
         <v>186842.0220758304</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
-      </c>
-      <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I320" t="n">
+        <v>54.87</v>
+      </c>
+      <c r="J320" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -10978,11 +11694,19 @@
         <v>186842.0220758304</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
-      </c>
-      <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I321" t="n">
+        <v>54.96</v>
+      </c>
+      <c r="J321" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11011,11 +11735,19 @@
         <v>202689.3476758304</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
-      </c>
-      <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I322" t="n">
+        <v>54.96</v>
+      </c>
+      <c r="J322" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11044,11 +11776,19 @@
         <v>96562.34327583038</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
-      </c>
-      <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I323" t="n">
+        <v>55.03</v>
+      </c>
+      <c r="J323" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11077,11 +11817,19 @@
         <v>107992.5318758304</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
-      </c>
-      <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I324" t="n">
+        <v>54.88</v>
+      </c>
+      <c r="J324" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11110,11 +11858,19 @@
         <v>95497.31217583038</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
-      </c>
-      <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I325" t="n">
+        <v>55.05</v>
+      </c>
+      <c r="J325" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11143,11 +11899,19 @@
         <v>71083.20997583037</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
-      </c>
-      <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I326" t="n">
+        <v>55.03</v>
+      </c>
+      <c r="J326" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11176,11 +11940,19 @@
         <v>53141.58507583037</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
-      </c>
-      <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I327" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="J327" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11209,11 +11981,19 @@
         <v>51910.51207583037</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
-      </c>
-      <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I328" t="n">
+        <v>55</v>
+      </c>
+      <c r="J328" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11242,11 +12022,19 @@
         <v>51910.51207583037</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
-      </c>
-      <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I329" t="n">
+        <v>54.87</v>
+      </c>
+      <c r="J329" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11275,11 +12063,19 @@
         <v>51910.51207583037</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
-      </c>
-      <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I330" t="n">
+        <v>54.87</v>
+      </c>
+      <c r="J330" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11308,11 +12104,19 @@
         <v>13162.97517583038</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
-      </c>
-      <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I331" t="n">
+        <v>54.87</v>
+      </c>
+      <c r="J331" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11341,11 +12145,19 @@
         <v>14779.97507583038</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
-      </c>
-      <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I332" t="n">
+        <v>54.82</v>
+      </c>
+      <c r="J332" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11374,11 +12186,19 @@
         <v>10779.97507583038</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
-      </c>
-      <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I333" t="n">
+        <v>54.91</v>
+      </c>
+      <c r="J333" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11407,11 +12227,19 @@
         <v>10779.97507583038</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
-      </c>
-      <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I334" t="n">
+        <v>54.85</v>
+      </c>
+      <c r="J334" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11440,11 +12268,19 @@
         <v>11934.12967583038</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
-      </c>
-      <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I335" t="n">
+        <v>54.85</v>
+      </c>
+      <c r="J335" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11473,11 +12309,19 @@
         <v>11934.12967583038</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
-      </c>
-      <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I336" t="n">
+        <v>55</v>
+      </c>
+      <c r="J336" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11506,11 +12350,19 @@
         <v>11934.12967583038</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
-      </c>
-      <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I337" t="n">
+        <v>55</v>
+      </c>
+      <c r="J337" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11539,11 +12391,19 @@
         <v>11934.12967583038</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
-      </c>
-      <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I338" t="n">
+        <v>55</v>
+      </c>
+      <c r="J338" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11572,11 +12432,19 @@
         <v>11934.12967583038</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
-      </c>
-      <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I339" t="n">
+        <v>55</v>
+      </c>
+      <c r="J339" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -11611,9 +12479,13 @@
         <v>55</v>
       </c>
       <c r="J340" t="n">
-        <v>55</v>
-      </c>
-      <c r="K340" t="inlineStr"/>
+        <v>55.02</v>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -11648,11 +12520,11 @@
         <v>55</v>
       </c>
       <c r="J341" t="n">
-        <v>55</v>
+        <v>55.02</v>
       </c>
       <c r="K341" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L341" t="n">
@@ -11689,11 +12561,11 @@
         <v>54.88</v>
       </c>
       <c r="J342" t="n">
-        <v>55</v>
+        <v>55.02</v>
       </c>
       <c r="K342" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L342" t="n">
@@ -11724,11 +12596,13 @@
         <v>64635.32645765038</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
-      </c>
-      <c r="I343" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I343" t="n">
+        <v>55.01</v>
+      </c>
       <c r="J343" t="n">
-        <v>55</v>
+        <v>55.02</v>
       </c>
       <c r="K343" t="inlineStr">
         <is>
@@ -11769,7 +12643,7 @@
         <v>55.04</v>
       </c>
       <c r="J344" t="n">
-        <v>55</v>
+        <v>55.02</v>
       </c>
       <c r="K344" t="inlineStr">
         <is>
@@ -11810,7 +12684,7 @@
         <v>55.04</v>
       </c>
       <c r="J345" t="n">
-        <v>55</v>
+        <v>55.02</v>
       </c>
       <c r="K345" t="inlineStr">
         <is>
@@ -11849,7 +12723,7 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="n">
-        <v>55</v>
+        <v>55.02</v>
       </c>
       <c r="K346" t="inlineStr">
         <is>
@@ -11888,7 +12762,7 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="n">
-        <v>55</v>
+        <v>55.02</v>
       </c>
       <c r="K347" t="inlineStr">
         <is>
@@ -11927,7 +12801,7 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="n">
-        <v>55</v>
+        <v>55.02</v>
       </c>
       <c r="K348" t="inlineStr">
         <is>
@@ -11966,7 +12840,7 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="n">
-        <v>55</v>
+        <v>55.02</v>
       </c>
       <c r="K349" t="inlineStr">
         <is>
@@ -12005,7 +12879,7 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="n">
-        <v>55</v>
+        <v>55.02</v>
       </c>
       <c r="K350" t="inlineStr">
         <is>
@@ -12044,7 +12918,7 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="n">
-        <v>55</v>
+        <v>55.02</v>
       </c>
       <c r="K351" t="inlineStr">
         <is>
@@ -12083,7 +12957,7 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="n">
-        <v>55</v>
+        <v>55.02</v>
       </c>
       <c r="K352" t="inlineStr">
         <is>
@@ -12122,7 +12996,7 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="n">
-        <v>55</v>
+        <v>55.02</v>
       </c>
       <c r="K353" t="inlineStr">
         <is>
@@ -12157,11 +13031,13 @@
         <v>54721.09445765036</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
-      </c>
-      <c r="I354" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I354" t="n">
+        <v>55.22</v>
+      </c>
       <c r="J354" t="n">
-        <v>55</v>
+        <v>55.02</v>
       </c>
       <c r="K354" t="inlineStr">
         <is>
@@ -12196,11 +13072,13 @@
         <v>54902.19445765036</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
-      </c>
-      <c r="I355" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I355" t="n">
+        <v>55.05</v>
+      </c>
       <c r="J355" t="n">
-        <v>55</v>
+        <v>55.02</v>
       </c>
       <c r="K355" t="inlineStr">
         <is>
@@ -12235,11 +13113,13 @@
         <v>47053.91445765036</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
-      </c>
-      <c r="I356" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I356" t="n">
+        <v>55.22</v>
+      </c>
       <c r="J356" t="n">
-        <v>55</v>
+        <v>55.02</v>
       </c>
       <c r="K356" t="inlineStr">
         <is>
@@ -12274,11 +13154,13 @@
         <v>47053.91445765036</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
-      </c>
-      <c r="I357" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I357" t="n">
+        <v>54.95</v>
+      </c>
       <c r="J357" t="n">
-        <v>55</v>
+        <v>55.02</v>
       </c>
       <c r="K357" t="inlineStr">
         <is>
@@ -12313,11 +13195,13 @@
         <v>46753.91445765036</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
-      </c>
-      <c r="I358" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I358" t="n">
+        <v>54.95</v>
+      </c>
       <c r="J358" t="n">
-        <v>55</v>
+        <v>55.02</v>
       </c>
       <c r="K358" t="inlineStr">
         <is>
@@ -12352,11 +13236,13 @@
         <v>51312.91445765036</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
-      </c>
-      <c r="I359" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I359" t="n">
+        <v>54.8</v>
+      </c>
       <c r="J359" t="n">
-        <v>55</v>
+        <v>55.02</v>
       </c>
       <c r="K359" t="inlineStr">
         <is>
@@ -12391,11 +13277,13 @@
         <v>51312.91445765036</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
-      </c>
-      <c r="I360" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I360" t="n">
+        <v>54.98</v>
+      </c>
       <c r="J360" t="n">
-        <v>55</v>
+        <v>55.02</v>
       </c>
       <c r="K360" t="inlineStr">
         <is>
@@ -12430,11 +13318,13 @@
         <v>51725.91295765036</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
-      </c>
-      <c r="I361" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I361" t="n">
+        <v>54.98</v>
+      </c>
       <c r="J361" t="n">
-        <v>55</v>
+        <v>55.02</v>
       </c>
       <c r="K361" t="inlineStr">
         <is>
@@ -12469,11 +13359,13 @@
         <v>31036.96635765036</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
-      </c>
-      <c r="I362" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I362" t="n">
+        <v>55.07</v>
+      </c>
       <c r="J362" t="n">
-        <v>55</v>
+        <v>55.02</v>
       </c>
       <c r="K362" t="inlineStr">
         <is>
@@ -12508,11 +13400,13 @@
         <v>31036.96635765036</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
-      </c>
-      <c r="I363" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I363" t="n">
+        <v>55</v>
+      </c>
       <c r="J363" t="n">
-        <v>55</v>
+        <v>55.02</v>
       </c>
       <c r="K363" t="inlineStr">
         <is>
@@ -12547,11 +13441,13 @@
         <v>31036.96635765036</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
-      </c>
-      <c r="I364" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I364" t="n">
+        <v>55</v>
+      </c>
       <c r="J364" t="n">
-        <v>55</v>
+        <v>55.02</v>
       </c>
       <c r="K364" t="inlineStr">
         <is>
@@ -12586,11 +13482,13 @@
         <v>31036.96635765036</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
-      </c>
-      <c r="I365" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I365" t="n">
+        <v>55</v>
+      </c>
       <c r="J365" t="n">
-        <v>55</v>
+        <v>55.02</v>
       </c>
       <c r="K365" t="inlineStr">
         <is>
@@ -12625,11 +13523,13 @@
         <v>31036.96635765036</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
-      </c>
-      <c r="I366" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I366" t="n">
+        <v>55</v>
+      </c>
       <c r="J366" t="n">
-        <v>55</v>
+        <v>55.02</v>
       </c>
       <c r="K366" t="inlineStr">
         <is>
@@ -12664,11 +13564,13 @@
         <v>31036.96635765036</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
-      </c>
-      <c r="I367" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I367" t="n">
+        <v>55</v>
+      </c>
       <c r="J367" t="n">
-        <v>55</v>
+        <v>55.02</v>
       </c>
       <c r="K367" t="inlineStr">
         <is>
@@ -12703,11 +13605,13 @@
         <v>31036.96635765036</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
-      </c>
-      <c r="I368" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I368" t="n">
+        <v>55</v>
+      </c>
       <c r="J368" t="n">
-        <v>55</v>
+        <v>55.02</v>
       </c>
       <c r="K368" t="inlineStr">
         <is>
@@ -12742,11 +13646,13 @@
         <v>31036.96635765036</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
-      </c>
-      <c r="I369" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I369" t="n">
+        <v>55</v>
+      </c>
       <c r="J369" t="n">
-        <v>55</v>
+        <v>55.02</v>
       </c>
       <c r="K369" t="inlineStr">
         <is>
@@ -12781,11 +13687,13 @@
         <v>31036.96635765036</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
-      </c>
-      <c r="I370" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I370" t="n">
+        <v>55</v>
+      </c>
       <c r="J370" t="n">
-        <v>55</v>
+        <v>55.02</v>
       </c>
       <c r="K370" t="inlineStr">
         <is>
@@ -12820,11 +13728,13 @@
         <v>31036.96635765036</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
-      </c>
-      <c r="I371" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I371" t="n">
+        <v>55</v>
+      </c>
       <c r="J371" t="n">
-        <v>55</v>
+        <v>55.02</v>
       </c>
       <c r="K371" t="inlineStr">
         <is>
@@ -12859,11 +13769,13 @@
         <v>31036.96635765036</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
-      </c>
-      <c r="I372" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I372" t="n">
+        <v>55</v>
+      </c>
       <c r="J372" t="n">
-        <v>55</v>
+        <v>55.02</v>
       </c>
       <c r="K372" t="inlineStr">
         <is>
@@ -12898,11 +13810,13 @@
         <v>39197.40135765036</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
-      </c>
-      <c r="I373" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I373" t="n">
+        <v>55</v>
+      </c>
       <c r="J373" t="n">
-        <v>55</v>
+        <v>55.02</v>
       </c>
       <c r="K373" t="inlineStr">
         <is>
@@ -12937,11 +13851,13 @@
         <v>39197.40135765036</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
-      </c>
-      <c r="I374" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I374" t="n">
+        <v>55.05</v>
+      </c>
       <c r="J374" t="n">
-        <v>55</v>
+        <v>55.02</v>
       </c>
       <c r="K374" t="inlineStr">
         <is>
@@ -12976,11 +13892,13 @@
         <v>39333.16215765036</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
-      </c>
-      <c r="I375" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I375" t="n">
+        <v>55.05</v>
+      </c>
       <c r="J375" t="n">
-        <v>55</v>
+        <v>55.02</v>
       </c>
       <c r="K375" t="inlineStr">
         <is>
@@ -13015,11 +13933,13 @@
         <v>39333.16215765036</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
-      </c>
-      <c r="I376" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I376" t="n">
+        <v>55.07</v>
+      </c>
       <c r="J376" t="n">
-        <v>55</v>
+        <v>55.02</v>
       </c>
       <c r="K376" t="inlineStr">
         <is>
